--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v2\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\workspace_automation\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D50475-2655-468C-A096-589778945EC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF320E19-3523-4E14-AB06-09273C9CCF1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="322">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -981,6 +981,24 @@
   </si>
   <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t>user29433</t>
+  </si>
+  <si>
+    <t>Classic Checking - 294330</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>9987690987</t>
+  </si>
+  <si>
+    <t>Money Market Share Draft - 4000294332</t>
+  </si>
+  <si>
+    <t>Work Phone;Home Phone</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1394,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:F42"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2071,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2091,7 +2109,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -4158,9 +4176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,7 +4191,8 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49.28515625" customWidth="1"/>
   </cols>
@@ -4717,16 +4736,46 @@
       <c r="A34" t="s">
         <v>299</v>
       </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>300</v>
       </c>
+      <c r="J35" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>305</v>
       </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4767,6 +4816,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\workspace_automation\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF320E19-3523-4E14-AB06-09273C9CCF1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0B7AB-D6A3-4458-9B88-28DE30EE1568}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="326">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -968,9 +968,6 @@
     <t>Option</t>
   </si>
   <si>
-    <t>Inquiry</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
@@ -999,13 +996,28 @@
   </si>
   <si>
     <t>Work Phone;Home Phone</t>
+  </si>
+  <si>
+    <t>user2426526</t>
+  </si>
+  <si>
+    <t>Classic Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Share </t>
+  </si>
+  <si>
+    <t>user82733</t>
+  </si>
+  <si>
+    <t>Inquire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +1048,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1058,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1076,6 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1394,7 +1413,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2089,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2109,7 +2128,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2129,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2149,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2169,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2189,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2197,7 +2216,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
@@ -2209,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -2217,7 +2236,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>17</v>
@@ -2229,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -4176,9 +4195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4193,8 +4212,9 @@
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49.28515625" customWidth="1"/>
+    <col min="14" max="14" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4737,13 +4757,13 @@
         <v>299</v>
       </c>
       <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
         <v>317</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4751,16 +4771,16 @@
         <v>300</v>
       </c>
       <c r="J35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
         <v>317</v>
       </c>
-      <c r="K35" t="s">
-        <v>320</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="M35" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4768,20 +4788,29 @@
         <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>306</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4789,29 +4818,71 @@
       <c r="A38" t="s">
         <v>308</v>
       </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>309</v>
       </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>313</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N41" t="s">
         <v>314</v>
-      </c>
-      <c r="N41" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\workspace_automation\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0B7AB-D6A3-4458-9B88-28DE30EE1568}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59CB9A-D4F8-4C1B-B32F-546706F681EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="335">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>AccountType</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://secure8.onlineaccess1.com/TDECUOnline_Test/uux.aspx#/login</t>
-  </si>
-  <si>
     <t>VerifyValidLogin</t>
   </si>
   <si>
@@ -890,27 +887,18 @@
     <t>Aut60</t>
   </si>
   <si>
-    <t>299933</t>
-  </si>
-  <si>
     <t>PAX</t>
   </si>
   <si>
     <t>29993100</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>user2007262</t>
-  </si>
-  <si>
     <t>20072625</t>
   </si>
   <si>
@@ -1011,6 +999,45 @@
   </si>
   <si>
     <t>Inquire</t>
+  </si>
+  <si>
+    <t>https://aus-temporary.q2ebanking.com/vfi_stage/tdecuonline_upg/stg/uux.aspx#/login</t>
+  </si>
+  <si>
+    <t>Tdecu123!</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test@546</t>
+  </si>
+  <si>
+    <t>2046417</t>
+  </si>
+  <si>
+    <t>73345100</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>733451</t>
+  </si>
+  <si>
+    <t>69518</t>
+  </si>
+  <si>
+    <t>Tdecu@123</t>
+  </si>
+  <si>
+    <t>Classic Checking	20276978	$9.44</t>
+  </si>
+  <si>
+    <t>Classic Checking	20276986	$199.73</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1095,6 +1122,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1412,14 +1442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1448,10 +1478,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1459,19 +1489,19 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
+      <c r="E2" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1479,19 +1509,19 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
+      <c r="E3" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1499,19 +1529,19 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
+      <c r="E4" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1519,19 +1549,19 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>79</v>
+      <c r="E5" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1539,19 +1569,19 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
+      <c r="E6" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1559,19 +1589,19 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>79</v>
+      <c r="E7" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1579,19 +1609,19 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>79</v>
+      <c r="E8" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1599,19 +1629,19 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>79</v>
+      <c r="E9" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1619,19 +1649,19 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
+      <c r="E10" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1639,19 +1669,19 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
+      <c r="E11" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1659,19 +1689,19 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
+      <c r="E12" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1679,19 +1709,19 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
+      <c r="E13" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1699,19 +1729,19 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>79</v>
+      <c r="E14" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1719,19 +1749,19 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>79</v>
+      <c r="E15" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1742,10 +1772,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1756,10 +1786,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1767,19 +1797,19 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>79</v>
+      <c r="E18" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1787,19 +1817,19 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>79</v>
+      <c r="E19" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1808,18 +1838,18 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1827,19 +1857,19 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
-        <v>79</v>
+      <c r="E21" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1847,19 +1877,19 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>79</v>
+      <c r="E22" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1867,19 +1897,19 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>79</v>
+      <c r="E23" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1887,19 +1917,19 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>79</v>
+      <c r="E24" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1907,19 +1937,19 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>79</v>
+      <c r="E25" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1927,19 +1957,19 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>79</v>
+      <c r="E26" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1947,19 +1977,19 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
-        <v>79</v>
+      <c r="E27" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -1967,19 +1997,19 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="s">
-        <v>79</v>
+      <c r="E28" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -1987,19 +2017,19 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>79</v>
+      <c r="E29" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2007,19 +2037,19 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
-        <v>79</v>
+      <c r="E30" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2027,19 +2057,19 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
-        <v>79</v>
+      <c r="E31" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2047,19 +2077,19 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
-        <v>79</v>
+      <c r="E32" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2067,19 +2097,19 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
-        <v>79</v>
+      <c r="E33" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2088,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2096,10 +2126,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2108,7 +2138,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2116,10 +2146,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2128,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2136,10 +2166,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2148,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2156,10 +2186,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2168,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2176,10 +2206,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2188,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2196,10 +2226,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2208,7 +2238,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2216,10 +2246,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2228,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -2236,10 +2266,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2248,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -2256,10 +2286,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2267,19 +2297,19 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
-        <v>79</v>
+      <c r="E43" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2287,19 +2317,19 @@
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" t="s">
-        <v>79</v>
+      <c r="E44" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2307,19 +2337,19 @@
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
-        <v>79</v>
+      <c r="E45" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2327,19 +2357,19 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
-        <v>79</v>
+      <c r="E46" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2347,19 +2377,19 @@
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>79</v>
+      <c r="E47" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2367,19 +2397,19 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>79</v>
+      <c r="E48" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2387,19 +2417,19 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" t="s">
-        <v>79</v>
+      <c r="E49" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2407,19 +2437,19 @@
       <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
-        <v>79</v>
+      <c r="E50" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2427,19 +2457,19 @@
       <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="E51" t="s">
-        <v>79</v>
+      <c r="E51" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2447,19 +2477,19 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
-        <v>79</v>
+      <c r="E52" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2467,19 +2497,19 @@
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
-        <v>79</v>
+      <c r="E53" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2487,19 +2517,19 @@
       <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="E54" t="s">
-        <v>79</v>
+      <c r="E54" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2507,19 +2537,19 @@
       <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" t="s">
-        <v>79</v>
+      <c r="E55" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2527,19 +2557,19 @@
       <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
-        <v>79</v>
+      <c r="E56" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2547,19 +2577,19 @@
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
-        <v>79</v>
+      <c r="E57" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2567,19 +2597,19 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="E58" t="s">
-        <v>79</v>
+      <c r="E58" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -2587,19 +2617,19 @@
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" t="s">
-        <v>79</v>
+      <c r="E59" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -2607,19 +2637,19 @@
       <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" t="s">
-        <v>79</v>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2627,19 +2657,19 @@
       <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
-        <v>79</v>
+      <c r="E61" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2647,19 +2677,19 @@
       <c r="D62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
-        <v>79</v>
+      <c r="E62" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -2667,19 +2697,19 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" t="s">
-        <v>79</v>
+      <c r="E63" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2687,19 +2717,19 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64" t="s">
-        <v>79</v>
+      <c r="E64" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -2707,19 +2737,19 @@
       <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
-        <v>79</v>
+      <c r="E65" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -2727,19 +2757,19 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
-        <v>79</v>
+      <c r="E66" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2747,19 +2777,19 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="E67" t="s">
-        <v>79</v>
+      <c r="E67" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -2767,19 +2797,19 @@
       <c r="D68" t="s">
         <v>12</v>
       </c>
-      <c r="E68" t="s">
-        <v>79</v>
+      <c r="E68" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -2787,19 +2817,19 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="E69" t="s">
-        <v>79</v>
+      <c r="E69" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2807,19 +2837,19 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
-        <v>79</v>
+      <c r="E70" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -2827,19 +2857,19 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" t="s">
-        <v>79</v>
+      <c r="E71" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -2847,19 +2877,19 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
-      <c r="E72" t="s">
-        <v>79</v>
+      <c r="E72" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -2867,19 +2897,19 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
-      <c r="E73" t="s">
-        <v>79</v>
+      <c r="E73" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -2887,19 +2917,19 @@
       <c r="D74" t="s">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
-        <v>79</v>
+      <c r="E74" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2907,19 +2937,19 @@
       <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="E75" t="s">
-        <v>79</v>
+      <c r="E75" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -2927,19 +2957,19 @@
       <c r="D76" t="s">
         <v>12</v>
       </c>
-      <c r="E76" t="s">
-        <v>79</v>
+      <c r="E76" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -2947,19 +2977,19 @@
       <c r="D77" t="s">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
-        <v>79</v>
+      <c r="E77" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -2967,19 +2997,19 @@
       <c r="D78" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
-        <v>79</v>
+      <c r="E78" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -2987,19 +3017,19 @@
       <c r="D79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" t="s">
-        <v>79</v>
+      <c r="E79" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3007,19 +3037,19 @@
       <c r="D80" t="s">
         <v>12</v>
       </c>
-      <c r="E80" t="s">
-        <v>79</v>
+      <c r="E80" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3027,19 +3057,19 @@
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="E81" t="s">
-        <v>79</v>
+      <c r="E81" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3048,18 +3078,18 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3068,18 +3098,18 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3087,19 +3117,19 @@
       <c r="D84" t="s">
         <v>12</v>
       </c>
-      <c r="E84" t="s">
-        <v>79</v>
+      <c r="E84" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3107,19 +3137,19 @@
       <c r="D85" t="s">
         <v>12</v>
       </c>
-      <c r="E85" t="s">
-        <v>79</v>
+      <c r="E85" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3127,19 +3157,19 @@
       <c r="D86" t="s">
         <v>12</v>
       </c>
-      <c r="E86" t="s">
-        <v>79</v>
+      <c r="E86" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -3148,18 +3178,18 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -3168,18 +3198,18 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3187,19 +3217,19 @@
       <c r="D89" t="s">
         <v>12</v>
       </c>
-      <c r="E89" t="s">
-        <v>79</v>
+      <c r="E89" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3207,19 +3237,19 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
-        <v>79</v>
+      <c r="E90" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3227,19 +3257,19 @@
       <c r="D91" t="s">
         <v>12</v>
       </c>
-      <c r="E91" t="s">
-        <v>79</v>
+      <c r="E91" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3247,19 +3277,19 @@
       <c r="D92" t="s">
         <v>12</v>
       </c>
-      <c r="E92" t="s">
-        <v>79</v>
+      <c r="E92" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3268,18 +3298,18 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3288,18 +3318,18 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -3308,18 +3338,18 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3327,19 +3357,19 @@
       <c r="D96" t="s">
         <v>12</v>
       </c>
-      <c r="E96" t="s">
-        <v>79</v>
+      <c r="E96" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -3347,19 +3377,19 @@
       <c r="D97" t="s">
         <v>12</v>
       </c>
-      <c r="E97" t="s">
-        <v>79</v>
+      <c r="E97" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -3367,19 +3397,19 @@
       <c r="D98" t="s">
         <v>12</v>
       </c>
-      <c r="E98" t="s">
-        <v>79</v>
+      <c r="E98" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3387,19 +3417,19 @@
       <c r="D99" t="s">
         <v>12</v>
       </c>
-      <c r="E99" t="s">
-        <v>79</v>
+      <c r="E99" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -3407,19 +3437,19 @@
       <c r="D100" t="s">
         <v>12</v>
       </c>
-      <c r="E100" t="s">
-        <v>79</v>
+      <c r="E100" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -3428,18 +3458,18 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3448,18 +3478,18 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3468,18 +3498,18 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3488,18 +3518,18 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3508,18 +3538,18 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -3528,18 +3558,18 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3547,19 +3577,19 @@
       <c r="D107" t="s">
         <v>12</v>
       </c>
-      <c r="E107" t="s">
-        <v>79</v>
+      <c r="E107" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -3567,19 +3597,19 @@
       <c r="D108" t="s">
         <v>12</v>
       </c>
-      <c r="E108" t="s">
-        <v>79</v>
+      <c r="E108" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3587,19 +3617,19 @@
       <c r="D109" t="s">
         <v>12</v>
       </c>
-      <c r="E109" t="s">
-        <v>79</v>
+      <c r="E109" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -3607,19 +3637,19 @@
       <c r="D110" t="s">
         <v>12</v>
       </c>
-      <c r="E110" t="s">
-        <v>79</v>
+      <c r="E110" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -3627,19 +3657,19 @@
       <c r="D111" t="s">
         <v>12</v>
       </c>
-      <c r="E111" t="s">
-        <v>79</v>
+      <c r="E111" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -3647,19 +3677,19 @@
       <c r="D112" t="s">
         <v>12</v>
       </c>
-      <c r="E112" t="s">
-        <v>79</v>
+      <c r="E112" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3667,19 +3697,19 @@
       <c r="D113" t="s">
         <v>12</v>
       </c>
-      <c r="E113" t="s">
-        <v>79</v>
+      <c r="E113" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -3687,19 +3717,19 @@
       <c r="D114" t="s">
         <v>12</v>
       </c>
-      <c r="E114" t="s">
-        <v>79</v>
+      <c r="E114" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -3707,19 +3737,19 @@
       <c r="D115" t="s">
         <v>12</v>
       </c>
-      <c r="E115" t="s">
-        <v>79</v>
+      <c r="E115" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -3727,19 +3757,19 @@
       <c r="D116" t="s">
         <v>12</v>
       </c>
-      <c r="E116" t="s">
-        <v>79</v>
+      <c r="E116" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3747,19 +3777,19 @@
       <c r="D117" t="s">
         <v>12</v>
       </c>
-      <c r="E117" t="s">
-        <v>79</v>
+      <c r="E117" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -3767,19 +3797,19 @@
       <c r="D118" t="s">
         <v>12</v>
       </c>
-      <c r="E118" t="s">
-        <v>79</v>
+      <c r="E118" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3787,19 +3817,19 @@
       <c r="D119" t="s">
         <v>12</v>
       </c>
-      <c r="E119" t="s">
-        <v>79</v>
+      <c r="E119" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -3807,19 +3837,19 @@
       <c r="D120" t="s">
         <v>12</v>
       </c>
-      <c r="E120" t="s">
-        <v>79</v>
+      <c r="E120" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -3827,19 +3857,19 @@
       <c r="D121" t="s">
         <v>12</v>
       </c>
-      <c r="E121" t="s">
-        <v>79</v>
+      <c r="E121" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -3847,19 +3877,19 @@
       <c r="D122" t="s">
         <v>12</v>
       </c>
-      <c r="E122" t="s">
-        <v>79</v>
+      <c r="E122" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -3867,19 +3897,19 @@
       <c r="D123" t="s">
         <v>12</v>
       </c>
-      <c r="E123" t="s">
-        <v>79</v>
+      <c r="E123" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3887,19 +3917,19 @@
       <c r="D124" t="s">
         <v>12</v>
       </c>
-      <c r="E124" t="s">
-        <v>276</v>
+      <c r="E124" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -3907,19 +3937,19 @@
       <c r="D125" t="s">
         <v>12</v>
       </c>
-      <c r="E125" t="s">
-        <v>276</v>
+      <c r="E125" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -3927,19 +3957,19 @@
       <c r="D126" t="s">
         <v>12</v>
       </c>
-      <c r="E126" t="s">
-        <v>276</v>
+      <c r="E126" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -3947,19 +3977,19 @@
       <c r="D127" t="s">
         <v>12</v>
       </c>
-      <c r="E127" t="s">
-        <v>276</v>
+      <c r="E127" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -3967,19 +3997,19 @@
       <c r="D128" t="s">
         <v>12</v>
       </c>
-      <c r="E128" t="s">
-        <v>79</v>
+      <c r="E128" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -3987,19 +4017,19 @@
       <c r="D129" t="s">
         <v>12</v>
       </c>
-      <c r="E129" t="s">
-        <v>79</v>
+      <c r="E129" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -4007,19 +4037,19 @@
       <c r="D130" t="s">
         <v>12</v>
       </c>
-      <c r="E130" t="s">
-        <v>79</v>
+      <c r="E130" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -4027,19 +4057,19 @@
       <c r="D131" t="s">
         <v>12</v>
       </c>
-      <c r="E131" t="s">
-        <v>79</v>
+      <c r="E131" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -4047,147 +4077,146 @@
       <c r="D132" t="s">
         <v>12</v>
       </c>
-      <c r="E132" t="s">
-        <v>79</v>
+      <c r="E132" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F21" r:id="rId18" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F82" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F83" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F88" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F89" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F100" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F101" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F102" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F103" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F104" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F105" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F106" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F107" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F108" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F109" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F110" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F130" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F131" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F50" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F126" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F127" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F132" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F34" r:id="rId121" xr:uid="{F16C89E3-6775-4F27-88E4-2390D861B35C}"/>
-    <hyperlink ref="F35" r:id="rId122" xr:uid="{CBD3EC52-F794-47D6-8FB9-221E87EAF3C8}"/>
-    <hyperlink ref="F36" r:id="rId123" xr:uid="{9B286CA4-9D28-4EE0-BB10-33A1C1B25FE3}"/>
-    <hyperlink ref="F37" r:id="rId124" xr:uid="{BA25D8EE-5991-4EF2-891F-35A46261DD0A}"/>
-    <hyperlink ref="F38" r:id="rId125" xr:uid="{2B114179-75A3-4923-A817-C6151DEAE38B}"/>
-    <hyperlink ref="F39" r:id="rId126" xr:uid="{4A6D88CD-0B90-4754-BDB2-A2BC8C87C6F5}"/>
-    <hyperlink ref="F40" r:id="rId127" xr:uid="{5E7D0C1F-66FF-4271-ADC5-1BE440AF51EB}"/>
-    <hyperlink ref="F41" r:id="rId128" xr:uid="{23108439-1451-4CB1-B560-3272C2CA7E78}"/>
-    <hyperlink ref="F42" r:id="rId129" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
+    <hyperlink ref="F20" r:id="rId1" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId2" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F82" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F83" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F87" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F88" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F93" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F94" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F95" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F101" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F102" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F103" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F104" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F105" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F106" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F124" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F34" r:id="rId17" xr:uid="{F16C89E3-6775-4F27-88E4-2390D861B35C}"/>
+    <hyperlink ref="F35" r:id="rId18" xr:uid="{CBD3EC52-F794-47D6-8FB9-221E87EAF3C8}"/>
+    <hyperlink ref="F36" r:id="rId19" xr:uid="{9B286CA4-9D28-4EE0-BB10-33A1C1B25FE3}"/>
+    <hyperlink ref="F37" r:id="rId20" xr:uid="{BA25D8EE-5991-4EF2-891F-35A46261DD0A}"/>
+    <hyperlink ref="F38" r:id="rId21" xr:uid="{2B114179-75A3-4923-A817-C6151DEAE38B}"/>
+    <hyperlink ref="F39" r:id="rId22" xr:uid="{4A6D88CD-0B90-4754-BDB2-A2BC8C87C6F5}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{5E7D0C1F-66FF-4271-ADC5-1BE440AF51EB}"/>
+    <hyperlink ref="F41" r:id="rId24" xr:uid="{23108439-1451-4CB1-B560-3272C2CA7E78}"/>
+    <hyperlink ref="F42" r:id="rId25" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
+    <hyperlink ref="F14" r:id="rId26" display="Kony@123" xr:uid="{E20598A3-D12E-4036-B79D-A5379225FEF9}"/>
+    <hyperlink ref="F15" r:id="rId27" xr:uid="{797488D5-4874-4D11-9655-C596D784E6F5}"/>
+    <hyperlink ref="F18" r:id="rId28" display="Kony@123" xr:uid="{02DC061B-1CBA-48CB-8448-1CD95D3083EA}"/>
+    <hyperlink ref="F19" r:id="rId29" display="Kony@123" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
+    <hyperlink ref="F22" r:id="rId30" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
+    <hyperlink ref="F23" r:id="rId31" display="Kony@123" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
+    <hyperlink ref="F24" r:id="rId32" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
+    <hyperlink ref="F26" r:id="rId33" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
+    <hyperlink ref="F27" r:id="rId34" display="Kony@123" xr:uid="{C7DA0286-FD2E-4EAB-957B-4194723C1A2A}"/>
+    <hyperlink ref="F28" r:id="rId35" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
+    <hyperlink ref="F29" r:id="rId36" display="Kony@123" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
+    <hyperlink ref="F30" r:id="rId37" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
+    <hyperlink ref="F31" r:id="rId38" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
+    <hyperlink ref="F32" r:id="rId39" display="Kony@123" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
+    <hyperlink ref="F33" r:id="rId40" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
+    <hyperlink ref="F43" r:id="rId41" display="Kony@123" xr:uid="{ECC6B8B4-504C-476C-8F3C-90619201496F}"/>
+    <hyperlink ref="F44" r:id="rId42" display="Kony@123" xr:uid="{62ABA2C7-1E4C-4497-9430-285143D77BF5}"/>
+    <hyperlink ref="F45" r:id="rId43" display="Kony@123" xr:uid="{CA36AB5C-EE1E-4B0C-AACF-462859C717CF}"/>
+    <hyperlink ref="F46" r:id="rId44" display="Kony@123" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
+    <hyperlink ref="F47" r:id="rId45" display="Kony@123" xr:uid="{09BC58E9-6825-41D5-ABEE-996F54D90CF1}"/>
+    <hyperlink ref="F48" r:id="rId46" display="Kony@123" xr:uid="{FFC5603E-F568-4679-A667-A86A1F6E6950}"/>
+    <hyperlink ref="F49" r:id="rId47" display="Kony@123" xr:uid="{F0604CE0-185A-4493-B713-88E26D84FAF0}"/>
+    <hyperlink ref="F50" r:id="rId48" display="Kony@123" xr:uid="{B707BA4A-AA8B-4E76-8764-5D2BF5975C22}"/>
+    <hyperlink ref="F51" r:id="rId49" display="Kony@123" xr:uid="{11970BE2-F214-47A7-8C88-44EBB1E80FAF}"/>
+    <hyperlink ref="F52" r:id="rId50" display="Kony@123" xr:uid="{2B7C8356-BD2A-4006-955F-EA79E690081F}"/>
+    <hyperlink ref="F53" r:id="rId51" display="Kony@123" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
+    <hyperlink ref="F54" r:id="rId52" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
+    <hyperlink ref="F55" r:id="rId53" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
+    <hyperlink ref="F56" r:id="rId54" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
+    <hyperlink ref="F57" r:id="rId55" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
+    <hyperlink ref="F58" r:id="rId56" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
+    <hyperlink ref="F59" r:id="rId57" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
+    <hyperlink ref="F60" r:id="rId58" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
+    <hyperlink ref="F61" r:id="rId59" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
+    <hyperlink ref="F62" r:id="rId60" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
+    <hyperlink ref="F63" r:id="rId61" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
+    <hyperlink ref="F64" r:id="rId62" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
+    <hyperlink ref="F65" r:id="rId63" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
+    <hyperlink ref="F66" r:id="rId64" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
+    <hyperlink ref="F67" r:id="rId65" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
+    <hyperlink ref="F68" r:id="rId66" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
+    <hyperlink ref="F69" r:id="rId67" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
+    <hyperlink ref="F70" r:id="rId68" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
+    <hyperlink ref="F71" r:id="rId69" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
+    <hyperlink ref="F72" r:id="rId70" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
+    <hyperlink ref="F73" r:id="rId71" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
+    <hyperlink ref="F74" r:id="rId72" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
+    <hyperlink ref="F75" r:id="rId73" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
+    <hyperlink ref="F76" r:id="rId74" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
+    <hyperlink ref="F77" r:id="rId75" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
+    <hyperlink ref="F78" r:id="rId76" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
+    <hyperlink ref="F79" r:id="rId77" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
+    <hyperlink ref="F80" r:id="rId78" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
+    <hyperlink ref="F81" r:id="rId79" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
+    <hyperlink ref="F84" r:id="rId80" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
+    <hyperlink ref="F85" r:id="rId81" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
+    <hyperlink ref="F86" r:id="rId82" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
+    <hyperlink ref="F89" r:id="rId83" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
+    <hyperlink ref="F90" r:id="rId84" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
+    <hyperlink ref="F91" r:id="rId85" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
+    <hyperlink ref="F92" r:id="rId86" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
+    <hyperlink ref="F96" r:id="rId87" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
+    <hyperlink ref="F97" r:id="rId88" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
+    <hyperlink ref="F98" r:id="rId89" display="Kony@123" xr:uid="{CD792B90-5575-4831-92E5-915207923D76}"/>
+    <hyperlink ref="F99" r:id="rId90" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
+    <hyperlink ref="F100" r:id="rId91" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
+    <hyperlink ref="F107" r:id="rId92" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
+    <hyperlink ref="F108" r:id="rId93" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
+    <hyperlink ref="F109" r:id="rId94" display="Kony@123" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
+    <hyperlink ref="F110" r:id="rId95" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
+    <hyperlink ref="F111" r:id="rId96" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
+    <hyperlink ref="F112" r:id="rId97" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
+    <hyperlink ref="F113" r:id="rId98" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
+    <hyperlink ref="F114" r:id="rId99" display="Kony@123" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
+    <hyperlink ref="F115" r:id="rId100" display="Kony@123" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
+    <hyperlink ref="F116" r:id="rId101" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
+    <hyperlink ref="F117" r:id="rId102" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
+    <hyperlink ref="F118" r:id="rId103" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
+    <hyperlink ref="F119" r:id="rId104" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
+    <hyperlink ref="F120" r:id="rId105" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
+    <hyperlink ref="F121" r:id="rId106" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
+    <hyperlink ref="F122" r:id="rId107" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
+    <hyperlink ref="F123" r:id="rId108" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
+    <hyperlink ref="F128" r:id="rId109" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
+    <hyperlink ref="F129" r:id="rId110" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
+    <hyperlink ref="F130" r:id="rId111" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
+    <hyperlink ref="F131" r:id="rId112" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
+    <hyperlink ref="F132" r:id="rId113" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
+    <hyperlink ref="F2" r:id="rId114" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
+    <hyperlink ref="F3" r:id="rId115" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
+    <hyperlink ref="F4" r:id="rId116" display="Kony@123" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
+    <hyperlink ref="F5" r:id="rId117" display="Kony@123" xr:uid="{5091E8A5-7013-46C8-BC8B-B86558157BCD}"/>
+    <hyperlink ref="F6" r:id="rId118" display="Kony@123" xr:uid="{B74D3980-6E01-42D1-901D-BD12D50A30AE}"/>
+    <hyperlink ref="F7" r:id="rId119" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
+    <hyperlink ref="F8" r:id="rId120" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
+    <hyperlink ref="F9" r:id="rId121" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
+    <hyperlink ref="F10" r:id="rId122" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
+    <hyperlink ref="F12" r:id="rId123" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
+    <hyperlink ref="F125" r:id="rId124" xr:uid="{FFA89B18-B260-4132-B594-3EB3B642A598}"/>
+    <hyperlink ref="F25" r:id="rId125" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
+    <hyperlink ref="F126" r:id="rId126" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
+    <hyperlink ref="F127" r:id="rId127" xr:uid="{1BD2B876-AC66-4F0E-A35D-F07F90DCF42E}"/>
+    <hyperlink ref="B28" r:id="rId128" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId130"/>
+  <pageSetup orientation="portrait" r:id="rId129"/>
 </worksheet>
 </file>
 
@@ -4195,19 +4224,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="158.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -4215,6 +4244,7 @@
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49.28515625" customWidth="1"/>
     <col min="14" max="14" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="63.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4237,42 +4267,42 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -4280,609 +4310,611 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" t="s">
-        <v>205</v>
-      </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" t="s">
-        <v>207</v>
-      </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" t="s">
-        <v>209</v>
-      </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
         <v>223</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" t="s">
-        <v>234</v>
-      </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
         <v>316</v>
       </c>
-      <c r="L36" t="s">
-        <v>320</v>
-      </c>
       <c r="M36" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4893,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,93 +4947,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>329</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>329</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" t="s">
-        <v>276</v>
+        <v>325</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5009,101 +5041,52 @@
         <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" t="s">
-        <v>291</v>
+        <v>325</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H114" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5129,58 +5112,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5216,112 +5199,112 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5378,154 +5361,154 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2"/>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" t="s">
         <v>277</v>
-      </c>
-      <c r="I7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
         <v>281</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5556,118 +5539,118 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5700,418 +5683,418 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
         <v>167</v>
       </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>195</v>
       </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
         <v>195</v>
       </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" t="s">
         <v>199</v>
       </c>
-      <c r="D14" t="s">
-        <v>200</v>
-      </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
         <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>211</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6147,10 +6130,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -6158,13 +6141,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59CB9A-D4F8-4C1B-B32F-546706F681EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F370522-5ED4-4248-BA4E-38CB0D878A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="342">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1038,6 +1038,27 @@
   </si>
   <si>
     <t>Classic Checking	20276986	$199.73</t>
+  </si>
+  <si>
+    <t>Classic Checking	20276986	$200.53</t>
+  </si>
+  <si>
+    <t>20276986</t>
+  </si>
+  <si>
+    <t>734343</t>
+  </si>
+  <si>
+    <t>-69518</t>
+  </si>
+  <si>
+    <t>20276978</t>
+  </si>
+  <si>
+    <t>-1403410</t>
+  </si>
+  <si>
+    <t>Kony@567</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1125,6 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1442,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,10 +1820,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,10 +1840,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,10 +2000,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,10 +2380,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3618,10 +3640,10 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,110 +4135,111 @@
     <hyperlink ref="F42" r:id="rId25" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
     <hyperlink ref="F14" r:id="rId26" display="Kony@123" xr:uid="{E20598A3-D12E-4036-B79D-A5379225FEF9}"/>
     <hyperlink ref="F15" r:id="rId27" xr:uid="{797488D5-4874-4D11-9655-C596D784E6F5}"/>
-    <hyperlink ref="F18" r:id="rId28" display="Kony@123" xr:uid="{02DC061B-1CBA-48CB-8448-1CD95D3083EA}"/>
-    <hyperlink ref="F19" r:id="rId29" display="Kony@123" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
-    <hyperlink ref="F22" r:id="rId30" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
-    <hyperlink ref="F23" r:id="rId31" display="Kony@123" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
-    <hyperlink ref="F24" r:id="rId32" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
-    <hyperlink ref="F26" r:id="rId33" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
-    <hyperlink ref="F27" r:id="rId34" display="Kony@123" xr:uid="{C7DA0286-FD2E-4EAB-957B-4194723C1A2A}"/>
-    <hyperlink ref="F28" r:id="rId35" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
-    <hyperlink ref="F29" r:id="rId36" display="Kony@123" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
-    <hyperlink ref="F30" r:id="rId37" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
-    <hyperlink ref="F31" r:id="rId38" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
-    <hyperlink ref="F32" r:id="rId39" display="Kony@123" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
-    <hyperlink ref="F33" r:id="rId40" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
-    <hyperlink ref="F43" r:id="rId41" display="Kony@123" xr:uid="{ECC6B8B4-504C-476C-8F3C-90619201496F}"/>
-    <hyperlink ref="F44" r:id="rId42" display="Kony@123" xr:uid="{62ABA2C7-1E4C-4497-9430-285143D77BF5}"/>
-    <hyperlink ref="F45" r:id="rId43" display="Kony@123" xr:uid="{CA36AB5C-EE1E-4B0C-AACF-462859C717CF}"/>
-    <hyperlink ref="F46" r:id="rId44" display="Kony@123" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
-    <hyperlink ref="F47" r:id="rId45" display="Kony@123" xr:uid="{09BC58E9-6825-41D5-ABEE-996F54D90CF1}"/>
-    <hyperlink ref="F48" r:id="rId46" display="Kony@123" xr:uid="{FFC5603E-F568-4679-A667-A86A1F6E6950}"/>
-    <hyperlink ref="F49" r:id="rId47" display="Kony@123" xr:uid="{F0604CE0-185A-4493-B713-88E26D84FAF0}"/>
-    <hyperlink ref="F50" r:id="rId48" display="Kony@123" xr:uid="{B707BA4A-AA8B-4E76-8764-5D2BF5975C22}"/>
-    <hyperlink ref="F51" r:id="rId49" display="Kony@123" xr:uid="{11970BE2-F214-47A7-8C88-44EBB1E80FAF}"/>
-    <hyperlink ref="F52" r:id="rId50" display="Kony@123" xr:uid="{2B7C8356-BD2A-4006-955F-EA79E690081F}"/>
-    <hyperlink ref="F53" r:id="rId51" display="Kony@123" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
-    <hyperlink ref="F54" r:id="rId52" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
-    <hyperlink ref="F55" r:id="rId53" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
-    <hyperlink ref="F56" r:id="rId54" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
-    <hyperlink ref="F57" r:id="rId55" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
-    <hyperlink ref="F58" r:id="rId56" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
-    <hyperlink ref="F59" r:id="rId57" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
-    <hyperlink ref="F60" r:id="rId58" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
-    <hyperlink ref="F61" r:id="rId59" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
-    <hyperlink ref="F62" r:id="rId60" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
-    <hyperlink ref="F63" r:id="rId61" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
-    <hyperlink ref="F64" r:id="rId62" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
-    <hyperlink ref="F65" r:id="rId63" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
-    <hyperlink ref="F66" r:id="rId64" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
-    <hyperlink ref="F67" r:id="rId65" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
-    <hyperlink ref="F68" r:id="rId66" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
-    <hyperlink ref="F69" r:id="rId67" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
-    <hyperlink ref="F70" r:id="rId68" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
-    <hyperlink ref="F71" r:id="rId69" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
-    <hyperlink ref="F72" r:id="rId70" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
-    <hyperlink ref="F73" r:id="rId71" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
-    <hyperlink ref="F74" r:id="rId72" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
-    <hyperlink ref="F75" r:id="rId73" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
-    <hyperlink ref="F76" r:id="rId74" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
-    <hyperlink ref="F77" r:id="rId75" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
-    <hyperlink ref="F78" r:id="rId76" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
-    <hyperlink ref="F79" r:id="rId77" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
-    <hyperlink ref="F80" r:id="rId78" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
-    <hyperlink ref="F81" r:id="rId79" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
-    <hyperlink ref="F84" r:id="rId80" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
-    <hyperlink ref="F85" r:id="rId81" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
-    <hyperlink ref="F86" r:id="rId82" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
-    <hyperlink ref="F89" r:id="rId83" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
-    <hyperlink ref="F90" r:id="rId84" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
-    <hyperlink ref="F91" r:id="rId85" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
-    <hyperlink ref="F92" r:id="rId86" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
-    <hyperlink ref="F96" r:id="rId87" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
-    <hyperlink ref="F97" r:id="rId88" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
-    <hyperlink ref="F98" r:id="rId89" display="Kony@123" xr:uid="{CD792B90-5575-4831-92E5-915207923D76}"/>
-    <hyperlink ref="F99" r:id="rId90" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
-    <hyperlink ref="F100" r:id="rId91" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
-    <hyperlink ref="F107" r:id="rId92" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
-    <hyperlink ref="F108" r:id="rId93" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
-    <hyperlink ref="F109" r:id="rId94" display="Kony@123" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
-    <hyperlink ref="F110" r:id="rId95" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
-    <hyperlink ref="F111" r:id="rId96" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
-    <hyperlink ref="F112" r:id="rId97" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
-    <hyperlink ref="F113" r:id="rId98" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
-    <hyperlink ref="F114" r:id="rId99" display="Kony@123" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
-    <hyperlink ref="F115" r:id="rId100" display="Kony@123" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
-    <hyperlink ref="F116" r:id="rId101" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
-    <hyperlink ref="F117" r:id="rId102" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
-    <hyperlink ref="F118" r:id="rId103" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
-    <hyperlink ref="F119" r:id="rId104" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
-    <hyperlink ref="F120" r:id="rId105" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
-    <hyperlink ref="F121" r:id="rId106" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
-    <hyperlink ref="F122" r:id="rId107" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
-    <hyperlink ref="F123" r:id="rId108" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
-    <hyperlink ref="F128" r:id="rId109" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
-    <hyperlink ref="F129" r:id="rId110" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
-    <hyperlink ref="F130" r:id="rId111" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
-    <hyperlink ref="F131" r:id="rId112" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
-    <hyperlink ref="F132" r:id="rId113" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
-    <hyperlink ref="F2" r:id="rId114" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
-    <hyperlink ref="F3" r:id="rId115" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
-    <hyperlink ref="F4" r:id="rId116" display="Kony@123" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
-    <hyperlink ref="F5" r:id="rId117" display="Kony@123" xr:uid="{5091E8A5-7013-46C8-BC8B-B86558157BCD}"/>
-    <hyperlink ref="F6" r:id="rId118" display="Kony@123" xr:uid="{B74D3980-6E01-42D1-901D-BD12D50A30AE}"/>
-    <hyperlink ref="F7" r:id="rId119" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
-    <hyperlink ref="F8" r:id="rId120" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
-    <hyperlink ref="F9" r:id="rId121" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
-    <hyperlink ref="F10" r:id="rId122" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
-    <hyperlink ref="F12" r:id="rId123" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
-    <hyperlink ref="F125" r:id="rId124" xr:uid="{FFA89B18-B260-4132-B594-3EB3B642A598}"/>
-    <hyperlink ref="F25" r:id="rId125" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
-    <hyperlink ref="F126" r:id="rId126" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
-    <hyperlink ref="F127" r:id="rId127" xr:uid="{1BD2B876-AC66-4F0E-A35D-F07F90DCF42E}"/>
-    <hyperlink ref="B28" r:id="rId128" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
+    <hyperlink ref="F19" r:id="rId28" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
+    <hyperlink ref="F22" r:id="rId29" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
+    <hyperlink ref="F23" r:id="rId30" display="Kony@123" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
+    <hyperlink ref="F24" r:id="rId31" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
+    <hyperlink ref="F26" r:id="rId32" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
+    <hyperlink ref="F28" r:id="rId33" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
+    <hyperlink ref="F29" r:id="rId34" display="Kony@123" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
+    <hyperlink ref="F30" r:id="rId35" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
+    <hyperlink ref="F31" r:id="rId36" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
+    <hyperlink ref="F32" r:id="rId37" display="Kony@123" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
+    <hyperlink ref="F33" r:id="rId38" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
+    <hyperlink ref="F43" r:id="rId39" display="Kony@123" xr:uid="{ECC6B8B4-504C-476C-8F3C-90619201496F}"/>
+    <hyperlink ref="F44" r:id="rId40" display="Kony@123" xr:uid="{62ABA2C7-1E4C-4497-9430-285143D77BF5}"/>
+    <hyperlink ref="F45" r:id="rId41" display="Kony@123" xr:uid="{CA36AB5C-EE1E-4B0C-AACF-462859C717CF}"/>
+    <hyperlink ref="F46" r:id="rId42" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
+    <hyperlink ref="F47" r:id="rId43" display="Kony@123" xr:uid="{09BC58E9-6825-41D5-ABEE-996F54D90CF1}"/>
+    <hyperlink ref="F48" r:id="rId44" display="Kony@123" xr:uid="{FFC5603E-F568-4679-A667-A86A1F6E6950}"/>
+    <hyperlink ref="F49" r:id="rId45" display="Kony@123" xr:uid="{F0604CE0-185A-4493-B713-88E26D84FAF0}"/>
+    <hyperlink ref="F50" r:id="rId46" display="Kony@123" xr:uid="{B707BA4A-AA8B-4E76-8764-5D2BF5975C22}"/>
+    <hyperlink ref="F51" r:id="rId47" display="Kony@123" xr:uid="{11970BE2-F214-47A7-8C88-44EBB1E80FAF}"/>
+    <hyperlink ref="F52" r:id="rId48" display="Kony@123" xr:uid="{2B7C8356-BD2A-4006-955F-EA79E690081F}"/>
+    <hyperlink ref="F53" r:id="rId49" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
+    <hyperlink ref="F54" r:id="rId50" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
+    <hyperlink ref="F55" r:id="rId51" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
+    <hyperlink ref="F56" r:id="rId52" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
+    <hyperlink ref="F57" r:id="rId53" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
+    <hyperlink ref="F58" r:id="rId54" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
+    <hyperlink ref="F59" r:id="rId55" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
+    <hyperlink ref="F60" r:id="rId56" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
+    <hyperlink ref="F61" r:id="rId57" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
+    <hyperlink ref="F62" r:id="rId58" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
+    <hyperlink ref="F63" r:id="rId59" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
+    <hyperlink ref="F64" r:id="rId60" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
+    <hyperlink ref="F66" r:id="rId61" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
+    <hyperlink ref="F67" r:id="rId62" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
+    <hyperlink ref="F68" r:id="rId63" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
+    <hyperlink ref="F69" r:id="rId64" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
+    <hyperlink ref="F70" r:id="rId65" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
+    <hyperlink ref="F71" r:id="rId66" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
+    <hyperlink ref="F72" r:id="rId67" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
+    <hyperlink ref="F73" r:id="rId68" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
+    <hyperlink ref="F74" r:id="rId69" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
+    <hyperlink ref="F75" r:id="rId70" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
+    <hyperlink ref="F76" r:id="rId71" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
+    <hyperlink ref="F77" r:id="rId72" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
+    <hyperlink ref="F78" r:id="rId73" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
+    <hyperlink ref="F79" r:id="rId74" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
+    <hyperlink ref="F80" r:id="rId75" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
+    <hyperlink ref="F81" r:id="rId76" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
+    <hyperlink ref="F84" r:id="rId77" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
+    <hyperlink ref="F85" r:id="rId78" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
+    <hyperlink ref="F86" r:id="rId79" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
+    <hyperlink ref="F89" r:id="rId80" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
+    <hyperlink ref="F90" r:id="rId81" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
+    <hyperlink ref="F91" r:id="rId82" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
+    <hyperlink ref="F92" r:id="rId83" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
+    <hyperlink ref="F96" r:id="rId84" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
+    <hyperlink ref="F97" r:id="rId85" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
+    <hyperlink ref="F98" r:id="rId86" display="Kony@123" xr:uid="{CD792B90-5575-4831-92E5-915207923D76}"/>
+    <hyperlink ref="F99" r:id="rId87" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
+    <hyperlink ref="F100" r:id="rId88" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
+    <hyperlink ref="F107" r:id="rId89" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
+    <hyperlink ref="F108" r:id="rId90" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
+    <hyperlink ref="F109" r:id="rId91" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
+    <hyperlink ref="F110" r:id="rId92" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
+    <hyperlink ref="F111" r:id="rId93" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
+    <hyperlink ref="F112" r:id="rId94" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
+    <hyperlink ref="F113" r:id="rId95" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
+    <hyperlink ref="F114" r:id="rId96" display="Kony@123" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
+    <hyperlink ref="F115" r:id="rId97" display="Kony@123" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
+    <hyperlink ref="F116" r:id="rId98" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
+    <hyperlink ref="F117" r:id="rId99" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
+    <hyperlink ref="F118" r:id="rId100" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
+    <hyperlink ref="F119" r:id="rId101" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
+    <hyperlink ref="F120" r:id="rId102" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
+    <hyperlink ref="F121" r:id="rId103" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
+    <hyperlink ref="F122" r:id="rId104" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
+    <hyperlink ref="F123" r:id="rId105" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
+    <hyperlink ref="F128" r:id="rId106" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
+    <hyperlink ref="F129" r:id="rId107" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
+    <hyperlink ref="F130" r:id="rId108" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
+    <hyperlink ref="F131" r:id="rId109" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
+    <hyperlink ref="F132" r:id="rId110" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
+    <hyperlink ref="F2" r:id="rId111" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
+    <hyperlink ref="F3" r:id="rId112" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
+    <hyperlink ref="F4" r:id="rId113" display="Kony@123" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
+    <hyperlink ref="F5" r:id="rId114" display="Kony@123" xr:uid="{5091E8A5-7013-46C8-BC8B-B86558157BCD}"/>
+    <hyperlink ref="F6" r:id="rId115" display="Kony@123" xr:uid="{B74D3980-6E01-42D1-901D-BD12D50A30AE}"/>
+    <hyperlink ref="F7" r:id="rId116" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
+    <hyperlink ref="F8" r:id="rId117" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
+    <hyperlink ref="F9" r:id="rId118" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
+    <hyperlink ref="F10" r:id="rId119" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
+    <hyperlink ref="F12" r:id="rId120" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
+    <hyperlink ref="F125" r:id="rId121" xr:uid="{FFA89B18-B260-4132-B594-3EB3B642A598}"/>
+    <hyperlink ref="F25" r:id="rId122" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
+    <hyperlink ref="F126" r:id="rId123" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
+    <hyperlink ref="F127" r:id="rId124" xr:uid="{1BD2B876-AC66-4F0E-A35D-F07F90DCF42E}"/>
+    <hyperlink ref="B28" r:id="rId125" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
+    <hyperlink ref="F18" r:id="rId126" xr:uid="{41A3A24C-8B2B-4D97-8F9C-4B1C383F74A6}"/>
+    <hyperlink ref="B18" r:id="rId127" location="/login" xr:uid="{258BC967-6692-4289-9579-239320C007CA}"/>
+    <hyperlink ref="F27" r:id="rId128" xr:uid="{B73F26A9-67C2-485D-B134-1A8492A59172}"/>
+    <hyperlink ref="F65" r:id="rId129" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId129"/>
+  <pageSetup orientation="portrait" r:id="rId130"/>
 </worksheet>
 </file>
 
@@ -4224,9 +4247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,10 +4426,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>216</v>
@@ -4420,10 +4443,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
@@ -4472,11 +4495,11 @@
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
+      <c r="B13" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
@@ -5177,7 +5200,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,7 +5208,7 @@
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F370522-5ED4-4248-BA4E-38CB0D878A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FB36A-F40B-4BBF-A2E7-82FB2A314EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="343">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -905,18 +905,6 @@
     <t>KEL</t>
   </si>
   <si>
-    <t>20159539</t>
-  </si>
-  <si>
-    <t>2015953066</t>
-  </si>
-  <si>
-    <t>-2015953</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>C24234_VerifyChangeMyAddressOptionUnderSettings</t>
   </si>
   <si>
@@ -944,9 +932,6 @@
     <t>C24238_VerifyConfirmationMessageWithAccountUpdateInfo</t>
   </si>
   <si>
-    <t>Your request was successful.Please allow three to five business days for your account records to reflect the requested change(s). If you have any questions, please send us a secure message.</t>
-  </si>
-  <si>
     <t>C24245_VerifyChangeAddressListedInActivityCenter</t>
   </si>
   <si>
@@ -968,36 +953,21 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>user29433</t>
-  </si>
-  <si>
-    <t>Classic Checking - 294330</t>
-  </si>
-  <si>
     <t>Work Phone</t>
   </si>
   <si>
     <t>9987690987</t>
   </si>
   <si>
-    <t>Money Market Share Draft - 4000294332</t>
-  </si>
-  <si>
     <t>Work Phone;Home Phone</t>
   </si>
   <si>
-    <t>user2426526</t>
-  </si>
-  <si>
     <t>Classic Checking</t>
   </si>
   <si>
     <t xml:space="preserve">Main Share </t>
   </si>
   <si>
-    <t>user82733</t>
-  </si>
-  <si>
     <t>Inquire</t>
   </si>
   <si>
@@ -1034,12 +1004,6 @@
     <t>Tdecu@123</t>
   </si>
   <si>
-    <t>Classic Checking	20276978	$9.44</t>
-  </si>
-  <si>
-    <t>Classic Checking	20276986	$199.73</t>
-  </si>
-  <si>
     <t>Classic Checking	20276986	$200.53</t>
   </si>
   <si>
@@ -1059,13 +1023,52 @@
   </si>
   <si>
     <t>Kony@567</t>
+  </si>
+  <si>
+    <t>Your request was successful. Please allow three to five business days for your account records to reflect the requested change(s). If you have any questions, please send us a secure message.</t>
+  </si>
+  <si>
+    <t>Kony@789</t>
+  </si>
+  <si>
+    <t>-2426526</t>
+  </si>
+  <si>
+    <t>Classic Checking - 24265266</t>
+  </si>
+  <si>
+    <t>IRA Money Market Share - 926801465</t>
+  </si>
+  <si>
+    <t>-82733</t>
+  </si>
+  <si>
+    <t>Money Market Share Draft - 4000827339</t>
+  </si>
+  <si>
+    <t>2040439648</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>24450</t>
+  </si>
+  <si>
+    <t>2201 McDermott Rd</t>
+  </si>
+  <si>
+    <t>300 W Main St</t>
+  </si>
+  <si>
+    <t>-2046417</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1104,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1464,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1512,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1532,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1552,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,7 +1572,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1572,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1592,10 +1601,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1612,10 +1621,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,7 +1632,7 @@
         <v>231</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1632,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1652,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1652,10 +1661,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1672,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1692,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,7 +1712,7 @@
         <v>270</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1712,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1732,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1752,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,7 +1772,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1772,10 +1781,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1797,7 +1806,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1811,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1820,10 +1829,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,19 +1840,19 @@
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1860,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1863,7 +1872,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1880,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1880,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>44</v>
@@ -1891,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1900,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1920,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1940,10 +1949,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,7 +1960,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1960,10 +1969,10 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,7 +1980,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1980,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2000,10 +2009,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>332</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,19 +2020,19 @@
         <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2040,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2040,10 +2049,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2060,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2060,10 +2069,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,7 +2080,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2080,10 +2089,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,7 +2100,7 @@
         <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2100,10 +2109,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,7 +2120,7 @@
         <v>79</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2120,18 +2129,18 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2139,19 +2148,19 @@
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" t="s">
-        <v>311</v>
+      <c r="E34" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2159,19 +2168,19 @@
       <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
-        <v>311</v>
+      <c r="E35" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2179,19 +2188,19 @@
       <c r="D36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>311</v>
+      <c r="E36" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2199,19 +2208,19 @@
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
-        <v>311</v>
+      <c r="E37" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2219,19 +2228,19 @@
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
-        <v>317</v>
+      <c r="E38" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2239,19 +2248,19 @@
       <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="E39" t="s">
-        <v>317</v>
+      <c r="E39" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2259,19 +2268,19 @@
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="E40" t="s">
-        <v>320</v>
+      <c r="E40" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2279,19 +2288,19 @@
       <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" t="s">
-        <v>320</v>
+      <c r="E41" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2299,11 +2308,11 @@
       <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
-        <v>320</v>
+      <c r="E42" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,7 +2320,7 @@
         <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2320,10 +2329,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,7 +2340,7 @@
         <v>81</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2340,10 +2349,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,7 +2360,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2360,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,7 +2380,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2380,10 +2389,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,7 +2400,7 @@
         <v>84</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2400,10 +2409,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,7 +2420,7 @@
         <v>85</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2420,10 +2429,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,7 +2440,7 @@
         <v>87</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2440,10 +2449,10 @@
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2460,7 @@
         <v>271</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2460,10 +2469,10 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,7 +2480,7 @@
         <v>280</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2480,10 +2489,10 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,7 +2500,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2500,10 +2509,10 @@
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,7 +2520,7 @@
         <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2520,10 +2529,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2540,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2540,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,7 +2560,7 @@
         <v>105</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2560,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,7 +2580,7 @@
         <v>111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2580,10 +2589,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,7 +2600,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2600,10 +2609,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2620,7 @@
         <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2620,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,7 +2640,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -2640,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,7 +2660,7 @@
         <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -2660,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,7 +2680,7 @@
         <v>118</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2680,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,7 +2700,7 @@
         <v>119</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2700,10 +2709,10 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,7 +2720,7 @@
         <v>118</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -2720,10 +2729,10 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,7 +2740,7 @@
         <v>120</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2740,10 +2749,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,7 +2760,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -2760,10 +2769,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,7 +2780,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -2780,10 +2789,10 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,7 +2800,7 @@
         <v>137</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2800,10 +2809,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,7 +2820,7 @@
         <v>139</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -2820,10 +2829,10 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,7 +2840,7 @@
         <v>142</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -2840,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,7 +2860,7 @@
         <v>144</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2860,10 +2869,10 @@
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,7 +2880,7 @@
         <v>145</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -2880,10 +2889,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,7 +2900,7 @@
         <v>148</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -2900,10 +2909,10 @@
         <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,7 +2920,7 @@
         <v>150</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -2920,10 +2929,10 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,7 +2940,7 @@
         <v>151</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -2940,10 +2949,10 @@
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,7 +2960,7 @@
         <v>152</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2960,10 +2969,10 @@
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,7 +2980,7 @@
         <v>159</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -2980,10 +2989,10 @@
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,7 +3000,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3000,10 +3009,10 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,7 +3020,7 @@
         <v>165</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3020,10 +3029,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,7 +3040,7 @@
         <v>166</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3040,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,7 +3060,7 @@
         <v>169</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3060,10 +3069,10 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,7 +3080,7 @@
         <v>172</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3080,10 +3089,10 @@
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,7 +3100,7 @@
         <v>178</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3103,7 +3112,7 @@
         <v>186</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,7 +3120,7 @@
         <v>179</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3123,7 +3132,7 @@
         <v>186</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,7 +3140,7 @@
         <v>182</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3140,10 +3149,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,7 +3160,7 @@
         <v>200</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3160,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,7 +3180,7 @@
         <v>184</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3180,10 +3189,10 @@
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,7 +3200,7 @@
         <v>188</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -3211,7 +3220,7 @@
         <v>192</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -3223,7 +3232,7 @@
         <v>186</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,7 +3240,7 @@
         <v>193</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3240,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3251,7 +3260,7 @@
         <v>197</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3260,10 +3269,10 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,7 +3280,7 @@
         <v>201</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3280,10 +3289,10 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,7 +3300,7 @@
         <v>202</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3300,10 +3309,10 @@
         <v>12</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,7 +3320,7 @@
         <v>203</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3323,7 +3332,7 @@
         <v>186</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,7 +3340,7 @@
         <v>205</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3340,10 +3349,10 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,7 +3360,7 @@
         <v>207</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -3363,7 +3372,7 @@
         <v>186</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,7 +3380,7 @@
         <v>209</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3380,10 +3389,10 @@
         <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3391,7 +3400,7 @@
         <v>211</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -3400,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3411,7 +3420,7 @@
         <v>212</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -3420,10 +3429,10 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3431,7 +3440,7 @@
         <v>213</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3440,10 +3449,10 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,7 +3460,7 @@
         <v>217</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -3460,10 +3469,10 @@
         <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3480,7 @@
         <v>218</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -3483,7 +3492,7 @@
         <v>186</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3500,7 @@
         <v>219</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3503,7 +3512,7 @@
         <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,7 +3520,7 @@
         <v>222</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3523,7 +3532,7 @@
         <v>186</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3531,7 +3540,7 @@
         <v>225</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3543,7 +3552,7 @@
         <v>186</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,7 +3560,7 @@
         <v>226</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3563,7 +3572,7 @@
         <v>186</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3571,7 +3580,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -3580,10 +3589,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,7 +3600,7 @@
         <v>235</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3600,10 +3609,10 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,7 +3620,7 @@
         <v>236</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -3620,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,7 +3640,7 @@
         <v>237</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3640,10 +3649,10 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,7 +3660,7 @@
         <v>238</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -3660,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,7 +3680,7 @@
         <v>239</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -3680,10 +3689,10 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3691,7 +3700,7 @@
         <v>240</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -3700,10 +3709,10 @@
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,7 +3720,7 @@
         <v>242</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3720,10 +3729,10 @@
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3731,7 +3740,7 @@
         <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -3740,10 +3749,10 @@
         <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,7 +3760,7 @@
         <v>245</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -3760,10 +3769,10 @@
         <v>12</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,7 +3780,7 @@
         <v>246</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -3780,10 +3789,10 @@
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,7 +3800,7 @@
         <v>247</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3800,10 +3809,10 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,7 +3820,7 @@
         <v>251</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -3820,10 +3829,10 @@
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3831,7 +3840,7 @@
         <v>254</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3840,10 +3849,10 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3851,7 +3860,7 @@
         <v>255</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -3860,10 +3869,10 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,7 +3880,7 @@
         <v>256</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -3880,10 +3889,10 @@
         <v>12</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,7 +3900,7 @@
         <v>257</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -3900,10 +3909,10 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,7 +3920,7 @@
         <v>258</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -3920,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,7 +3940,7 @@
         <v>259</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3940,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,7 +3960,7 @@
         <v>260</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -3960,10 +3969,10 @@
         <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,7 +3980,7 @@
         <v>261</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -3980,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3991,7 +4000,7 @@
         <v>262</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -4000,10 +4009,10 @@
         <v>12</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,7 +4020,7 @@
         <v>263</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4020,10 +4029,10 @@
         <v>12</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4031,7 +4040,7 @@
         <v>264</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -4040,10 +4049,10 @@
         <v>12</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4051,7 +4060,7 @@
         <v>265</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -4060,10 +4069,10 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,7 +4080,7 @@
         <v>266</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -4080,10 +4089,10 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4091,7 +4100,7 @@
         <v>276</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -4100,13 +4109,14 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F21" r:id="rId2" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
@@ -4114,129 +4124,129 @@
     <hyperlink ref="F83" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="F87" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="F88" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F93" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F94" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F95" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F101" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F102" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F103" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F104" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F105" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F106" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F124" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F34" r:id="rId17" xr:uid="{F16C89E3-6775-4F27-88E4-2390D861B35C}"/>
-    <hyperlink ref="F35" r:id="rId18" xr:uid="{CBD3EC52-F794-47D6-8FB9-221E87EAF3C8}"/>
-    <hyperlink ref="F36" r:id="rId19" xr:uid="{9B286CA4-9D28-4EE0-BB10-33A1C1B25FE3}"/>
-    <hyperlink ref="F37" r:id="rId20" xr:uid="{BA25D8EE-5991-4EF2-891F-35A46261DD0A}"/>
-    <hyperlink ref="F38" r:id="rId21" xr:uid="{2B114179-75A3-4923-A817-C6151DEAE38B}"/>
-    <hyperlink ref="F39" r:id="rId22" xr:uid="{4A6D88CD-0B90-4754-BDB2-A2BC8C87C6F5}"/>
-    <hyperlink ref="F40" r:id="rId23" xr:uid="{5E7D0C1F-66FF-4271-ADC5-1BE440AF51EB}"/>
-    <hyperlink ref="F41" r:id="rId24" xr:uid="{23108439-1451-4CB1-B560-3272C2CA7E78}"/>
-    <hyperlink ref="F42" r:id="rId25" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
-    <hyperlink ref="F14" r:id="rId26" display="Kony@123" xr:uid="{E20598A3-D12E-4036-B79D-A5379225FEF9}"/>
-    <hyperlink ref="F15" r:id="rId27" xr:uid="{797488D5-4874-4D11-9655-C596D784E6F5}"/>
-    <hyperlink ref="F19" r:id="rId28" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
-    <hyperlink ref="F22" r:id="rId29" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
-    <hyperlink ref="F23" r:id="rId30" display="Kony@123" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
-    <hyperlink ref="F24" r:id="rId31" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
-    <hyperlink ref="F26" r:id="rId32" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
-    <hyperlink ref="F28" r:id="rId33" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
-    <hyperlink ref="F29" r:id="rId34" display="Kony@123" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
-    <hyperlink ref="F30" r:id="rId35" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
-    <hyperlink ref="F31" r:id="rId36" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
-    <hyperlink ref="F32" r:id="rId37" display="Kony@123" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
-    <hyperlink ref="F33" r:id="rId38" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
-    <hyperlink ref="F43" r:id="rId39" display="Kony@123" xr:uid="{ECC6B8B4-504C-476C-8F3C-90619201496F}"/>
-    <hyperlink ref="F44" r:id="rId40" display="Kony@123" xr:uid="{62ABA2C7-1E4C-4497-9430-285143D77BF5}"/>
-    <hyperlink ref="F45" r:id="rId41" display="Kony@123" xr:uid="{CA36AB5C-EE1E-4B0C-AACF-462859C717CF}"/>
-    <hyperlink ref="F46" r:id="rId42" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
-    <hyperlink ref="F47" r:id="rId43" display="Kony@123" xr:uid="{09BC58E9-6825-41D5-ABEE-996F54D90CF1}"/>
-    <hyperlink ref="F48" r:id="rId44" display="Kony@123" xr:uid="{FFC5603E-F568-4679-A667-A86A1F6E6950}"/>
-    <hyperlink ref="F49" r:id="rId45" display="Kony@123" xr:uid="{F0604CE0-185A-4493-B713-88E26D84FAF0}"/>
-    <hyperlink ref="F50" r:id="rId46" display="Kony@123" xr:uid="{B707BA4A-AA8B-4E76-8764-5D2BF5975C22}"/>
-    <hyperlink ref="F51" r:id="rId47" display="Kony@123" xr:uid="{11970BE2-F214-47A7-8C88-44EBB1E80FAF}"/>
-    <hyperlink ref="F52" r:id="rId48" display="Kony@123" xr:uid="{2B7C8356-BD2A-4006-955F-EA79E690081F}"/>
-    <hyperlink ref="F53" r:id="rId49" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
-    <hyperlink ref="F54" r:id="rId50" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
-    <hyperlink ref="F55" r:id="rId51" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
-    <hyperlink ref="F56" r:id="rId52" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
-    <hyperlink ref="F57" r:id="rId53" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
-    <hyperlink ref="F58" r:id="rId54" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
-    <hyperlink ref="F59" r:id="rId55" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
-    <hyperlink ref="F60" r:id="rId56" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
-    <hyperlink ref="F61" r:id="rId57" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
-    <hyperlink ref="F62" r:id="rId58" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
-    <hyperlink ref="F63" r:id="rId59" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
-    <hyperlink ref="F64" r:id="rId60" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
-    <hyperlink ref="F66" r:id="rId61" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
-    <hyperlink ref="F67" r:id="rId62" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
-    <hyperlink ref="F68" r:id="rId63" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
-    <hyperlink ref="F69" r:id="rId64" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
-    <hyperlink ref="F70" r:id="rId65" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
-    <hyperlink ref="F71" r:id="rId66" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
-    <hyperlink ref="F72" r:id="rId67" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
-    <hyperlink ref="F73" r:id="rId68" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
-    <hyperlink ref="F74" r:id="rId69" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
-    <hyperlink ref="F75" r:id="rId70" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
-    <hyperlink ref="F76" r:id="rId71" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
-    <hyperlink ref="F77" r:id="rId72" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
-    <hyperlink ref="F78" r:id="rId73" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
-    <hyperlink ref="F79" r:id="rId74" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
-    <hyperlink ref="F80" r:id="rId75" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
-    <hyperlink ref="F81" r:id="rId76" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
-    <hyperlink ref="F84" r:id="rId77" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
-    <hyperlink ref="F85" r:id="rId78" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
-    <hyperlink ref="F86" r:id="rId79" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
-    <hyperlink ref="F89" r:id="rId80" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
-    <hyperlink ref="F90" r:id="rId81" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
-    <hyperlink ref="F91" r:id="rId82" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
-    <hyperlink ref="F92" r:id="rId83" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
-    <hyperlink ref="F96" r:id="rId84" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
-    <hyperlink ref="F97" r:id="rId85" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
-    <hyperlink ref="F98" r:id="rId86" display="Kony@123" xr:uid="{CD792B90-5575-4831-92E5-915207923D76}"/>
-    <hyperlink ref="F99" r:id="rId87" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
-    <hyperlink ref="F100" r:id="rId88" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
-    <hyperlink ref="F107" r:id="rId89" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
-    <hyperlink ref="F108" r:id="rId90" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
-    <hyperlink ref="F109" r:id="rId91" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
-    <hyperlink ref="F110" r:id="rId92" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
-    <hyperlink ref="F111" r:id="rId93" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
-    <hyperlink ref="F112" r:id="rId94" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
-    <hyperlink ref="F113" r:id="rId95" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
-    <hyperlink ref="F114" r:id="rId96" display="Kony@123" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
-    <hyperlink ref="F115" r:id="rId97" display="Kony@123" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
-    <hyperlink ref="F116" r:id="rId98" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
-    <hyperlink ref="F117" r:id="rId99" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
-    <hyperlink ref="F118" r:id="rId100" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
-    <hyperlink ref="F119" r:id="rId101" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
-    <hyperlink ref="F120" r:id="rId102" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
-    <hyperlink ref="F121" r:id="rId103" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
-    <hyperlink ref="F122" r:id="rId104" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
-    <hyperlink ref="F123" r:id="rId105" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
-    <hyperlink ref="F128" r:id="rId106" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
-    <hyperlink ref="F129" r:id="rId107" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
-    <hyperlink ref="F130" r:id="rId108" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
-    <hyperlink ref="F131" r:id="rId109" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
-    <hyperlink ref="F132" r:id="rId110" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
-    <hyperlink ref="F2" r:id="rId111" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
-    <hyperlink ref="F3" r:id="rId112" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
-    <hyperlink ref="F4" r:id="rId113" display="Kony@123" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
-    <hyperlink ref="F5" r:id="rId114" display="Kony@123" xr:uid="{5091E8A5-7013-46C8-BC8B-B86558157BCD}"/>
-    <hyperlink ref="F6" r:id="rId115" display="Kony@123" xr:uid="{B74D3980-6E01-42D1-901D-BD12D50A30AE}"/>
-    <hyperlink ref="F7" r:id="rId116" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
-    <hyperlink ref="F8" r:id="rId117" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
-    <hyperlink ref="F9" r:id="rId118" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
-    <hyperlink ref="F10" r:id="rId119" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
-    <hyperlink ref="F12" r:id="rId120" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
-    <hyperlink ref="F125" r:id="rId121" xr:uid="{FFA89B18-B260-4132-B594-3EB3B642A598}"/>
-    <hyperlink ref="F25" r:id="rId122" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
-    <hyperlink ref="F126" r:id="rId123" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
-    <hyperlink ref="F127" r:id="rId124" xr:uid="{1BD2B876-AC66-4F0E-A35D-F07F90DCF42E}"/>
-    <hyperlink ref="B28" r:id="rId125" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
-    <hyperlink ref="F18" r:id="rId126" xr:uid="{41A3A24C-8B2B-4D97-8F9C-4B1C383F74A6}"/>
-    <hyperlink ref="B18" r:id="rId127" location="/login" xr:uid="{258BC967-6692-4289-9579-239320C007CA}"/>
-    <hyperlink ref="F27" r:id="rId128" xr:uid="{B73F26A9-67C2-485D-B134-1A8492A59172}"/>
-    <hyperlink ref="F65" r:id="rId129" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
+    <hyperlink ref="F94" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F101" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F102" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F103" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F104" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F105" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F124" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
+    <hyperlink ref="F14" r:id="rId15" display="Kony@123" xr:uid="{E20598A3-D12E-4036-B79D-A5379225FEF9}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
+    <hyperlink ref="F22" r:id="rId17" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
+    <hyperlink ref="F24" r:id="rId19" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
+    <hyperlink ref="F26" r:id="rId20" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
+    <hyperlink ref="F30" r:id="rId23" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
+    <hyperlink ref="F31" r:id="rId24" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
+    <hyperlink ref="F32" r:id="rId25" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
+    <hyperlink ref="F33" r:id="rId26" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
+    <hyperlink ref="F46" r:id="rId27" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
+    <hyperlink ref="F53" r:id="rId28" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
+    <hyperlink ref="F54" r:id="rId29" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
+    <hyperlink ref="F55" r:id="rId30" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
+    <hyperlink ref="F56" r:id="rId31" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
+    <hyperlink ref="F57" r:id="rId32" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
+    <hyperlink ref="F58" r:id="rId33" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
+    <hyperlink ref="F59" r:id="rId34" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
+    <hyperlink ref="F60" r:id="rId35" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
+    <hyperlink ref="F61" r:id="rId36" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
+    <hyperlink ref="F62" r:id="rId37" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
+    <hyperlink ref="F63" r:id="rId38" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
+    <hyperlink ref="F64" r:id="rId39" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
+    <hyperlink ref="F66" r:id="rId40" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
+    <hyperlink ref="F67" r:id="rId41" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
+    <hyperlink ref="F68" r:id="rId42" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
+    <hyperlink ref="F69" r:id="rId43" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
+    <hyperlink ref="F70" r:id="rId44" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
+    <hyperlink ref="F71" r:id="rId45" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
+    <hyperlink ref="F72" r:id="rId46" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
+    <hyperlink ref="F73" r:id="rId47" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
+    <hyperlink ref="F74" r:id="rId48" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
+    <hyperlink ref="F75" r:id="rId49" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
+    <hyperlink ref="F76" r:id="rId50" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
+    <hyperlink ref="F77" r:id="rId51" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
+    <hyperlink ref="F78" r:id="rId52" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
+    <hyperlink ref="F79" r:id="rId53" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
+    <hyperlink ref="F80" r:id="rId54" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
+    <hyperlink ref="F81" r:id="rId55" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
+    <hyperlink ref="F84" r:id="rId56" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
+    <hyperlink ref="F85" r:id="rId57" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
+    <hyperlink ref="F86" r:id="rId58" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
+    <hyperlink ref="F89" r:id="rId59" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
+    <hyperlink ref="F90" r:id="rId60" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
+    <hyperlink ref="F91" r:id="rId61" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
+    <hyperlink ref="F92" r:id="rId62" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
+    <hyperlink ref="F96" r:id="rId63" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
+    <hyperlink ref="F97" r:id="rId64" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
+    <hyperlink ref="F99" r:id="rId65" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
+    <hyperlink ref="F100" r:id="rId66" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
+    <hyperlink ref="F107" r:id="rId67" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
+    <hyperlink ref="F108" r:id="rId68" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
+    <hyperlink ref="F109" r:id="rId69" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
+    <hyperlink ref="F110" r:id="rId70" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
+    <hyperlink ref="F111" r:id="rId71" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
+    <hyperlink ref="F112" r:id="rId72" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
+    <hyperlink ref="F113" r:id="rId73" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
+    <hyperlink ref="F114" r:id="rId74" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
+    <hyperlink ref="F115" r:id="rId75" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
+    <hyperlink ref="F116" r:id="rId76" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
+    <hyperlink ref="F117" r:id="rId77" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
+    <hyperlink ref="F118" r:id="rId78" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
+    <hyperlink ref="F119" r:id="rId79" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
+    <hyperlink ref="F120" r:id="rId80" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
+    <hyperlink ref="F121" r:id="rId81" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
+    <hyperlink ref="F122" r:id="rId82" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
+    <hyperlink ref="F123" r:id="rId83" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
+    <hyperlink ref="F128" r:id="rId84" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
+    <hyperlink ref="F129" r:id="rId85" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
+    <hyperlink ref="F130" r:id="rId86" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
+    <hyperlink ref="F131" r:id="rId87" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
+    <hyperlink ref="F132" r:id="rId88" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
+    <hyperlink ref="F2" r:id="rId89" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
+    <hyperlink ref="F3" r:id="rId90" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
+    <hyperlink ref="F4" r:id="rId91" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
+    <hyperlink ref="F7" r:id="rId92" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
+    <hyperlink ref="F8" r:id="rId93" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
+    <hyperlink ref="F9" r:id="rId94" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
+    <hyperlink ref="F10" r:id="rId95" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
+    <hyperlink ref="F12" r:id="rId96" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
+    <hyperlink ref="F25" r:id="rId97" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
+    <hyperlink ref="F126" r:id="rId98" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
+    <hyperlink ref="B28" r:id="rId99" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
+    <hyperlink ref="B18" r:id="rId100" location="/login" xr:uid="{258BC967-6692-4289-9579-239320C007CA}"/>
+    <hyperlink ref="F27" r:id="rId101" xr:uid="{B73F26A9-67C2-485D-B134-1A8492A59172}"/>
+    <hyperlink ref="F65" r:id="rId102" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
+    <hyperlink ref="F38" r:id="rId103" xr:uid="{B71695C5-CFED-458D-A469-8892DCE2393F}"/>
+    <hyperlink ref="F37" r:id="rId104" xr:uid="{80E799B8-8D23-436C-86ED-8B06299237A8}"/>
+    <hyperlink ref="F36" r:id="rId105" xr:uid="{1F74B0DD-6179-44D7-A9C2-E307DBF5AD75}"/>
+    <hyperlink ref="F35" r:id="rId106" xr:uid="{464C01AB-AFCF-4E0A-A070-0A54B6DA9A47}"/>
+    <hyperlink ref="F40" r:id="rId107" xr:uid="{EDE147CB-0B04-4A0C-8850-AD2B3A32CB87}"/>
+    <hyperlink ref="F41" r:id="rId108" xr:uid="{DC6FE26F-88CF-4798-9A6C-C9FC6D1AEEE6}"/>
+    <hyperlink ref="F39" r:id="rId109" xr:uid="{EEB76FD9-C7A6-4110-B80E-DC5DB13CAA18}"/>
+    <hyperlink ref="F34" r:id="rId110" xr:uid="{26D69BFA-D49D-454D-907D-8F94FE596E53}"/>
+    <hyperlink ref="F93" r:id="rId111" xr:uid="{BAABD126-28FB-44B2-B72F-374D90E3E7A7}"/>
+    <hyperlink ref="F95" r:id="rId112" xr:uid="{C659A9BC-7A67-4622-A5DF-86AE2C17DA81}"/>
+    <hyperlink ref="F106" r:id="rId113" xr:uid="{6B8B5D35-FA5F-4822-BD2C-9355D80AF9EE}"/>
+    <hyperlink ref="F125" r:id="rId114" xr:uid="{1CD4B678-0F81-4014-B0B4-036EE25CFDBC}"/>
+    <hyperlink ref="F127" r:id="rId115" xr:uid="{6D6F1238-4CBB-4D01-A4F7-0DBD76E14964}"/>
+    <hyperlink ref="F5" r:id="rId116" xr:uid="{BDFED561-4842-48A4-81FC-99AFF0FAA69B}"/>
+    <hyperlink ref="F6" r:id="rId117" xr:uid="{B0943BCD-C961-4FB1-B0B2-E9C2DF0C8375}"/>
+    <hyperlink ref="F15" r:id="rId118" xr:uid="{77EFB7B2-411F-4801-A9FC-8134863B170B}"/>
+    <hyperlink ref="F18" r:id="rId119" xr:uid="{96909EDE-528F-4E0D-9AAC-84CCDCE8F1D4}"/>
+    <hyperlink ref="F43" r:id="rId120" xr:uid="{DD6B4A0C-48F0-49F2-A8FA-428FA6F8BEE4}"/>
+    <hyperlink ref="F44" r:id="rId121" xr:uid="{63078C0B-6C55-450E-BF27-7AE12975B8E4}"/>
+    <hyperlink ref="F45" r:id="rId122" xr:uid="{0A29EFE0-984E-489B-B6E1-16D474BECA75}"/>
+    <hyperlink ref="F47" r:id="rId123" xr:uid="{F7DC4BE9-42CF-4116-AD2D-6016D3AD029B}"/>
+    <hyperlink ref="F48" r:id="rId124" xr:uid="{83A5B963-A28D-4963-A72D-45D8C1EB312B}"/>
+    <hyperlink ref="F49" r:id="rId125" xr:uid="{4D087A6A-F03B-4615-A6CE-EC1D9A6F2D10}"/>
+    <hyperlink ref="F50" r:id="rId126" xr:uid="{90FE14E1-9A24-4E5D-B75A-6E42D4A93403}"/>
+    <hyperlink ref="F51" r:id="rId127" xr:uid="{4EC1ECFA-F4A5-4960-AEF8-69B62A49AA06}"/>
+    <hyperlink ref="F52" r:id="rId128" xr:uid="{5631F2DB-806C-4BB1-BC8C-5630B24C933F}"/>
+    <hyperlink ref="F98" r:id="rId129" xr:uid="{55625FE7-823D-4699-834E-75CD8DCE5867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId130"/>
@@ -4249,7 +4259,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,7 +4272,7 @@
     <col min="7" max="7" width="158.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="49.28515625" customWidth="1"/>
@@ -4299,19 +4309,19 @@
         <v>107</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4406,10 +4416,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>216</v>
@@ -4426,10 +4436,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>216</v>
@@ -4443,10 +4453,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
@@ -4496,10 +4506,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
@@ -4659,10 +4669,10 @@
         <v>205</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>216</v>
@@ -4705,7 +4715,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
         <v>220</v>
@@ -4784,10 +4794,10 @@
         <v>232</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>216</v>
@@ -4809,135 +4819,135 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
-      </c>
-      <c r="J39" t="s">
-        <v>318</v>
+        <v>300</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s">
         <v>308</v>
       </c>
-      <c r="J40" t="s">
-        <v>318</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="L40" t="s">
-        <v>316</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>309</v>
-      </c>
-      <c r="J41" t="s">
-        <v>318</v>
+        <v>304</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4961,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,10 +5023,10 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5027,10 +5037,10 @@
         <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5050,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5076,13 +5086,13 @@
         <v>288</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5118,7 +5128,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,13 +5165,13 @@
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5199,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,7 +5283,7 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
         <v>244</v>
@@ -5287,7 +5297,7 @@
         <v>245</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -5296,7 +5306,7 @@
         <v>246</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5304,7 +5314,7 @@
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -5319,7 +5329,7 @@
         <v>251</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5327,7 +5337,7 @@
         <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C9" s="2"/>
     </row>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrown\TDECUWorkspace\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FB36A-F40B-4BBF-A2E7-82FB2A314EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="345">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -416,18 +415,12 @@
     <t>Meeting</t>
   </si>
   <si>
-    <t>DeliveryMethod</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Alert Message</t>
   </si>
   <si>
-    <t>Text Message</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
@@ -449,9 +442,6 @@
     <t>C23475_VerifyDateAlertSetupViaPhone</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>C23429_VerifyStopPaymentPayeeField</t>
   </si>
   <si>
@@ -665,9 +655,6 @@
     <t>C23494_VerifyAccountBalanceAlertSetUpViaSecureMessage</t>
   </si>
   <si>
-    <t>Secure Message Only</t>
-  </si>
-  <si>
     <t>C23476_VerifyRecurringDateAlertSetUp</t>
   </si>
   <si>
@@ -1062,12 +1049,30 @@
   </si>
   <si>
     <t>-2046417</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>/*-+dfe</t>
+  </si>
+  <si>
+    <t>You must enter a valid notification target.</t>
+  </si>
+  <si>
+    <t>2187337504</t>
+  </si>
+  <si>
+    <t>Select a date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1133,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1156,6 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1470,17 +1476,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="100.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1512,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1521,10 +1527,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1541,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1561,10 +1567,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1581,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1601,10 +1607,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1621,18 +1627,18 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1641,18 +1647,18 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1661,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1678,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1681,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,27 +1698,27 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1721,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,19 +1738,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,7 +1758,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1761,10 +1767,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1781,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1806,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1820,7 +1826,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1829,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1840,7 +1846,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1849,10 +1855,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,7 +1866,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1872,7 +1878,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1886,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1889,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>44</v>
@@ -1900,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1909,10 +1915,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1929,10 +1935,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1946,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1949,10 +1955,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,19 +1966,19 @@
         <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,7 +1986,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1989,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,7 +2006,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2009,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -2020,7 +2026,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2029,10 +2035,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,7 +2046,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2049,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -2060,7 +2066,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2069,10 +2075,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2086,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2089,10 +2095,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,7 +2106,7 @@
         <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2109,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
@@ -2120,7 +2126,7 @@
         <v>79</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2129,18 +2135,18 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2149,18 +2155,18 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2169,18 +2175,18 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2189,18 +2195,18 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2209,18 +2215,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2229,18 +2235,18 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2249,18 +2255,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2269,18 +2275,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2289,18 +2295,18 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2309,10 +2315,10 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,7 +2326,7 @@
         <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2329,10 +2335,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2346,7 @@
         <v>81</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2349,10 +2355,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,7 +2366,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2369,10 +2375,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,7 +2386,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2389,10 +2395,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2409,10 +2415,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,7 +2426,7 @@
         <v>85</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2429,10 +2435,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,7 +2446,7 @@
         <v>87</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2449,18 +2455,18 @@
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2469,18 +2475,18 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2489,10 +2495,10 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +2506,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2509,10 +2515,10 @@
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2526,7 @@
         <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2529,10 +2535,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,7 +2546,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2549,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,7 +2566,7 @@
         <v>105</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2569,10 +2575,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,7 +2586,7 @@
         <v>111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2589,10 +2595,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,7 +2606,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2609,10 +2615,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,7 +2626,7 @@
         <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2629,10 +2635,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,7 +2646,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -2649,10 +2655,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,7 +2666,7 @@
         <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -2669,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,7 +2686,7 @@
         <v>118</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2689,10 +2695,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2700,7 +2706,7 @@
         <v>119</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2709,10 +2715,10 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,7 +2726,7 @@
         <v>118</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -2729,10 +2735,10 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,7 +2746,7 @@
         <v>120</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2749,10 +2755,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2760,7 +2766,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
       <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>314</v>
+      <c r="E65" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -2789,18 +2795,18 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2809,18 +2815,18 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -2829,18 +2835,18 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -2849,18 +2855,18 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2869,18 +2875,18 @@
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -2889,18 +2895,18 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -2909,18 +2915,18 @@
         <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -2929,18 +2935,18 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -2949,18 +2955,18 @@
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2969,18 +2975,18 @@
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -2989,18 +2995,18 @@
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3009,18 +3015,18 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3029,18 +3035,18 @@
         <v>12</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3049,18 +3055,18 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3069,18 +3075,18 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3089,18 +3095,18 @@
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3109,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
@@ -3117,10 +3123,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3129,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
@@ -3137,10 +3143,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3149,18 +3155,18 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3169,18 +3175,18 @@
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3189,18 +3195,18 @@
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -3209,18 +3215,18 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -3229,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -3237,10 +3243,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3249,18 +3255,18 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3269,18 +3275,18 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3289,18 +3295,18 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3309,18 +3315,18 @@
         <v>12</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3329,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>15</v>
@@ -3337,10 +3343,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3349,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
@@ -3357,10 +3363,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -3369,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>15</v>
@@ -3377,10 +3383,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3389,18 +3395,18 @@
         <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -3409,18 +3415,18 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -3429,18 +3435,18 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3449,18 +3455,18 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -3469,18 +3475,18 @@
         <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -3489,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>15</v>
@@ -3497,10 +3503,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3509,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
@@ -3517,10 +3523,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3529,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>15</v>
@@ -3537,10 +3543,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3549,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>15</v>
@@ -3557,10 +3563,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3569,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>15</v>
@@ -3577,10 +3583,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -3589,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>15</v>
@@ -3597,10 +3603,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3609,18 +3615,18 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -3629,18 +3635,18 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3649,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>15</v>
@@ -3657,10 +3663,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -3669,18 +3675,18 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -3689,18 +3695,18 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -3709,18 +3715,18 @@
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3729,18 +3735,18 @@
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -3749,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>15</v>
@@ -3757,10 +3763,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -3769,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>15</v>
@@ -3777,10 +3783,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -3789,18 +3795,18 @@
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3809,18 +3815,18 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -3829,18 +3835,18 @@
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3849,18 +3855,18 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -3869,18 +3875,18 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -3889,18 +3895,18 @@
         <v>12</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -3909,18 +3915,18 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -3929,18 +3935,18 @@
         <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3949,18 +3955,18 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -3969,38 +3975,38 @@
         <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C126" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -4009,18 +4015,18 @@
         <v>12</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4029,18 +4035,18 @@
         <v>12</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -4049,18 +4055,18 @@
         <v>12</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -4069,18 +4075,18 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -4089,18 +4095,18 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -4109,144 +4115,144 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F21" r:id="rId2" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F82" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F83" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F87" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F88" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F94" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F101" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F102" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F103" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F104" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F105" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F124" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F42" r:id="rId14" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
-    <hyperlink ref="F14" r:id="rId15" display="Kony@123" xr:uid="{E20598A3-D12E-4036-B79D-A5379225FEF9}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{F9E63619-FF09-40D3-A2E6-AB5314653268}"/>
-    <hyperlink ref="F22" r:id="rId17" display="Kony@123" xr:uid="{2DD0D6D2-8A04-45AB-A3CE-3836E08E3DA7}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{F72FD78C-2C7D-44CD-9D75-5F8654FFED53}"/>
-    <hyperlink ref="F24" r:id="rId19" display="Kony@123" xr:uid="{8E933C7E-7C7E-4282-BB58-0C805634E6C3}"/>
-    <hyperlink ref="F26" r:id="rId20" display="Kony@123" xr:uid="{88A65621-5874-45A2-8984-F1B19A029D99}"/>
-    <hyperlink ref="F28" r:id="rId21" xr:uid="{50D4030C-F52F-443A-82CB-001795DDFC2E}"/>
-    <hyperlink ref="F29" r:id="rId22" xr:uid="{3A25612B-6BCE-4510-8223-C66C7822C71F}"/>
-    <hyperlink ref="F30" r:id="rId23" display="Kony@123" xr:uid="{C2E1D2B8-294C-4CBB-A8F4-155128347147}"/>
-    <hyperlink ref="F31" r:id="rId24" display="Kony@123" xr:uid="{5860E7F6-7EC9-4F10-9216-E8A06B35A794}"/>
-    <hyperlink ref="F32" r:id="rId25" xr:uid="{DAAC0511-A2E4-4137-8E04-5C3ED57495AD}"/>
-    <hyperlink ref="F33" r:id="rId26" display="Kony@123" xr:uid="{0F8F2825-9434-4059-84B2-BF68AC85B307}"/>
-    <hyperlink ref="F46" r:id="rId27" xr:uid="{A51D7DE1-24A2-4419-AF67-489B6D0F14B9}"/>
-    <hyperlink ref="F53" r:id="rId28" xr:uid="{61EFD06F-5B3B-4F09-87C8-4C5931C9047C}"/>
-    <hyperlink ref="F54" r:id="rId29" display="Kony@123" xr:uid="{E87B17A0-DD95-43C2-982F-F189F224032C}"/>
-    <hyperlink ref="F55" r:id="rId30" display="Kony@123" xr:uid="{9B8087F3-54E5-47CD-9C1E-A08F46377459}"/>
-    <hyperlink ref="F56" r:id="rId31" display="Kony@123" xr:uid="{43AF0104-E20C-41A4-A5F0-B96EFB4B1C37}"/>
-    <hyperlink ref="F57" r:id="rId32" display="Kony@123" xr:uid="{99F3B0CD-6285-4CFD-8C00-67ED4EA95A30}"/>
-    <hyperlink ref="F58" r:id="rId33" display="Kony@123" xr:uid="{F18AA546-B50E-4563-ABE8-59E5AF2CC0E2}"/>
-    <hyperlink ref="F59" r:id="rId34" display="Kony@123" xr:uid="{7306EE0B-1045-4D5E-9D4F-96E55C9097B7}"/>
-    <hyperlink ref="F60" r:id="rId35" display="Kony@123" xr:uid="{D117F9A8-22C6-41F5-A210-CBEA9FFEF2D3}"/>
-    <hyperlink ref="F61" r:id="rId36" display="Kony@123" xr:uid="{601C72CE-9736-4825-8DD5-993C2147A4C9}"/>
-    <hyperlink ref="F62" r:id="rId37" display="Kony@123" xr:uid="{0EED1D9F-BFB3-4473-BF2A-A5BC7A3FCFB6}"/>
-    <hyperlink ref="F63" r:id="rId38" display="Kony@123" xr:uid="{28F6D482-55DF-41DD-A988-2A2A32506141}"/>
-    <hyperlink ref="F64" r:id="rId39" display="Kony@123" xr:uid="{C05995A6-2557-49F4-821B-2B65E58FFA7C}"/>
-    <hyperlink ref="F66" r:id="rId40" display="Kony@123" xr:uid="{3B1DB643-4C34-4206-9579-57CC8F33B839}"/>
-    <hyperlink ref="F67" r:id="rId41" display="Kony@123" xr:uid="{91AB3591-1D4A-4E38-8FE5-AAB4E1935417}"/>
-    <hyperlink ref="F68" r:id="rId42" display="Kony@123" xr:uid="{7F2B0B62-35C5-4C65-922D-49EE44056215}"/>
-    <hyperlink ref="F69" r:id="rId43" display="Kony@123" xr:uid="{207FAAEF-09D7-40F3-A379-8ABEC15ECF4A}"/>
-    <hyperlink ref="F70" r:id="rId44" display="Kony@123" xr:uid="{B6097E8C-DDBA-4479-95B7-30A3D61476D1}"/>
-    <hyperlink ref="F71" r:id="rId45" display="Kony@123" xr:uid="{C3EED4F6-81DC-456C-B78A-F00631A92AF1}"/>
-    <hyperlink ref="F72" r:id="rId46" display="Kony@123" xr:uid="{6889B3FD-236F-4A54-AFCA-0884565378C9}"/>
-    <hyperlink ref="F73" r:id="rId47" display="Kony@123" xr:uid="{96829630-6B12-4619-B58B-900790AB2D8C}"/>
-    <hyperlink ref="F74" r:id="rId48" display="Kony@123" xr:uid="{4FCD289B-5FFD-478D-B4CA-6E2208E33844}"/>
-    <hyperlink ref="F75" r:id="rId49" display="Kony@123" xr:uid="{D9296A31-DC6F-4C6F-9CDB-AC84176EDE18}"/>
-    <hyperlink ref="F76" r:id="rId50" display="Kony@123" xr:uid="{F5566EFA-DAD3-4A73-B8F8-33B6E99DACF4}"/>
-    <hyperlink ref="F77" r:id="rId51" display="Kony@123" xr:uid="{1F4DA024-92EB-493D-9705-5E7AA901CEEC}"/>
-    <hyperlink ref="F78" r:id="rId52" display="Kony@123" xr:uid="{59406998-B10C-4278-8247-E46C691AE044}"/>
-    <hyperlink ref="F79" r:id="rId53" display="Kony@123" xr:uid="{49CFAF99-32F4-487A-8C7A-9AE0BB4ABD45}"/>
-    <hyperlink ref="F80" r:id="rId54" display="Kony@123" xr:uid="{BD0939B4-FC13-4AA6-B4A3-7CEAA9743D4A}"/>
-    <hyperlink ref="F81" r:id="rId55" display="Kony@123" xr:uid="{D3CD5A29-411B-4E09-8352-6C8522164A53}"/>
-    <hyperlink ref="F84" r:id="rId56" display="Kony@123" xr:uid="{E0DA70EE-A882-4587-AF63-B58F8DA48D6B}"/>
-    <hyperlink ref="F85" r:id="rId57" display="Kony@123" xr:uid="{EFA23262-BD6A-4859-88B7-12FB2C5C2368}"/>
-    <hyperlink ref="F86" r:id="rId58" display="Kony@123" xr:uid="{B9DA6CC4-5704-4A32-80B5-B2518451341D}"/>
-    <hyperlink ref="F89" r:id="rId59" display="Kony@123" xr:uid="{BFAFDF5A-2C79-4496-B7D1-383987AB5D48}"/>
-    <hyperlink ref="F90" r:id="rId60" display="Kony@123" xr:uid="{EBD95D4A-0E92-4ADE-9C6F-08A98F31003A}"/>
-    <hyperlink ref="F91" r:id="rId61" display="Kony@123" xr:uid="{CA9B003C-7272-455D-A1B2-88B8573357E5}"/>
-    <hyperlink ref="F92" r:id="rId62" display="Kony@123" xr:uid="{F4F5213E-D068-407C-9949-C43C6EEF2F46}"/>
-    <hyperlink ref="F96" r:id="rId63" display="Kony@123" xr:uid="{D627F46D-FB68-49A1-8615-B6950665BAF4}"/>
-    <hyperlink ref="F97" r:id="rId64" display="Kony@123" xr:uid="{00F1D0DF-5FE3-4ABB-893D-A37E52ECC621}"/>
-    <hyperlink ref="F99" r:id="rId65" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
-    <hyperlink ref="F100" r:id="rId66" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
-    <hyperlink ref="F107" r:id="rId67" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
-    <hyperlink ref="F108" r:id="rId68" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
-    <hyperlink ref="F109" r:id="rId69" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
-    <hyperlink ref="F110" r:id="rId70" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
-    <hyperlink ref="F111" r:id="rId71" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
-    <hyperlink ref="F112" r:id="rId72" display="Kony@123" xr:uid="{17DECF45-DBF0-4563-BA0A-CD3D3FF6E72A}"/>
-    <hyperlink ref="F113" r:id="rId73" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
-    <hyperlink ref="F114" r:id="rId74" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
-    <hyperlink ref="F115" r:id="rId75" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
-    <hyperlink ref="F116" r:id="rId76" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
-    <hyperlink ref="F117" r:id="rId77" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
-    <hyperlink ref="F118" r:id="rId78" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
-    <hyperlink ref="F119" r:id="rId79" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
-    <hyperlink ref="F120" r:id="rId80" display="Kony@123" xr:uid="{2BA1CF86-E059-4693-A118-EC666FB9EDCB}"/>
-    <hyperlink ref="F121" r:id="rId81" display="Kony@123" xr:uid="{D58D3CEB-BE9A-421C-A948-D1CED862519C}"/>
-    <hyperlink ref="F122" r:id="rId82" display="Kony@123" xr:uid="{00D16CB0-272E-41E7-A8AB-235E01DB1883}"/>
-    <hyperlink ref="F123" r:id="rId83" display="Kony@123" xr:uid="{577EDD20-C8A2-4861-9251-5B00B7827C4B}"/>
-    <hyperlink ref="F128" r:id="rId84" display="Kony@123" xr:uid="{10D566E7-7697-43E4-BABF-C3FAD44D8AB6}"/>
-    <hyperlink ref="F129" r:id="rId85" display="Kony@123" xr:uid="{E1A46BAA-9D3D-42AC-BB3E-96A169AAAFEA}"/>
-    <hyperlink ref="F130" r:id="rId86" display="Kony@123" xr:uid="{3BC87084-E1A8-44C3-8A98-D632014FAB47}"/>
-    <hyperlink ref="F131" r:id="rId87" display="Kony@123" xr:uid="{2E18C221-46CD-4596-98DD-7F32DE9FE176}"/>
-    <hyperlink ref="F132" r:id="rId88" display="Kony@123" xr:uid="{36FFA7B7-D5E3-4261-BC25-1DCA79A972F7}"/>
-    <hyperlink ref="F2" r:id="rId89" display="Kony@123" xr:uid="{E78EB2EC-C5A6-4ADB-92B1-30AF16E9A9DE}"/>
-    <hyperlink ref="F3" r:id="rId90" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
-    <hyperlink ref="F4" r:id="rId91" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
-    <hyperlink ref="F7" r:id="rId92" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
-    <hyperlink ref="F8" r:id="rId93" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
-    <hyperlink ref="F9" r:id="rId94" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
-    <hyperlink ref="F10" r:id="rId95" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
-    <hyperlink ref="F12" r:id="rId96" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
-    <hyperlink ref="F25" r:id="rId97" xr:uid="{90BC1D2D-3D72-4AB6-A40A-21B53DD1F5D2}"/>
-    <hyperlink ref="F126" r:id="rId98" xr:uid="{69E5115A-2CB4-48F5-B13D-808D09C339F9}"/>
-    <hyperlink ref="B28" r:id="rId99" location="/login" xr:uid="{6C13B286-E7D4-49E1-B5B5-8761B5642189}"/>
-    <hyperlink ref="B18" r:id="rId100" location="/login" xr:uid="{258BC967-6692-4289-9579-239320C007CA}"/>
-    <hyperlink ref="F27" r:id="rId101" xr:uid="{B73F26A9-67C2-485D-B134-1A8492A59172}"/>
-    <hyperlink ref="F65" r:id="rId102" display="Kony@123" xr:uid="{8C31F47F-AA11-4EAA-B7A9-C1F35711ACDE}"/>
-    <hyperlink ref="F38" r:id="rId103" xr:uid="{B71695C5-CFED-458D-A469-8892DCE2393F}"/>
-    <hyperlink ref="F37" r:id="rId104" xr:uid="{80E799B8-8D23-436C-86ED-8B06299237A8}"/>
-    <hyperlink ref="F36" r:id="rId105" xr:uid="{1F74B0DD-6179-44D7-A9C2-E307DBF5AD75}"/>
-    <hyperlink ref="F35" r:id="rId106" xr:uid="{464C01AB-AFCF-4E0A-A070-0A54B6DA9A47}"/>
-    <hyperlink ref="F40" r:id="rId107" xr:uid="{EDE147CB-0B04-4A0C-8850-AD2B3A32CB87}"/>
-    <hyperlink ref="F41" r:id="rId108" xr:uid="{DC6FE26F-88CF-4798-9A6C-C9FC6D1AEEE6}"/>
-    <hyperlink ref="F39" r:id="rId109" xr:uid="{EEB76FD9-C7A6-4110-B80E-DC5DB13CAA18}"/>
-    <hyperlink ref="F34" r:id="rId110" xr:uid="{26D69BFA-D49D-454D-907D-8F94FE596E53}"/>
-    <hyperlink ref="F93" r:id="rId111" xr:uid="{BAABD126-28FB-44B2-B72F-374D90E3E7A7}"/>
-    <hyperlink ref="F95" r:id="rId112" xr:uid="{C659A9BC-7A67-4622-A5DF-86AE2C17DA81}"/>
-    <hyperlink ref="F106" r:id="rId113" xr:uid="{6B8B5D35-FA5F-4822-BD2C-9355D80AF9EE}"/>
-    <hyperlink ref="F125" r:id="rId114" xr:uid="{1CD4B678-0F81-4014-B0B4-036EE25CFDBC}"/>
-    <hyperlink ref="F127" r:id="rId115" xr:uid="{6D6F1238-4CBB-4D01-A4F7-0DBD76E14964}"/>
-    <hyperlink ref="F5" r:id="rId116" xr:uid="{BDFED561-4842-48A4-81FC-99AFF0FAA69B}"/>
-    <hyperlink ref="F6" r:id="rId117" xr:uid="{B0943BCD-C961-4FB1-B0B2-E9C2DF0C8375}"/>
-    <hyperlink ref="F15" r:id="rId118" xr:uid="{77EFB7B2-411F-4801-A9FC-8134863B170B}"/>
-    <hyperlink ref="F18" r:id="rId119" xr:uid="{96909EDE-528F-4E0D-9AAC-84CCDCE8F1D4}"/>
-    <hyperlink ref="F43" r:id="rId120" xr:uid="{DD6B4A0C-48F0-49F2-A8FA-428FA6F8BEE4}"/>
-    <hyperlink ref="F44" r:id="rId121" xr:uid="{63078C0B-6C55-450E-BF27-7AE12975B8E4}"/>
-    <hyperlink ref="F45" r:id="rId122" xr:uid="{0A29EFE0-984E-489B-B6E1-16D474BECA75}"/>
-    <hyperlink ref="F47" r:id="rId123" xr:uid="{F7DC4BE9-42CF-4116-AD2D-6016D3AD029B}"/>
-    <hyperlink ref="F48" r:id="rId124" xr:uid="{83A5B963-A28D-4963-A72D-45D8C1EB312B}"/>
-    <hyperlink ref="F49" r:id="rId125" xr:uid="{4D087A6A-F03B-4615-A6CE-EC1D9A6F2D10}"/>
-    <hyperlink ref="F50" r:id="rId126" xr:uid="{90FE14E1-9A24-4E5D-B75A-6E42D4A93403}"/>
-    <hyperlink ref="F51" r:id="rId127" xr:uid="{4EC1ECFA-F4A5-4960-AEF8-69B62A49AA06}"/>
-    <hyperlink ref="F52" r:id="rId128" xr:uid="{5631F2DB-806C-4BB1-BC8C-5630B24C933F}"/>
-    <hyperlink ref="F98" r:id="rId129" xr:uid="{55625FE7-823D-4699-834E-75CD8DCE5867}"/>
+    <hyperlink ref="F20" r:id="rId1" display="Kony@123"/>
+    <hyperlink ref="F21" r:id="rId2" display="Kony@123"/>
+    <hyperlink ref="F82" r:id="rId3"/>
+    <hyperlink ref="F83" r:id="rId4"/>
+    <hyperlink ref="F87" r:id="rId5"/>
+    <hyperlink ref="F88" r:id="rId6"/>
+    <hyperlink ref="F94" r:id="rId7"/>
+    <hyperlink ref="F101" r:id="rId8"/>
+    <hyperlink ref="F102" r:id="rId9"/>
+    <hyperlink ref="F103" r:id="rId10"/>
+    <hyperlink ref="F104" r:id="rId11"/>
+    <hyperlink ref="F105" r:id="rId12"/>
+    <hyperlink ref="F124" r:id="rId13"/>
+    <hyperlink ref="F42" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15" display="Kony@123"/>
+    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F22" r:id="rId17" display="Kony@123"/>
+    <hyperlink ref="F23" r:id="rId18"/>
+    <hyperlink ref="F24" r:id="rId19" display="Kony@123"/>
+    <hyperlink ref="F26" r:id="rId20" display="Kony@123"/>
+    <hyperlink ref="F28" r:id="rId21"/>
+    <hyperlink ref="F29" r:id="rId22"/>
+    <hyperlink ref="F30" r:id="rId23" display="Kony@123"/>
+    <hyperlink ref="F31" r:id="rId24" display="Kony@123"/>
+    <hyperlink ref="F32" r:id="rId25"/>
+    <hyperlink ref="F33" r:id="rId26" display="Kony@123"/>
+    <hyperlink ref="F46" r:id="rId27"/>
+    <hyperlink ref="F53" r:id="rId28"/>
+    <hyperlink ref="F54" r:id="rId29" display="Kony@123"/>
+    <hyperlink ref="F55" r:id="rId30" display="Kony@123"/>
+    <hyperlink ref="F56" r:id="rId31" display="Kony@123"/>
+    <hyperlink ref="F57" r:id="rId32" display="Kony@123"/>
+    <hyperlink ref="F58" r:id="rId33" display="Kony@123"/>
+    <hyperlink ref="F59" r:id="rId34" display="Kony@123"/>
+    <hyperlink ref="F60" r:id="rId35" display="Kony@123"/>
+    <hyperlink ref="F61" r:id="rId36" display="Kony@123"/>
+    <hyperlink ref="F62" r:id="rId37" display="Kony@123"/>
+    <hyperlink ref="F63" r:id="rId38" display="Kony@123"/>
+    <hyperlink ref="F64" r:id="rId39" display="Kony@123"/>
+    <hyperlink ref="F66" r:id="rId40" display="Kony@123"/>
+    <hyperlink ref="F67" r:id="rId41" display="Kony@123"/>
+    <hyperlink ref="F68" r:id="rId42" display="Kony@123"/>
+    <hyperlink ref="F69" r:id="rId43" display="Kony@123"/>
+    <hyperlink ref="F70" r:id="rId44" display="Kony@123"/>
+    <hyperlink ref="F71" r:id="rId45" display="Kony@123"/>
+    <hyperlink ref="F72" r:id="rId46" display="Kony@123"/>
+    <hyperlink ref="F73" r:id="rId47" display="Kony@123"/>
+    <hyperlink ref="F74" r:id="rId48" display="Kony@123"/>
+    <hyperlink ref="F75" r:id="rId49" display="Kony@123"/>
+    <hyperlink ref="F76" r:id="rId50" display="Kony@123"/>
+    <hyperlink ref="F77" r:id="rId51" display="Kony@123"/>
+    <hyperlink ref="F78" r:id="rId52" display="Kony@123"/>
+    <hyperlink ref="F79" r:id="rId53" display="Kony@123"/>
+    <hyperlink ref="F80" r:id="rId54" display="Kony@123"/>
+    <hyperlink ref="F81" r:id="rId55" display="Kony@123"/>
+    <hyperlink ref="F84" r:id="rId56" display="Kony@123"/>
+    <hyperlink ref="F85" r:id="rId57" display="Kony@123"/>
+    <hyperlink ref="F86" r:id="rId58" display="Kony@123"/>
+    <hyperlink ref="F89" r:id="rId59" display="Kony@123"/>
+    <hyperlink ref="F90" r:id="rId60" display="Kony@123"/>
+    <hyperlink ref="F91" r:id="rId61" display="Kony@123"/>
+    <hyperlink ref="F92" r:id="rId62" display="Kony@123"/>
+    <hyperlink ref="F96" r:id="rId63" display="Kony@123"/>
+    <hyperlink ref="F97" r:id="rId64" display="Kony@123"/>
+    <hyperlink ref="F99" r:id="rId65" display="Kony@123"/>
+    <hyperlink ref="F100" r:id="rId66" display="Kony@123"/>
+    <hyperlink ref="F107" r:id="rId67" display="Kony@123"/>
+    <hyperlink ref="F108" r:id="rId68" display="Kony@123"/>
+    <hyperlink ref="F109" r:id="rId69"/>
+    <hyperlink ref="F110" r:id="rId70" display="Kony@123"/>
+    <hyperlink ref="F111" r:id="rId71" display="Kony@123"/>
+    <hyperlink ref="F112" r:id="rId72" display="Kony@123"/>
+    <hyperlink ref="F113" r:id="rId73" display="Kony@123"/>
+    <hyperlink ref="F114" r:id="rId74"/>
+    <hyperlink ref="F115" r:id="rId75"/>
+    <hyperlink ref="F116" r:id="rId76" display="Kony@123"/>
+    <hyperlink ref="F117" r:id="rId77" display="Kony@123"/>
+    <hyperlink ref="F118" r:id="rId78" display="Kony@123"/>
+    <hyperlink ref="F119" r:id="rId79" display="Kony@123"/>
+    <hyperlink ref="F120" r:id="rId80" display="Kony@123"/>
+    <hyperlink ref="F121" r:id="rId81" display="Kony@123"/>
+    <hyperlink ref="F122" r:id="rId82" display="Kony@123"/>
+    <hyperlink ref="F123" r:id="rId83" display="Kony@123"/>
+    <hyperlink ref="F128" r:id="rId84" display="Kony@123"/>
+    <hyperlink ref="F129" r:id="rId85" display="Kony@123"/>
+    <hyperlink ref="F130" r:id="rId86" display="Kony@123"/>
+    <hyperlink ref="F131" r:id="rId87" display="Kony@123"/>
+    <hyperlink ref="F132" r:id="rId88" display="Kony@123"/>
+    <hyperlink ref="F2" r:id="rId89" display="Kony@123"/>
+    <hyperlink ref="F3" r:id="rId90" display="Kony@123"/>
+    <hyperlink ref="F4" r:id="rId91"/>
+    <hyperlink ref="F7" r:id="rId92" display="Kony@123"/>
+    <hyperlink ref="F8" r:id="rId93" display="Kony@123"/>
+    <hyperlink ref="F9" r:id="rId94" display="Kony@123"/>
+    <hyperlink ref="F10" r:id="rId95" display="Kony@123"/>
+    <hyperlink ref="F12" r:id="rId96" display="Kony@123"/>
+    <hyperlink ref="F25" r:id="rId97"/>
+    <hyperlink ref="F126" r:id="rId98"/>
+    <hyperlink ref="B28" r:id="rId99" location="/login"/>
+    <hyperlink ref="B18" r:id="rId100" location="/login"/>
+    <hyperlink ref="F27" r:id="rId101"/>
+    <hyperlink ref="F65" r:id="rId102"/>
+    <hyperlink ref="F38" r:id="rId103"/>
+    <hyperlink ref="F37" r:id="rId104"/>
+    <hyperlink ref="F36" r:id="rId105"/>
+    <hyperlink ref="F35" r:id="rId106"/>
+    <hyperlink ref="F40" r:id="rId107"/>
+    <hyperlink ref="F41" r:id="rId108"/>
+    <hyperlink ref="F39" r:id="rId109"/>
+    <hyperlink ref="F34" r:id="rId110"/>
+    <hyperlink ref="F93" r:id="rId111"/>
+    <hyperlink ref="F95" r:id="rId112"/>
+    <hyperlink ref="F106" r:id="rId113"/>
+    <hyperlink ref="F125" r:id="rId114"/>
+    <hyperlink ref="F127" r:id="rId115"/>
+    <hyperlink ref="F5" r:id="rId116"/>
+    <hyperlink ref="F6" r:id="rId117"/>
+    <hyperlink ref="F15" r:id="rId118"/>
+    <hyperlink ref="F18" r:id="rId119"/>
+    <hyperlink ref="F43" r:id="rId120"/>
+    <hyperlink ref="F44" r:id="rId121"/>
+    <hyperlink ref="F45" r:id="rId122"/>
+    <hyperlink ref="F47" r:id="rId123"/>
+    <hyperlink ref="F48" r:id="rId124"/>
+    <hyperlink ref="F49" r:id="rId125"/>
+    <hyperlink ref="F50" r:id="rId126"/>
+    <hyperlink ref="F51" r:id="rId127"/>
+    <hyperlink ref="F52" r:id="rId128"/>
+    <hyperlink ref="F98" r:id="rId129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId130"/>
@@ -4254,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4309,19 +4315,19 @@
         <v>107</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4370,10 +4376,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4383,7 +4389,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -4393,12 +4399,12 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -4408,7 +4414,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4422,7 +4428,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -4436,13 +4442,13 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -4453,10 +4459,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
@@ -4492,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -4506,10 +4512,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
@@ -4562,63 +4568,63 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
@@ -4626,19 +4632,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>59</v>
@@ -4646,19 +4652,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
@@ -4666,19 +4672,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
         <v>59</v>
@@ -4686,19 +4692,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>59</v>
@@ -4706,104 +4712,104 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
         <v>224</v>
-      </c>
-      <c r="E31" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
         <v>59</v>
@@ -4811,143 +4817,143 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N39" t="s">
         <v>307</v>
-      </c>
-      <c r="N39" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L40" t="s">
-        <v>308</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="N40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>300</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L41" t="s">
         <v>304</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" t="s">
-        <v>308</v>
-      </c>
       <c r="M41" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4980,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
@@ -4995,10 +5001,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,82 +5023,82 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5116,7 +5122,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H114" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H114" r:id="rId1" display="Kony@789"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5124,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5165,13 +5171,13 @@
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5206,11 +5212,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,16 +5247,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5280,64 +5286,64 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5367,7 +5373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5418,10 +5424,10 @@
         <v>114</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5456,7 +5462,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5467,7 +5473,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J4" t="s">
         <v>115</v>
@@ -5475,12 +5481,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
@@ -5504,20 +5510,20 @@
         <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>99</v>
@@ -5541,7 +5547,7 @@
         <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5572,19 +5578,19 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5597,93 +5603,93 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5693,11 +5699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5706,12 +5712,12 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5728,31 +5734,28 @@
         <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5760,32 +5763,41 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
       </c>
       <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
       <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
@@ -5794,18 +5806,15 @@
         <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
@@ -5814,305 +5823,272 @@
         <v>126</v>
       </c>
       <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>153</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
         <v>129</v>
       </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>163</v>
       </c>
-      <c r="B7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
         <v>129</v>
       </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
         <v>129</v>
       </c>
-      <c r="E8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
         <v>129</v>
       </c>
-      <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
         <v>129</v>
       </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="D15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>124</v>
@@ -6121,27 +6097,24 @@
         <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6177,16 +6150,16 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FB36A-F40B-4BBF-A2E7-82FB2A314EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169A4CA7-D116-4790-9322-7C44C140FCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -767,9 +767,6 @@
     <t>C23445_VerifyAccountDetailTransactionSearch</t>
   </si>
   <si>
-    <t>TEXAS DOW</t>
-  </si>
-  <si>
     <t>C23446_VerifyAccountDetailTransactionSearchByTime</t>
   </si>
   <si>
@@ -1062,6 +1059,9 @@
   </si>
   <si>
     <t>-2046417</t>
+  </si>
+  <si>
+    <t>TEXAS DOWING</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1521,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1541,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1561,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1581,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1601,10 +1601,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1621,10 +1621,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>231</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1641,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1661,10 +1661,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1681,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -1701,18 +1701,18 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1721,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -1741,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1761,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -1781,10 +1781,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -1820,7 +1820,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1840,7 +1840,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1849,10 +1849,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -1872,7 +1872,7 @@
         <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>44</v>
@@ -1900,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1909,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1929,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
@@ -1949,10 +1949,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -1969,10 +1969,10 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -1989,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2020,7 +2020,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2029,10 +2029,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2060,7 +2060,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2069,10 +2069,10 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2089,10 +2089,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>77</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2120,7 +2120,7 @@
         <v>79</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2129,18 +2129,18 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2149,18 +2149,18 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2169,18 +2169,18 @@
         <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2189,18 +2189,18 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2209,18 +2209,18 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -2229,18 +2229,18 @@
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -2249,18 +2249,18 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -2269,18 +2269,18 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -2289,18 +2289,18 @@
         <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2309,10 +2309,10 @@
         <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2329,10 +2329,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>81</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2349,10 +2349,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2369,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>328</v>
+        <v>186</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>329</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2389,10 +2389,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>84</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2409,10 +2409,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>85</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2429,10 +2429,10 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>87</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2449,18 +2449,18 @@
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2469,18 +2469,18 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2489,10 +2489,10 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2509,10 +2509,10 @@
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,7 +2520,7 @@
         <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2529,10 +2529,10 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2549,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>105</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2569,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2589,10 +2589,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2609,10 +2609,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2629,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -2649,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -2669,10 +2669,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>118</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -2689,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>119</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2709,10 +2709,10 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>118</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -2729,10 +2729,10 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>120</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -2749,10 +2749,10 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -2769,10 +2769,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -2789,10 +2789,10 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>137</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -2809,10 +2809,10 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>139</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -2829,10 +2829,10 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>142</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -2849,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
         <v>144</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -2869,10 +2869,10 @@
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>145</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -2889,10 +2889,10 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>148</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -2909,10 +2909,10 @@
         <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>150</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -2929,10 +2929,10 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>151</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -2949,10 +2949,10 @@
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,7 +2960,7 @@
         <v>152</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -2969,10 +2969,10 @@
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>159</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -2989,10 +2989,10 @@
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3009,10 +3009,10 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>165</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3029,10 +3029,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
         <v>166</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3049,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>169</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -3069,10 +3069,10 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>172</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -3089,10 +3089,10 @@
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>178</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3120,7 +3120,7 @@
         <v>179</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -3140,7 +3140,7 @@
         <v>182</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -3149,10 +3149,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>200</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -3169,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>184</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
@@ -3189,10 +3189,10 @@
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>188</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -3220,7 +3220,7 @@
         <v>192</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -3240,7 +3240,7 @@
         <v>193</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -3249,10 +3249,10 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>197</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3269,10 +3269,10 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,7 +3280,7 @@
         <v>201</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
@@ -3289,10 +3289,10 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
         <v>202</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -3309,10 +3309,10 @@
         <v>12</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>203</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -3340,7 +3340,7 @@
         <v>205</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -3360,7 +3360,7 @@
         <v>207</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -3380,7 +3380,7 @@
         <v>209</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3389,10 +3389,10 @@
         <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>211</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -3409,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
         <v>212</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -3429,10 +3429,10 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>213</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -3449,10 +3449,10 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>217</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -3469,10 +3469,10 @@
         <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>218</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -3500,7 +3500,7 @@
         <v>219</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3520,7 +3520,7 @@
         <v>222</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3540,7 +3540,7 @@
         <v>225</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3560,7 +3560,7 @@
         <v>226</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -3580,7 +3580,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -3600,7 +3600,7 @@
         <v>235</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
@@ -3609,10 +3609,10 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3620,7 +3620,7 @@
         <v>236</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
@@ -3629,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,7 +3640,7 @@
         <v>237</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -3660,7 +3660,7 @@
         <v>238</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -3669,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,7 +3680,7 @@
         <v>239</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -3689,10 +3689,10 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
         <v>240</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -3709,10 +3709,10 @@
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,7 +3720,7 @@
         <v>242</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -3729,10 +3729,10 @@
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>243</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -3757,10 +3757,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -3789,18 +3789,18 @@
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -3809,18 +3809,18 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -3829,18 +3829,18 @@
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -3849,18 +3849,18 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -3869,18 +3869,18 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -3889,18 +3889,18 @@
         <v>12</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -3909,18 +3909,18 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
@@ -3929,18 +3929,18 @@
         <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -3949,18 +3949,18 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -3969,18 +3969,18 @@
         <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -3989,18 +3989,18 @@
         <v>12</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
@@ -4009,18 +4009,18 @@
         <v>12</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -4029,18 +4029,18 @@
         <v>12</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -4049,18 +4049,18 @@
         <v>12</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -4069,18 +4069,18 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -4089,18 +4089,18 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -4109,10 +4109,10 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4185,7 @@
     <hyperlink ref="F99" r:id="rId65" display="Kony@123" xr:uid="{76CFE16A-650C-439B-9C22-C68E0B0B267C}"/>
     <hyperlink ref="F100" r:id="rId66" display="Kony@123" xr:uid="{A00B3C81-DB06-4191-8BFA-EE577D6701B3}"/>
     <hyperlink ref="F107" r:id="rId67" display="Kony@123" xr:uid="{FB7EBC02-45B8-46D5-9E77-F69157ED3B73}"/>
-    <hyperlink ref="F108" r:id="rId68" display="Kony@123" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
+    <hyperlink ref="F108" r:id="rId68" xr:uid="{91CF6712-347A-4D29-B1B2-E64D0BE4D287}"/>
     <hyperlink ref="F109" r:id="rId69" xr:uid="{F4F66B71-AEB5-43B6-8514-CE3476D807E4}"/>
     <hyperlink ref="F110" r:id="rId70" display="Kony@123" xr:uid="{B7EC3C8A-775B-4BC1-8C19-991F98683E67}"/>
     <hyperlink ref="F111" r:id="rId71" display="Kony@123" xr:uid="{E3AD6D4F-9B42-4529-A7C4-8E7686BEEC64}"/>
@@ -4193,7 +4193,7 @@
     <hyperlink ref="F113" r:id="rId73" display="Kony@123" xr:uid="{74E6133A-5984-446E-9AA7-D829434D955D}"/>
     <hyperlink ref="F114" r:id="rId74" xr:uid="{35D315E7-C289-4A17-9DD8-F83E1A9B2F46}"/>
     <hyperlink ref="F115" r:id="rId75" xr:uid="{A2CC87E9-2252-43BB-97E1-082355B40DF0}"/>
-    <hyperlink ref="F116" r:id="rId76" display="Kony@123" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
+    <hyperlink ref="F116" r:id="rId76" xr:uid="{2D34241B-CE91-4101-8D20-5C35A0C31186}"/>
     <hyperlink ref="F117" r:id="rId77" display="Kony@123" xr:uid="{E85D5C55-6C66-44D1-8EE8-FF75DDE4289F}"/>
     <hyperlink ref="F118" r:id="rId78" display="Kony@123" xr:uid="{1D0D0690-E08E-42CF-B7C4-47A6E2A013B0}"/>
     <hyperlink ref="F119" r:id="rId79" display="Kony@123" xr:uid="{10553AA3-7C1D-48C2-97B4-01987B6CF4B2}"/>
@@ -4210,7 +4210,7 @@
     <hyperlink ref="F3" r:id="rId90" display="Kony@123" xr:uid="{32CAA502-4931-476C-8000-ED184140DE4F}"/>
     <hyperlink ref="F4" r:id="rId91" xr:uid="{69A9D0A6-60E4-4D3D-B29D-B95BF93E4981}"/>
     <hyperlink ref="F7" r:id="rId92" display="Kony@123" xr:uid="{57721B33-B3BD-4051-8169-2C28B6D4B305}"/>
-    <hyperlink ref="F8" r:id="rId93" display="Kony@123" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
+    <hyperlink ref="F8" r:id="rId93" xr:uid="{EF7BC8C9-987F-44F5-B88C-66BD0FA06576}"/>
     <hyperlink ref="F9" r:id="rId94" display="Kony@123" xr:uid="{9DF6059A-CD9E-4E25-9562-2E03B723557D}"/>
     <hyperlink ref="F10" r:id="rId95" display="Kony@123" xr:uid="{7DD10A29-4028-49DA-94DA-13A8D33212A9}"/>
     <hyperlink ref="F12" r:id="rId96" display="Kony@123" xr:uid="{31BED371-F74D-4171-998E-012849031283}"/>
@@ -4247,9 +4247,11 @@
     <hyperlink ref="F51" r:id="rId127" xr:uid="{4EC1ECFA-F4A5-4960-AEF8-69B62A49AA06}"/>
     <hyperlink ref="F52" r:id="rId128" xr:uid="{5631F2DB-806C-4BB1-BC8C-5630B24C933F}"/>
     <hyperlink ref="F98" r:id="rId129" xr:uid="{55625FE7-823D-4699-834E-75CD8DCE5867}"/>
+    <hyperlink ref="B8" r:id="rId130" location="/login" xr:uid="{E8CE7AE5-DD62-4B8D-8388-A3E7147815C2}"/>
+    <hyperlink ref="B45" r:id="rId131" location="/login" xr:uid="{A9633666-2731-475D-8779-498A9F1335C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId130"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
@@ -4309,19 +4311,19 @@
         <v>107</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="L1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4383,7 +4385,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -4393,12 +4395,12 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -4408,7 +4410,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4436,10 +4438,10 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>216</v>
@@ -4453,10 +4455,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
@@ -4506,10 +4508,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
@@ -4672,7 +4674,7 @@
         <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>216</v>
@@ -4715,7 +4717,7 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E27" t="s">
         <v>220</v>
@@ -4819,135 +4821,135 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
         <v>333</v>
       </c>
-      <c r="K35" t="s">
-        <v>334</v>
-      </c>
       <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K39" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N39" t="s">
         <v>310</v>
-      </c>
-      <c r="L39" t="s">
-        <v>308</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N41" t="s">
         <v>304</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" t="s">
-        <v>308</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="N41" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
@@ -4995,10 +4997,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,82 +5019,82 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5165,13 +5167,13 @@
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,8 +5211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5241,16 +5243,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5283,10 +5285,10 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>216</v>
@@ -5294,50 +5296,50 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5418,10 +5420,10 @@
         <v>114</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5456,7 +5458,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5467,7 +5469,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J4" t="s">
         <v>115</v>
@@ -5475,12 +5477,12 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
@@ -5504,20 +5506,20 @@
         <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" t="s">
         <v>276</v>
-      </c>
-      <c r="I7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>99</v>
@@ -5541,7 +5543,7 @@
         <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5672,18 +5674,18 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6177,7 +6179,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>185</v>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\workspace_automation\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0B7AB-D6A3-4458-9B88-28DE30EE1568}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14085" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,8 @@
     <sheet name="Alerts" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A22:G46"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1016,7 +1011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1156,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1208,7 +1203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1402,17 +1397,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" workbookViewId="0">
       <selection activeCell="E41" sqref="E41:E42"/>
     </sheetView>
   </sheetViews>
@@ -4056,135 +4051,135 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F21" r:id="rId18" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F82" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F83" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F88" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F89" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F100" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F101" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F102" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F103" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F104" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F105" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F106" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F107" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F108" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F109" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F110" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F130" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F131" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F50" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F126" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F127" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F132" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F34" r:id="rId121" xr:uid="{F16C89E3-6775-4F27-88E4-2390D861B35C}"/>
-    <hyperlink ref="F35" r:id="rId122" xr:uid="{CBD3EC52-F794-47D6-8FB9-221E87EAF3C8}"/>
-    <hyperlink ref="F36" r:id="rId123" xr:uid="{9B286CA4-9D28-4EE0-BB10-33A1C1B25FE3}"/>
-    <hyperlink ref="F37" r:id="rId124" xr:uid="{BA25D8EE-5991-4EF2-891F-35A46261DD0A}"/>
-    <hyperlink ref="F38" r:id="rId125" xr:uid="{2B114179-75A3-4923-A817-C6151DEAE38B}"/>
-    <hyperlink ref="F39" r:id="rId126" xr:uid="{4A6D88CD-0B90-4754-BDB2-A2BC8C87C6F5}"/>
-    <hyperlink ref="F40" r:id="rId127" xr:uid="{5E7D0C1F-66FF-4271-ADC5-1BE440AF51EB}"/>
-    <hyperlink ref="F41" r:id="rId128" xr:uid="{23108439-1451-4CB1-B560-3272C2CA7E78}"/>
-    <hyperlink ref="F42" r:id="rId129" xr:uid="{1AEC7167-E7DC-4DC5-9CFE-5738DBC85751}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F18" r:id="rId15"/>
+    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F20" r:id="rId17"/>
+    <hyperlink ref="F21" r:id="rId18" display="Kony@123"/>
+    <hyperlink ref="F22" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId20"/>
+    <hyperlink ref="F24" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22"/>
+    <hyperlink ref="F26" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+    <hyperlink ref="F28" r:id="rId25"/>
+    <hyperlink ref="F29" r:id="rId26"/>
+    <hyperlink ref="F30" r:id="rId27"/>
+    <hyperlink ref="F31" r:id="rId28"/>
+    <hyperlink ref="F32" r:id="rId29"/>
+    <hyperlink ref="F33" r:id="rId30"/>
+    <hyperlink ref="F43" r:id="rId31"/>
+    <hyperlink ref="F44" r:id="rId32"/>
+    <hyperlink ref="F45" r:id="rId33"/>
+    <hyperlink ref="F46" r:id="rId34"/>
+    <hyperlink ref="F47" r:id="rId35"/>
+    <hyperlink ref="F48" r:id="rId36"/>
+    <hyperlink ref="F49" r:id="rId37"/>
+    <hyperlink ref="F52" r:id="rId38"/>
+    <hyperlink ref="F53" r:id="rId39"/>
+    <hyperlink ref="F54" r:id="rId40"/>
+    <hyperlink ref="F55" r:id="rId41"/>
+    <hyperlink ref="F56" r:id="rId42"/>
+    <hyperlink ref="F57" r:id="rId43"/>
+    <hyperlink ref="F58" r:id="rId44"/>
+    <hyperlink ref="F59" r:id="rId45"/>
+    <hyperlink ref="F60" r:id="rId46"/>
+    <hyperlink ref="F61" r:id="rId47"/>
+    <hyperlink ref="F62" r:id="rId48"/>
+    <hyperlink ref="F63" r:id="rId49"/>
+    <hyperlink ref="F64" r:id="rId50"/>
+    <hyperlink ref="F65" r:id="rId51"/>
+    <hyperlink ref="F66" r:id="rId52"/>
+    <hyperlink ref="F67" r:id="rId53"/>
+    <hyperlink ref="F68" r:id="rId54"/>
+    <hyperlink ref="F69" r:id="rId55"/>
+    <hyperlink ref="F70" r:id="rId56"/>
+    <hyperlink ref="F71" r:id="rId57"/>
+    <hyperlink ref="F72" r:id="rId58"/>
+    <hyperlink ref="F73" r:id="rId59"/>
+    <hyperlink ref="F74" r:id="rId60"/>
+    <hyperlink ref="F75" r:id="rId61"/>
+    <hyperlink ref="F76" r:id="rId62"/>
+    <hyperlink ref="F77" r:id="rId63"/>
+    <hyperlink ref="F78" r:id="rId64"/>
+    <hyperlink ref="F79" r:id="rId65"/>
+    <hyperlink ref="F80" r:id="rId66"/>
+    <hyperlink ref="F81" r:id="rId67"/>
+    <hyperlink ref="F84" r:id="rId68"/>
+    <hyperlink ref="F85" r:id="rId69"/>
+    <hyperlink ref="F86" r:id="rId70"/>
+    <hyperlink ref="F82" r:id="rId71"/>
+    <hyperlink ref="F83" r:id="rId72"/>
+    <hyperlink ref="F87" r:id="rId73"/>
+    <hyperlink ref="F88" r:id="rId74"/>
+    <hyperlink ref="F89" r:id="rId75"/>
+    <hyperlink ref="F90" r:id="rId76"/>
+    <hyperlink ref="F91" r:id="rId77"/>
+    <hyperlink ref="F92" r:id="rId78"/>
+    <hyperlink ref="F93" r:id="rId79"/>
+    <hyperlink ref="F94" r:id="rId80"/>
+    <hyperlink ref="F95" r:id="rId81"/>
+    <hyperlink ref="F96" r:id="rId82"/>
+    <hyperlink ref="F97" r:id="rId83"/>
+    <hyperlink ref="F98" r:id="rId84"/>
+    <hyperlink ref="F99" r:id="rId85"/>
+    <hyperlink ref="F100" r:id="rId86"/>
+    <hyperlink ref="F101" r:id="rId87"/>
+    <hyperlink ref="F102" r:id="rId88"/>
+    <hyperlink ref="F103" r:id="rId89"/>
+    <hyperlink ref="F104" r:id="rId90"/>
+    <hyperlink ref="F105" r:id="rId91"/>
+    <hyperlink ref="F106" r:id="rId92"/>
+    <hyperlink ref="F107" r:id="rId93"/>
+    <hyperlink ref="F108" r:id="rId94"/>
+    <hyperlink ref="F109" r:id="rId95"/>
+    <hyperlink ref="F110" r:id="rId96"/>
+    <hyperlink ref="F111" r:id="rId97"/>
+    <hyperlink ref="F112" r:id="rId98"/>
+    <hyperlink ref="F113" r:id="rId99"/>
+    <hyperlink ref="F114" r:id="rId100"/>
+    <hyperlink ref="F115" r:id="rId101"/>
+    <hyperlink ref="F116" r:id="rId102"/>
+    <hyperlink ref="F117" r:id="rId103"/>
+    <hyperlink ref="F118" r:id="rId104"/>
+    <hyperlink ref="F119" r:id="rId105"/>
+    <hyperlink ref="F120" r:id="rId106"/>
+    <hyperlink ref="F121" r:id="rId107"/>
+    <hyperlink ref="F122" r:id="rId108"/>
+    <hyperlink ref="F123" r:id="rId109"/>
+    <hyperlink ref="F128" r:id="rId110"/>
+    <hyperlink ref="F129" r:id="rId111"/>
+    <hyperlink ref="F130" r:id="rId112"/>
+    <hyperlink ref="F131" r:id="rId113"/>
+    <hyperlink ref="F50" r:id="rId114"/>
+    <hyperlink ref="F124" r:id="rId115"/>
+    <hyperlink ref="F125" r:id="rId116"/>
+    <hyperlink ref="F126" r:id="rId117"/>
+    <hyperlink ref="F127" r:id="rId118"/>
+    <hyperlink ref="F132" r:id="rId119"/>
+    <hyperlink ref="F51" r:id="rId120"/>
+    <hyperlink ref="F34" r:id="rId121"/>
+    <hyperlink ref="F35" r:id="rId122"/>
+    <hyperlink ref="F36" r:id="rId123"/>
+    <hyperlink ref="F37" r:id="rId124"/>
+    <hyperlink ref="F38" r:id="rId125"/>
+    <hyperlink ref="F39" r:id="rId126"/>
+    <hyperlink ref="F40" r:id="rId127"/>
+    <hyperlink ref="F41" r:id="rId128"/>
+    <hyperlink ref="F42" r:id="rId129"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId130"/>
@@ -4192,10 +4187,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
@@ -4892,7 +4887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5096,11 +5091,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H115" r:id="rId1" display="Kony@789"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5108,7 +5103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5190,7 +5185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5351,7 +5346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6116,16 +6111,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6169,8 +6164,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84E63D-13BE-46DC-9A8C-468A6977720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14085" windowHeight="6405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,6 @@
     <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A22:G46"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1011,7 +1016,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,18 +1402,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E42"/>
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,7 +3051,7 @@
         <v>187</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4051,135 +4056,135 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F21" r:id="rId18" display="Kony@123"/>
-    <hyperlink ref="F22" r:id="rId19"/>
-    <hyperlink ref="F23" r:id="rId20"/>
-    <hyperlink ref="F24" r:id="rId21"/>
-    <hyperlink ref="F25" r:id="rId22"/>
-    <hyperlink ref="F26" r:id="rId23"/>
-    <hyperlink ref="F27" r:id="rId24"/>
-    <hyperlink ref="F28" r:id="rId25"/>
-    <hyperlink ref="F29" r:id="rId26"/>
-    <hyperlink ref="F30" r:id="rId27"/>
-    <hyperlink ref="F31" r:id="rId28"/>
-    <hyperlink ref="F32" r:id="rId29"/>
-    <hyperlink ref="F33" r:id="rId30"/>
-    <hyperlink ref="F43" r:id="rId31"/>
-    <hyperlink ref="F44" r:id="rId32"/>
-    <hyperlink ref="F45" r:id="rId33"/>
-    <hyperlink ref="F46" r:id="rId34"/>
-    <hyperlink ref="F47" r:id="rId35"/>
-    <hyperlink ref="F48" r:id="rId36"/>
-    <hyperlink ref="F49" r:id="rId37"/>
-    <hyperlink ref="F52" r:id="rId38"/>
-    <hyperlink ref="F53" r:id="rId39"/>
-    <hyperlink ref="F54" r:id="rId40"/>
-    <hyperlink ref="F55" r:id="rId41"/>
-    <hyperlink ref="F56" r:id="rId42"/>
-    <hyperlink ref="F57" r:id="rId43"/>
-    <hyperlink ref="F58" r:id="rId44"/>
-    <hyperlink ref="F59" r:id="rId45"/>
-    <hyperlink ref="F60" r:id="rId46"/>
-    <hyperlink ref="F61" r:id="rId47"/>
-    <hyperlink ref="F62" r:id="rId48"/>
-    <hyperlink ref="F63" r:id="rId49"/>
-    <hyperlink ref="F64" r:id="rId50"/>
-    <hyperlink ref="F65" r:id="rId51"/>
-    <hyperlink ref="F66" r:id="rId52"/>
-    <hyperlink ref="F67" r:id="rId53"/>
-    <hyperlink ref="F68" r:id="rId54"/>
-    <hyperlink ref="F69" r:id="rId55"/>
-    <hyperlink ref="F70" r:id="rId56"/>
-    <hyperlink ref="F71" r:id="rId57"/>
-    <hyperlink ref="F72" r:id="rId58"/>
-    <hyperlink ref="F73" r:id="rId59"/>
-    <hyperlink ref="F74" r:id="rId60"/>
-    <hyperlink ref="F75" r:id="rId61"/>
-    <hyperlink ref="F76" r:id="rId62"/>
-    <hyperlink ref="F77" r:id="rId63"/>
-    <hyperlink ref="F78" r:id="rId64"/>
-    <hyperlink ref="F79" r:id="rId65"/>
-    <hyperlink ref="F80" r:id="rId66"/>
-    <hyperlink ref="F81" r:id="rId67"/>
-    <hyperlink ref="F84" r:id="rId68"/>
-    <hyperlink ref="F85" r:id="rId69"/>
-    <hyperlink ref="F86" r:id="rId70"/>
-    <hyperlink ref="F82" r:id="rId71"/>
-    <hyperlink ref="F83" r:id="rId72"/>
-    <hyperlink ref="F87" r:id="rId73"/>
-    <hyperlink ref="F88" r:id="rId74"/>
-    <hyperlink ref="F89" r:id="rId75"/>
-    <hyperlink ref="F90" r:id="rId76"/>
-    <hyperlink ref="F91" r:id="rId77"/>
-    <hyperlink ref="F92" r:id="rId78"/>
-    <hyperlink ref="F93" r:id="rId79"/>
-    <hyperlink ref="F94" r:id="rId80"/>
-    <hyperlink ref="F95" r:id="rId81"/>
-    <hyperlink ref="F96" r:id="rId82"/>
-    <hyperlink ref="F97" r:id="rId83"/>
-    <hyperlink ref="F98" r:id="rId84"/>
-    <hyperlink ref="F99" r:id="rId85"/>
-    <hyperlink ref="F100" r:id="rId86"/>
-    <hyperlink ref="F101" r:id="rId87"/>
-    <hyperlink ref="F102" r:id="rId88"/>
-    <hyperlink ref="F103" r:id="rId89"/>
-    <hyperlink ref="F104" r:id="rId90"/>
-    <hyperlink ref="F105" r:id="rId91"/>
-    <hyperlink ref="F106" r:id="rId92"/>
-    <hyperlink ref="F107" r:id="rId93"/>
-    <hyperlink ref="F108" r:id="rId94"/>
-    <hyperlink ref="F109" r:id="rId95"/>
-    <hyperlink ref="F110" r:id="rId96"/>
-    <hyperlink ref="F111" r:id="rId97"/>
-    <hyperlink ref="F112" r:id="rId98"/>
-    <hyperlink ref="F113" r:id="rId99"/>
-    <hyperlink ref="F114" r:id="rId100"/>
-    <hyperlink ref="F115" r:id="rId101"/>
-    <hyperlink ref="F116" r:id="rId102"/>
-    <hyperlink ref="F117" r:id="rId103"/>
-    <hyperlink ref="F118" r:id="rId104"/>
-    <hyperlink ref="F119" r:id="rId105"/>
-    <hyperlink ref="F120" r:id="rId106"/>
-    <hyperlink ref="F121" r:id="rId107"/>
-    <hyperlink ref="F122" r:id="rId108"/>
-    <hyperlink ref="F123" r:id="rId109"/>
-    <hyperlink ref="F128" r:id="rId110"/>
-    <hyperlink ref="F129" r:id="rId111"/>
-    <hyperlink ref="F130" r:id="rId112"/>
-    <hyperlink ref="F131" r:id="rId113"/>
-    <hyperlink ref="F50" r:id="rId114"/>
-    <hyperlink ref="F124" r:id="rId115"/>
-    <hyperlink ref="F125" r:id="rId116"/>
-    <hyperlink ref="F126" r:id="rId117"/>
-    <hyperlink ref="F127" r:id="rId118"/>
-    <hyperlink ref="F132" r:id="rId119"/>
-    <hyperlink ref="F51" r:id="rId120"/>
-    <hyperlink ref="F34" r:id="rId121"/>
-    <hyperlink ref="F35" r:id="rId122"/>
-    <hyperlink ref="F36" r:id="rId123"/>
-    <hyperlink ref="F37" r:id="rId124"/>
-    <hyperlink ref="F38" r:id="rId125"/>
-    <hyperlink ref="F39" r:id="rId126"/>
-    <hyperlink ref="F40" r:id="rId127"/>
-    <hyperlink ref="F41" r:id="rId128"/>
-    <hyperlink ref="F42" r:id="rId129"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F82" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F83" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F88" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F89" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F100" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F101" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F102" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F103" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F104" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F105" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F106" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F107" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F108" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F109" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F110" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F130" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F131" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F50" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F126" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F127" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F132" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F34" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F35" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F36" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F37" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F38" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F39" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F40" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F41" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F42" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId130"/>
@@ -4187,7 +4192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4887,7 +4892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5091,11 +5096,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" display="Kony@789"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
-    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5103,7 +5108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5346,7 +5351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5529,7 +5534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6111,16 +6116,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6164,8 +6169,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v4\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84E63D-13BE-46DC-9A8C-468A6977720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA61FB-B761-4802-A281-FEB8907F5499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,25 @@
     <sheet name="Alerts" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="324">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -140,9 +148,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>1st of the month,Last day of the month,1st &amp; 15th of the month,15th &amp; last day of the month,Weekly,Every other week,Monthly,Quarterly,Semi-annually,Yearly</t>
-  </si>
-  <si>
     <t>C23517_VerifyLoginPageLocationOption</t>
   </si>
   <si>
@@ -170,9 +175,6 @@
     <t>user1</t>
   </si>
   <si>
-    <t>Kony</t>
-  </si>
-  <si>
     <t>C23408_VerifyRepeatForeverCheckBox</t>
   </si>
   <si>
@@ -842,9 +844,6 @@
     <t>FromAccountNumber</t>
   </si>
   <si>
-    <t>20464178</t>
-  </si>
-  <si>
     <t>456789124</t>
   </si>
   <si>
@@ -908,9 +907,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>user2007262</t>
-  </si>
-  <si>
     <t>20072625</t>
   </si>
   <si>
@@ -1011,6 +1007,12 @@
   </si>
   <si>
     <t>Inquire</t>
+  </si>
+  <si>
+    <t>Tdecu@123</t>
+  </si>
+  <si>
+    <t>-1403410</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1208,7 +1210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1412,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A101" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118:F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1425,7 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,11 +1461,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
+      <c r="E2" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,11 +1481,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
+      <c r="E3" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,11 +1501,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
+      <c r="E4" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,11 +1521,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>79</v>
+      <c r="E5" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,11 +1541,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>79</v>
+      <c r="E6" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,16 +1561,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>79</v>
+      <c r="E7" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
@@ -1579,16 +1581,16 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>79</v>
+      <c r="E8" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -1599,11 +1601,11 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>79</v>
+      <c r="E9" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,11 +1621,11 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
+      <c r="E10" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,16 +1641,16 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>79</v>
+      <c r="E11" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
@@ -1659,11 +1661,11 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
+      <c r="E12" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,11 +1681,11 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
+      <c r="E13" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,11 +1701,11 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>79</v>
+      <c r="E14" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,16 +1721,16 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>79</v>
+      <c r="E15" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
@@ -1742,7 +1744,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>17</v>
@@ -1756,7 +1758,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>17</v>
@@ -1767,16 +1769,16 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>79</v>
+      <c r="E18" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
@@ -1787,16 +1789,16 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>79</v>
+      <c r="E19" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>17</v>
@@ -1808,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -1816,7 +1818,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
@@ -1827,16 +1829,16 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
-        <v>79</v>
+      <c r="E21" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>17</v>
@@ -1847,16 +1849,16 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>79</v>
+      <c r="E22" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>17</v>
@@ -1867,16 +1869,16 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>79</v>
+      <c r="E23" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
@@ -1887,16 +1889,16 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>79</v>
+      <c r="E24" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>17</v>
@@ -1907,16 +1909,16 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>79</v>
+      <c r="E25" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>17</v>
@@ -1927,16 +1929,16 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>79</v>
+      <c r="E26" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
@@ -1947,16 +1949,16 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
-        <v>79</v>
+      <c r="E27" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>17</v>
@@ -1967,16 +1969,16 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="s">
-        <v>79</v>
+      <c r="E28" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>17</v>
@@ -1987,16 +1989,16 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>79</v>
+      <c r="E29" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>17</v>
@@ -2007,16 +2009,16 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
-        <v>79</v>
+      <c r="E30" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>17</v>
@@ -2027,16 +2029,16 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
-        <v>79</v>
+      <c r="E31" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
@@ -2047,16 +2049,16 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
-        <v>79</v>
+      <c r="E32" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>17</v>
@@ -2067,16 +2069,16 @@
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
-        <v>79</v>
+      <c r="E33" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -2088,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>17</v>
@@ -2108,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2116,7 +2118,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>17</v>
@@ -2128,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2136,7 +2138,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
@@ -2148,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2156,7 +2158,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>17</v>
@@ -2168,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2176,7 +2178,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>17</v>
@@ -2188,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2196,7 +2198,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
@@ -2208,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2216,7 +2218,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
@@ -2228,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -2236,7 +2238,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>17</v>
@@ -2248,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -2256,7 +2258,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>17</v>
@@ -2267,16 +2269,16 @@
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
-        <v>79</v>
+      <c r="E43" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>17</v>
@@ -2287,16 +2289,16 @@
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" t="s">
-        <v>79</v>
+      <c r="E44" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>17</v>
@@ -2307,16 +2309,16 @@
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
-        <v>79</v>
+      <c r="E45" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>17</v>
@@ -2327,16 +2329,16 @@
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
-        <v>79</v>
+      <c r="E46" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>17</v>
@@ -2347,16 +2349,16 @@
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>79</v>
+      <c r="E47" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>17</v>
@@ -2367,16 +2369,16 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>79</v>
+      <c r="E48" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>17</v>
@@ -2387,16 +2389,16 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" t="s">
-        <v>79</v>
+      <c r="E49" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>17</v>
@@ -2407,16 +2409,16 @@
       <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
-        <v>79</v>
+      <c r="E50" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>17</v>
@@ -2427,16 +2429,16 @@
       <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="E51" t="s">
-        <v>79</v>
+      <c r="E51" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>17</v>
@@ -2447,16 +2449,16 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
-        <v>79</v>
+      <c r="E52" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>17</v>
@@ -2467,16 +2469,16 @@
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
-        <v>79</v>
+      <c r="E53" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>17</v>
@@ -2487,16 +2489,16 @@
       <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="E54" t="s">
-        <v>79</v>
+      <c r="E54" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>17</v>
@@ -2507,16 +2509,16 @@
       <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" t="s">
-        <v>79</v>
+      <c r="E55" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
@@ -2527,16 +2529,16 @@
       <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
-        <v>79</v>
+      <c r="E56" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
@@ -2547,16 +2549,16 @@
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
-        <v>79</v>
+      <c r="E57" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>17</v>
@@ -2567,16 +2569,16 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="E58" t="s">
-        <v>79</v>
+      <c r="E58" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>17</v>
@@ -2587,16 +2589,16 @@
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" t="s">
-        <v>79</v>
+      <c r="E59" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>17</v>
@@ -2607,16 +2609,16 @@
       <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" t="s">
-        <v>79</v>
+      <c r="E60" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>17</v>
@@ -2627,16 +2629,16 @@
       <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
-        <v>79</v>
+      <c r="E61" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>17</v>
@@ -2647,16 +2649,16 @@
       <c r="D62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
-        <v>79</v>
+      <c r="E62" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>17</v>
@@ -2667,16 +2669,16 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" t="s">
-        <v>79</v>
+      <c r="E63" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>17</v>
@@ -2687,16 +2689,16 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64" t="s">
-        <v>79</v>
+      <c r="E64" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>17</v>
@@ -2707,16 +2709,16 @@
       <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
-        <v>79</v>
+      <c r="E65" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>17</v>
@@ -2727,16 +2729,16 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
-        <v>79</v>
+      <c r="E66" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>17</v>
@@ -2747,16 +2749,16 @@
       <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="E67" t="s">
-        <v>79</v>
+      <c r="E67" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>17</v>
@@ -2767,16 +2769,16 @@
       <c r="D68" t="s">
         <v>12</v>
       </c>
-      <c r="E68" t="s">
-        <v>79</v>
+      <c r="E68" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>17</v>
@@ -2787,16 +2789,16 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="E69" t="s">
-        <v>79</v>
+      <c r="E69" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>17</v>
@@ -2807,16 +2809,16 @@
       <c r="D70" t="s">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
-        <v>79</v>
+      <c r="E70" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>17</v>
@@ -2827,16 +2829,16 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" t="s">
-        <v>79</v>
+      <c r="E71" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>17</v>
@@ -2847,16 +2849,16 @@
       <c r="D72" t="s">
         <v>12</v>
       </c>
-      <c r="E72" t="s">
-        <v>79</v>
+      <c r="E72" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>17</v>
@@ -2867,16 +2869,16 @@
       <c r="D73" t="s">
         <v>12</v>
       </c>
-      <c r="E73" t="s">
-        <v>79</v>
+      <c r="E73" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>17</v>
@@ -2887,16 +2889,16 @@
       <c r="D74" t="s">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
-        <v>79</v>
+      <c r="E74" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>17</v>
@@ -2907,16 +2909,16 @@
       <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="E75" t="s">
-        <v>79</v>
+      <c r="E75" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>17</v>
@@ -2927,16 +2929,16 @@
       <c r="D76" t="s">
         <v>12</v>
       </c>
-      <c r="E76" t="s">
-        <v>79</v>
+      <c r="E76" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>17</v>
@@ -2947,16 +2949,16 @@
       <c r="D77" t="s">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
-        <v>79</v>
+      <c r="E77" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>17</v>
@@ -2967,16 +2969,16 @@
       <c r="D78" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
-        <v>79</v>
+      <c r="E78" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>17</v>
@@ -2987,16 +2989,16 @@
       <c r="D79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" t="s">
-        <v>79</v>
+      <c r="E79" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>17</v>
@@ -3007,16 +3009,16 @@
       <c r="D80" t="s">
         <v>12</v>
       </c>
-      <c r="E80" t="s">
-        <v>79</v>
+      <c r="E80" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>17</v>
@@ -3027,16 +3029,16 @@
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="E81" t="s">
-        <v>79</v>
+      <c r="E81" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>17</v>
@@ -3048,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
@@ -3056,7 +3058,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>17</v>
@@ -3068,15 +3070,15 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>17</v>
@@ -3087,16 +3089,16 @@
       <c r="D84" t="s">
         <v>12</v>
       </c>
-      <c r="E84" t="s">
-        <v>79</v>
+      <c r="E84" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>17</v>
@@ -3107,16 +3109,16 @@
       <c r="D85" t="s">
         <v>12</v>
       </c>
-      <c r="E85" t="s">
-        <v>79</v>
+      <c r="E85" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>17</v>
@@ -3127,16 +3129,16 @@
       <c r="D86" t="s">
         <v>12</v>
       </c>
-      <c r="E86" t="s">
-        <v>79</v>
+      <c r="E86" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>17</v>
@@ -3148,15 +3150,15 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>17</v>
@@ -3168,15 +3170,15 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>17</v>
@@ -3187,16 +3189,16 @@
       <c r="D89" t="s">
         <v>12</v>
       </c>
-      <c r="E89" t="s">
-        <v>79</v>
+      <c r="E89" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>17</v>
@@ -3207,16 +3209,16 @@
       <c r="D90" t="s">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
-        <v>79</v>
+      <c r="E90" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>17</v>
@@ -3227,16 +3229,16 @@
       <c r="D91" t="s">
         <v>12</v>
       </c>
-      <c r="E91" t="s">
-        <v>79</v>
+      <c r="E91" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>17</v>
@@ -3247,16 +3249,16 @@
       <c r="D92" t="s">
         <v>12</v>
       </c>
-      <c r="E92" t="s">
-        <v>79</v>
+      <c r="E92" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>17</v>
@@ -3268,15 +3270,15 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>17</v>
@@ -3288,15 +3290,15 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>17</v>
@@ -3308,15 +3310,15 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>17</v>
@@ -3327,16 +3329,16 @@
       <c r="D96" t="s">
         <v>12</v>
       </c>
-      <c r="E96" t="s">
-        <v>79</v>
+      <c r="E96" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>17</v>
@@ -3347,16 +3349,16 @@
       <c r="D97" t="s">
         <v>12</v>
       </c>
-      <c r="E97" t="s">
-        <v>79</v>
+      <c r="E97" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>17</v>
@@ -3367,16 +3369,16 @@
       <c r="D98" t="s">
         <v>12</v>
       </c>
-      <c r="E98" t="s">
-        <v>79</v>
+      <c r="E98" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>17</v>
@@ -3387,16 +3389,16 @@
       <c r="D99" t="s">
         <v>12</v>
       </c>
-      <c r="E99" t="s">
-        <v>79</v>
+      <c r="E99" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>17</v>
@@ -3407,16 +3409,16 @@
       <c r="D100" t="s">
         <v>12</v>
       </c>
-      <c r="E100" t="s">
-        <v>79</v>
+      <c r="E100" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>17</v>
@@ -3428,15 +3430,15 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>17</v>
@@ -3448,15 +3450,15 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>17</v>
@@ -3468,15 +3470,15 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>17</v>
@@ -3488,15 +3490,15 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>17</v>
@@ -3508,15 +3510,15 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>17</v>
@@ -3528,15 +3530,15 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>17</v>
@@ -3547,16 +3549,16 @@
       <c r="D107" t="s">
         <v>12</v>
       </c>
-      <c r="E107" t="s">
-        <v>79</v>
+      <c r="E107" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>17</v>
@@ -3567,16 +3569,16 @@
       <c r="D108" t="s">
         <v>12</v>
       </c>
-      <c r="E108" t="s">
-        <v>79</v>
+      <c r="E108" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>17</v>
@@ -3587,16 +3589,16 @@
       <c r="D109" t="s">
         <v>12</v>
       </c>
-      <c r="E109" t="s">
-        <v>79</v>
+      <c r="E109" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>17</v>
@@ -3607,16 +3609,16 @@
       <c r="D110" t="s">
         <v>12</v>
       </c>
-      <c r="E110" t="s">
-        <v>79</v>
+      <c r="E110" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>17</v>
@@ -3627,16 +3629,16 @@
       <c r="D111" t="s">
         <v>12</v>
       </c>
-      <c r="E111" t="s">
-        <v>79</v>
+      <c r="E111" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>17</v>
@@ -3647,16 +3649,16 @@
       <c r="D112" t="s">
         <v>12</v>
       </c>
-      <c r="E112" t="s">
-        <v>79</v>
+      <c r="E112" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>17</v>
@@ -3667,16 +3669,16 @@
       <c r="D113" t="s">
         <v>12</v>
       </c>
-      <c r="E113" t="s">
-        <v>79</v>
+      <c r="E113" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>17</v>
@@ -3687,16 +3689,16 @@
       <c r="D114" t="s">
         <v>12</v>
       </c>
-      <c r="E114" t="s">
-        <v>79</v>
+      <c r="E114" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>17</v>
@@ -3707,16 +3709,16 @@
       <c r="D115" t="s">
         <v>12</v>
       </c>
-      <c r="E115" t="s">
-        <v>79</v>
+      <c r="E115" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>17</v>
@@ -3727,16 +3729,16 @@
       <c r="D116" t="s">
         <v>12</v>
       </c>
-      <c r="E116" t="s">
-        <v>79</v>
+      <c r="E116" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>17</v>
@@ -3747,16 +3749,16 @@
       <c r="D117" t="s">
         <v>12</v>
       </c>
-      <c r="E117" t="s">
-        <v>79</v>
+      <c r="E117" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>17</v>
@@ -3767,16 +3769,16 @@
       <c r="D118" t="s">
         <v>12</v>
       </c>
-      <c r="E118" t="s">
-        <v>79</v>
+      <c r="E118" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>17</v>
@@ -3787,16 +3789,16 @@
       <c r="D119" t="s">
         <v>12</v>
       </c>
-      <c r="E119" t="s">
-        <v>79</v>
+      <c r="E119" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>17</v>
@@ -3807,16 +3809,16 @@
       <c r="D120" t="s">
         <v>12</v>
       </c>
-      <c r="E120" t="s">
-        <v>79</v>
+      <c r="E120" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>17</v>
@@ -3827,16 +3829,16 @@
       <c r="D121" t="s">
         <v>12</v>
       </c>
-      <c r="E121" t="s">
-        <v>79</v>
+      <c r="E121" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>17</v>
@@ -3847,16 +3849,16 @@
       <c r="D122" t="s">
         <v>12</v>
       </c>
-      <c r="E122" t="s">
-        <v>79</v>
+      <c r="E122" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>17</v>
@@ -3867,16 +3869,16 @@
       <c r="D123" t="s">
         <v>12</v>
       </c>
-      <c r="E123" t="s">
-        <v>79</v>
+      <c r="E123" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>17</v>
@@ -3887,16 +3889,16 @@
       <c r="D124" t="s">
         <v>12</v>
       </c>
-      <c r="E124" t="s">
-        <v>276</v>
+      <c r="E124" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>17</v>
@@ -3907,16 +3909,16 @@
       <c r="D125" t="s">
         <v>12</v>
       </c>
-      <c r="E125" t="s">
-        <v>276</v>
+      <c r="E125" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>17</v>
@@ -3927,16 +3929,16 @@
       <c r="D126" t="s">
         <v>12</v>
       </c>
-      <c r="E126" t="s">
-        <v>276</v>
+      <c r="E126" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>17</v>
@@ -3947,16 +3949,16 @@
       <c r="D127" t="s">
         <v>12</v>
       </c>
-      <c r="E127" t="s">
-        <v>276</v>
+      <c r="E127" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>17</v>
@@ -3967,16 +3969,16 @@
       <c r="D128" t="s">
         <v>12</v>
       </c>
-      <c r="E128" t="s">
-        <v>79</v>
+      <c r="E128" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>17</v>
@@ -3987,16 +3989,16 @@
       <c r="D129" t="s">
         <v>12</v>
       </c>
-      <c r="E129" t="s">
-        <v>79</v>
+      <c r="E129" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>17</v>
@@ -4007,16 +4009,16 @@
       <c r="D130" t="s">
         <v>12</v>
       </c>
-      <c r="E130" t="s">
-        <v>79</v>
+      <c r="E130" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>17</v>
@@ -4027,16 +4029,16 @@
       <c r="D131" t="s">
         <v>12</v>
       </c>
-      <c r="E131" t="s">
-        <v>79</v>
+      <c r="E131" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>17</v>
@@ -4047,147 +4049,148 @@
       <c r="D132" t="s">
         <v>12</v>
       </c>
-      <c r="E132" t="s">
-        <v>79</v>
+      <c r="E132" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F21" r:id="rId18" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F55" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F58" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F78" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F79" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F80" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F81" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F82" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F83" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F87" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F88" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F89" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F90" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F91" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F92" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F100" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F101" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F102" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F103" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F104" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F105" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F106" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F107" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F108" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F109" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F110" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F111" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F112" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F128" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F129" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F130" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F131" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F50" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F124" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F125" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F126" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F127" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="F132" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="F51" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F34" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F35" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F36" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F37" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F38" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F39" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F40" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F41" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F42" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F101" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F106" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F37" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F2" r:id="rId15" display="Kony@123" xr:uid="{C8290296-74F1-47C4-B98A-4A9B0B69BDD6}"/>
+    <hyperlink ref="F3" r:id="rId16" display="Kony@123" xr:uid="{6985B5AA-B658-404F-B361-7C2A8AFEE179}"/>
+    <hyperlink ref="F4" r:id="rId17" display="Kony@123" xr:uid="{848A4FF3-1F9A-4975-8DC1-D68CAB635E07}"/>
+    <hyperlink ref="F5" r:id="rId18" display="Kony@123" xr:uid="{8B2A9D04-18F2-4FA0-8693-D70C03481F9D}"/>
+    <hyperlink ref="F6" r:id="rId19" display="Kony@123" xr:uid="{54197B00-336A-4660-B1DE-7ED27D90B5BF}"/>
+    <hyperlink ref="F7" r:id="rId20" display="Kony@123" xr:uid="{32261720-EACB-4B4E-8C75-E041A7F9D488}"/>
+    <hyperlink ref="F8" r:id="rId21" display="Kony@123" xr:uid="{7C51A3FC-D85B-49AC-A00A-F8D91B8EB9DC}"/>
+    <hyperlink ref="F9" r:id="rId22" display="Kony@123" xr:uid="{12A08FB1-DED1-4EC3-BECF-606C3E2778AF}"/>
+    <hyperlink ref="F10" r:id="rId23" display="Kony@123" xr:uid="{9BF11E09-87D7-49E4-88D0-6BA6B40BBDB2}"/>
+    <hyperlink ref="F11" r:id="rId24" display="Kony@123" xr:uid="{0B13BDA1-92A3-40B9-B600-C680436BCB46}"/>
+    <hyperlink ref="F12" r:id="rId25" display="Kony@123" xr:uid="{A4B2AA20-AE85-401E-A4AC-DA2C8B85C069}"/>
+    <hyperlink ref="F13" r:id="rId26" display="Kony@123" xr:uid="{E694F999-DB4A-4E16-877A-0197AA295A6A}"/>
+    <hyperlink ref="F14" r:id="rId27" display="Kony@123" xr:uid="{9BEF8D2A-97FD-4D7C-A4E5-98F01BF31502}"/>
+    <hyperlink ref="F15" r:id="rId28" display="Kony@123" xr:uid="{64F7CE5A-4CB1-4C67-9582-D17D5ED8E4FE}"/>
+    <hyperlink ref="F18" r:id="rId29" display="Kony@123" xr:uid="{72D49926-85B3-4C08-9510-37BFEB7B489B}"/>
+    <hyperlink ref="F19" r:id="rId30" display="Kony@123" xr:uid="{87866760-2DB7-4039-B9C4-E96B865E9395}"/>
+    <hyperlink ref="F21" r:id="rId31" display="Kony@123" xr:uid="{F0653554-2308-48C5-9404-CB9C6D8A6B0C}"/>
+    <hyperlink ref="F22" r:id="rId32" display="Kony@123" xr:uid="{DF2C3F7B-EB99-4939-B8C2-8139B4A0B6E5}"/>
+    <hyperlink ref="F23" r:id="rId33" display="Kony@123" xr:uid="{3C98B11D-26F3-4FF1-8696-87BC8FE432DE}"/>
+    <hyperlink ref="F24" r:id="rId34" display="Kony@123" xr:uid="{F50DD16B-F3EF-41E8-916F-71185B9FC64C}"/>
+    <hyperlink ref="F25" r:id="rId35" display="Kony@123" xr:uid="{B820EB0C-6373-4A55-ACDA-16C9426E2360}"/>
+    <hyperlink ref="F26" r:id="rId36" display="Kony@123" xr:uid="{7FE49DA8-FD83-4B46-BF77-2F18B4F36EF9}"/>
+    <hyperlink ref="F27" r:id="rId37" display="Kony@123" xr:uid="{63AD937C-79A8-4971-814E-42CAF285E6FD}"/>
+    <hyperlink ref="F28" r:id="rId38" display="Kony@123" xr:uid="{60968FFA-A588-4D1E-AC4F-954F10C56AF3}"/>
+    <hyperlink ref="F29" r:id="rId39" display="Kony@123" xr:uid="{B15B5200-1276-4AA8-89D7-43A9197D41AF}"/>
+    <hyperlink ref="F30" r:id="rId40" display="Kony@123" xr:uid="{57BBCCD0-13DB-43BB-B028-F36F8CC317CC}"/>
+    <hyperlink ref="F31" r:id="rId41" display="Kony@123" xr:uid="{23BC9856-CB23-48C2-B1FB-E36BFDF229CE}"/>
+    <hyperlink ref="F32" r:id="rId42" display="Kony@123" xr:uid="{1014470F-0051-4145-A480-6F738A91D1B0}"/>
+    <hyperlink ref="F33" r:id="rId43" display="Kony@123" xr:uid="{9563D07C-7B00-4285-A678-F0388C4AAC6C}"/>
+    <hyperlink ref="F43" r:id="rId44" display="Kony@123" xr:uid="{112CF6B3-0086-45DB-B506-305E30DD5F33}"/>
+    <hyperlink ref="F44" r:id="rId45" display="Kony@123" xr:uid="{A6FFE977-C3AC-449E-A3F1-35E8ECC18243}"/>
+    <hyperlink ref="F45" r:id="rId46" display="Kony@123" xr:uid="{20BFF49F-3D9E-4DA3-B0B4-3EDBB6DF93F1}"/>
+    <hyperlink ref="F46" r:id="rId47" display="Kony@123" xr:uid="{CD82CA82-782B-4594-AC15-19544D9F9C8B}"/>
+    <hyperlink ref="F47" r:id="rId48" display="Kony@123" xr:uid="{38A7D0DD-DE6E-4293-8E02-C74B6526F10B}"/>
+    <hyperlink ref="F48" r:id="rId49" display="Kony@123" xr:uid="{F21DF479-80D7-4875-A66D-72DA5E449D30}"/>
+    <hyperlink ref="F49" r:id="rId50" display="Kony@123" xr:uid="{C43106AF-CE48-4D4D-9F44-4B220B53DECE}"/>
+    <hyperlink ref="F50" r:id="rId51" display="Kony@123" xr:uid="{CA6EFCAE-911B-47E9-BF2E-DAA2209E7A71}"/>
+    <hyperlink ref="F51" r:id="rId52" display="Kony@123" xr:uid="{09570598-1CCC-470F-8A5E-6801A155BFF0}"/>
+    <hyperlink ref="F52" r:id="rId53" display="Kony@123" xr:uid="{38F26C89-EBE2-46F3-98BB-1A7378135234}"/>
+    <hyperlink ref="F53" r:id="rId54" display="Kony@123" xr:uid="{1686E96D-707F-4A18-ACA6-935646170B3D}"/>
+    <hyperlink ref="F54" r:id="rId55" display="Kony@123" xr:uid="{1619FB29-A79D-4E6B-B4A2-D956D14FAC45}"/>
+    <hyperlink ref="F55" r:id="rId56" display="Kony@123" xr:uid="{CE7CEF5D-E058-4C89-94D7-99A6CDE97CB3}"/>
+    <hyperlink ref="F56" r:id="rId57" display="Kony@123" xr:uid="{2EDE3577-F6A7-4F5B-AFB7-BC92AC6F59AF}"/>
+    <hyperlink ref="F57" r:id="rId58" display="Kony@123" xr:uid="{81F5DA1F-7FFF-4B4C-9928-6F3302B1E637}"/>
+    <hyperlink ref="F58" r:id="rId59" display="Kony@123" xr:uid="{73E4B230-6257-45E3-978D-06EBE2261946}"/>
+    <hyperlink ref="F59" r:id="rId60" display="Kony@123" xr:uid="{AC08AD28-BE28-49AD-B4D5-45164A26DEA5}"/>
+    <hyperlink ref="F60" r:id="rId61" display="Kony@123" xr:uid="{4AE8FEBB-3253-4FE4-AF78-DCC4AF8BD33C}"/>
+    <hyperlink ref="F61" r:id="rId62" display="Kony@123" xr:uid="{15218EE4-B510-40F6-B18B-2A01E2F3EC7E}"/>
+    <hyperlink ref="F62" r:id="rId63" display="Kony@123" xr:uid="{A249844A-EFD7-4C54-84B3-52CAB7B2E8E5}"/>
+    <hyperlink ref="F63" r:id="rId64" display="Kony@123" xr:uid="{1A963F5C-5948-4203-8AAD-2A5B688A7E3D}"/>
+    <hyperlink ref="F64" r:id="rId65" display="Kony@123" xr:uid="{72A376C6-204F-4076-9667-E94EB401CAA0}"/>
+    <hyperlink ref="F65" r:id="rId66" display="Kony@123" xr:uid="{3B0DFB31-690D-4922-BF6E-E1EA30C36A51}"/>
+    <hyperlink ref="F66" r:id="rId67" display="Kony@123" xr:uid="{57A0819C-2069-4906-BA64-16F8BA866D9D}"/>
+    <hyperlink ref="F67" r:id="rId68" display="Kony@123" xr:uid="{49690EA3-8504-4FDE-97F0-61DC470952BA}"/>
+    <hyperlink ref="F68" r:id="rId69" display="Kony@123" xr:uid="{EEBB06B6-9044-406C-A3A1-99B83FABCADC}"/>
+    <hyperlink ref="F69" r:id="rId70" display="Kony@123" xr:uid="{81B733E6-78EE-4E7B-8E2C-DF0B7107C340}"/>
+    <hyperlink ref="F70" r:id="rId71" display="Kony@123" xr:uid="{0082AC9D-7E42-43B9-9BC7-669DF312F639}"/>
+    <hyperlink ref="F71" r:id="rId72" display="Kony@123" xr:uid="{20E7F5E7-FD1D-4162-B621-BD95048B4766}"/>
+    <hyperlink ref="F72" r:id="rId73" display="Kony@123" xr:uid="{5C90467E-B95F-4FAF-9C90-0E68CC2FE2D3}"/>
+    <hyperlink ref="F73" r:id="rId74" display="Kony@123" xr:uid="{ABBCD72D-A485-4FD5-AE43-55DE7E771213}"/>
+    <hyperlink ref="F74" r:id="rId75" display="Kony@123" xr:uid="{154490DA-872A-4FF9-B2BE-E30515995EB3}"/>
+    <hyperlink ref="F75" r:id="rId76" display="Kony@123" xr:uid="{76BC609C-5D7E-4DE9-AFA9-B69B19DAF792}"/>
+    <hyperlink ref="F76" r:id="rId77" display="Kony@123" xr:uid="{45BB160F-B547-48E0-944F-E82BBD2014AA}"/>
+    <hyperlink ref="F77" r:id="rId78" display="Kony@123" xr:uid="{967ECF78-A7CE-47D3-8E74-BCBD8059EA58}"/>
+    <hyperlink ref="F78" r:id="rId79" display="Kony@123" xr:uid="{03E8D44D-7B7B-473C-972D-22B492AC0C27}"/>
+    <hyperlink ref="F79" r:id="rId80" display="Kony@123" xr:uid="{86026426-B2A1-4AD8-8DF6-D69A61A6E8AB}"/>
+    <hyperlink ref="F80" r:id="rId81" display="Kony@123" xr:uid="{923043A5-868E-48CC-88AA-37C72D4C492B}"/>
+    <hyperlink ref="F81" r:id="rId82" display="Kony@123" xr:uid="{5CD603BC-F856-4F58-AE54-2BA8049AC162}"/>
+    <hyperlink ref="F84" r:id="rId83" display="Kony@123" xr:uid="{514ECE2E-23FA-4E59-A8C9-D45D351CF8C4}"/>
+    <hyperlink ref="F85" r:id="rId84" display="Kony@123" xr:uid="{3E9898D1-01E9-4B42-A73F-FA5D49270409}"/>
+    <hyperlink ref="F86" r:id="rId85" display="Kony@123" xr:uid="{6C8A373E-4558-4549-B5CD-3092F837F805}"/>
+    <hyperlink ref="F89" r:id="rId86" display="Kony@123" xr:uid="{5368FA05-DE10-42A6-A357-B026967FDFC0}"/>
+    <hyperlink ref="F90" r:id="rId87" display="Kony@123" xr:uid="{E1573305-91A5-4A67-B827-21F0E01814D4}"/>
+    <hyperlink ref="F91" r:id="rId88" display="Kony@123" xr:uid="{EC5310D2-FE47-42C2-977E-73FDF3CEAC7F}"/>
+    <hyperlink ref="F92" r:id="rId89" display="Kony@123" xr:uid="{5C656A0E-C03F-46A5-9750-6448B7285932}"/>
+    <hyperlink ref="F96" r:id="rId90" display="Kony@123" xr:uid="{A98E7BB1-EEC6-456A-8058-3451A27FAC90}"/>
+    <hyperlink ref="F97" r:id="rId91" display="Kony@123" xr:uid="{E3228F97-3584-4DD5-ABD2-07E68F45C80C}"/>
+    <hyperlink ref="F98" r:id="rId92" display="Kony@123" xr:uid="{6DDF2FDE-838E-4322-8C71-F3918E530CF4}"/>
+    <hyperlink ref="F99" r:id="rId93" display="Kony@123" xr:uid="{D44CA776-25FA-44A0-95CB-A5EEF1FBF3C4}"/>
+    <hyperlink ref="F100" r:id="rId94" display="Kony@123" xr:uid="{B2523F64-9756-4607-B11E-1EB609E3938F}"/>
+    <hyperlink ref="F107" r:id="rId95" display="Kony@123" xr:uid="{1B50E80F-8635-4A37-A1B8-3EFE3126D967}"/>
+    <hyperlink ref="F108" r:id="rId96" display="Kony@123" xr:uid="{C59DFF30-5C77-41E6-AC81-0C18878AC7EA}"/>
+    <hyperlink ref="F109" r:id="rId97" display="Kony@123" xr:uid="{7A5D2A42-6072-4896-9F1E-31050D9437A9}"/>
+    <hyperlink ref="F110" r:id="rId98" display="Kony@123" xr:uid="{FA658073-1F5D-4D06-92E0-380D3101CCF6}"/>
+    <hyperlink ref="F111" r:id="rId99" display="Kony@123" xr:uid="{48C8A18E-E47D-4041-9989-7071F15DA0EC}"/>
+    <hyperlink ref="F112" r:id="rId100" display="Kony@123" xr:uid="{3A0583A7-FF13-45FD-9088-EFF63FFCBCD7}"/>
+    <hyperlink ref="F113" r:id="rId101" display="Kony@123" xr:uid="{21BDCC0D-E577-4717-9003-92D0D27274D4}"/>
+    <hyperlink ref="F114" r:id="rId102" display="Kony@123" xr:uid="{E7E2F38C-536F-473A-B8DD-5C8528E5FE37}"/>
+    <hyperlink ref="F115" r:id="rId103" display="Kony@123" xr:uid="{C2E080EC-EE6D-4EBC-B2BE-24781ADB0442}"/>
+    <hyperlink ref="F116" r:id="rId104" display="Kony@123" xr:uid="{3187464A-9470-4D02-9F1E-52C4C055ECF2}"/>
+    <hyperlink ref="F117" r:id="rId105" display="Kony@123" xr:uid="{159DA2BB-A519-4242-B0EA-1C609977B49C}"/>
+    <hyperlink ref="F118" r:id="rId106" display="Kony@123" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
+    <hyperlink ref="F119" r:id="rId107" display="Kony@123" xr:uid="{31B94F7C-1214-4F06-BF23-C50F49679A20}"/>
+    <hyperlink ref="F120" r:id="rId108" display="Kony@123" xr:uid="{3BE685BC-E79E-4D92-B932-EAF4EACAC356}"/>
+    <hyperlink ref="F121" r:id="rId109" display="Kony@123" xr:uid="{E32DB1B7-A3E9-4CE2-9B76-432AD9C6A165}"/>
+    <hyperlink ref="F122" r:id="rId110" display="Kony@123" xr:uid="{F4F85C7F-8CF5-4546-A8BE-4ABB56B6C27E}"/>
+    <hyperlink ref="F123" r:id="rId111" display="Kony@123" xr:uid="{17F58A17-F652-4FE7-A79C-4C582CE9E1EE}"/>
+    <hyperlink ref="F128" r:id="rId112" display="Kony@123" xr:uid="{170A913B-DD8E-42D1-BE29-4560950D3879}"/>
+    <hyperlink ref="F129" r:id="rId113" display="Kony@123" xr:uid="{F4B90F07-77BB-46A1-9696-53FA14BE033C}"/>
+    <hyperlink ref="F130" r:id="rId114" display="Kony@123" xr:uid="{782935E3-2C87-43AE-B37F-D81167DC6C56}"/>
+    <hyperlink ref="F131" r:id="rId115" display="Kony@123" xr:uid="{46EFFD81-5FAA-4270-91E5-E92AB19C13B8}"/>
+    <hyperlink ref="F132" r:id="rId116" display="Kony@123" xr:uid="{821C6BBE-7174-4880-86C5-57EB4864C07D}"/>
+    <hyperlink ref="F102" r:id="rId117" xr:uid="{4FC8F3C8-F05F-4087-87EE-11228151F75C}"/>
+    <hyperlink ref="F103" r:id="rId118" xr:uid="{EE6CA904-C919-419A-AD19-349869B95643}"/>
+    <hyperlink ref="F104" r:id="rId119" xr:uid="{A6980C23-F3B5-405B-88CA-DDED3E3953A6}"/>
+    <hyperlink ref="F105" r:id="rId120" xr:uid="{F16412BF-08B4-4A7C-9458-742ADBC51683}"/>
+    <hyperlink ref="F95" r:id="rId121" xr:uid="{2A36A62C-A1FC-4C05-8FCB-186013543287}"/>
+    <hyperlink ref="F93" r:id="rId122" xr:uid="{645750B4-482A-4D9B-B669-CED399B225D5}"/>
+    <hyperlink ref="F87" r:id="rId123" xr:uid="{A2400790-F78C-46C0-88D3-BDA7AD005E2D}"/>
+    <hyperlink ref="F88" r:id="rId124" xr:uid="{96BC7771-486E-4B34-99C1-D1BC03774B79}"/>
+    <hyperlink ref="F83" r:id="rId125" xr:uid="{992B7C17-9EFF-4783-BC97-23668AD262D0}"/>
+    <hyperlink ref="F124:F127" r:id="rId126" display="Kony@123" xr:uid="{609C902F-A8C4-4418-9AF6-A380CE4B9CB4}"/>
+    <hyperlink ref="F124" r:id="rId127" display="Kony@123" xr:uid="{5DBC08E0-01B2-417C-A59F-7C35CAF06534}"/>
+    <hyperlink ref="F125" r:id="rId128" display="Kony@123" xr:uid="{02499E77-EEE7-498B-AEC7-3709A2710756}"/>
+    <hyperlink ref="F126" r:id="rId129" display="Kony@123" xr:uid="{7D0F5AFC-3C66-49BE-A373-A74A3D84BA98}"/>
+    <hyperlink ref="F127" r:id="rId130" display="Kony@123" xr:uid="{2A8D54D2-DD8F-486C-9FF6-0A0567080352}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId130"/>
+  <pageSetup orientation="portrait" r:id="rId131"/>
 </worksheet>
 </file>
 
@@ -4195,16 +4198,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
@@ -4240,25 +4243,25 @@
         <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4307,35 +4310,35 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -4345,7 +4348,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4363,12 +4366,12 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
@@ -4377,15 +4380,15 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
@@ -4395,12 +4398,12 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
@@ -4410,15 +4413,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -4427,18 +4430,18 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -4448,15 +4451,15 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -4465,12 +4468,12 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -4478,411 +4481,411 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
         <v>109</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" t="s">
-        <v>191</v>
-      </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" t="s">
         <v>219</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
         <v>220</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" t="s">
         <v>226</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" t="s">
         <v>227</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
         <v>316</v>
       </c>
-      <c r="L36" t="s">
-        <v>320</v>
-      </c>
       <c r="M36" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J37" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4899,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,171 +4918,180 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>186</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" t="s">
-        <v>291</v>
+      <c r="G8" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,10 +5109,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H5" r:id="rId2" display="Kony@123" xr:uid="{FAFC8C47-05E1-4C5E-8F41-BE8F346CAB9A}"/>
+    <hyperlink ref="H6" r:id="rId3" display="Kony@123" xr:uid="{9EE8056A-AEBC-48DC-B153-AFBF5EFC0A39}"/>
+    <hyperlink ref="H7" r:id="rId4" display="Kony@123" xr:uid="{EBA55935-094D-45EA-8CD4-0720D5439F75}"/>
+    <hyperlink ref="H8" r:id="rId5" display="Kony@123" xr:uid="{3EF8C29D-D7F8-4190-AAAE-C947DD1C2DF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5129,58 +5141,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5216,112 +5228,112 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5378,154 +5390,154 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2"/>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="L8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5556,118 +5568,118 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
         <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5700,286 +5712,286 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
       <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="C5" t="s">
-        <v>127</v>
-      </c>
       <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
         <v>130</v>
       </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" t="s">
         <v>157</v>
-      </c>
-      <c r="K6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
         <v>130</v>
       </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
         <v>130</v>
       </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
         <v>130</v>
       </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
@@ -5989,129 +6001,129 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>196</v>
-      </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
         <v>157</v>
-      </c>
-      <c r="K15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6150,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -6161,10 +6173,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BA61FB-B761-4802-A281-FEB8907F5499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052FF7E-BC73-43A2-83E5-C89975016A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="325">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>-1403410</t>
+  </si>
+  <si>
+    <t>1st day of the month</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118:F118"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,7 +4166,7 @@
     <hyperlink ref="F115" r:id="rId103" display="Kony@123" xr:uid="{C2E080EC-EE6D-4EBC-B2BE-24781ADB0442}"/>
     <hyperlink ref="F116" r:id="rId104" display="Kony@123" xr:uid="{3187464A-9470-4D02-9F1E-52C4C055ECF2}"/>
     <hyperlink ref="F117" r:id="rId105" display="Kony@123" xr:uid="{159DA2BB-A519-4242-B0EA-1C609977B49C}"/>
-    <hyperlink ref="F118" r:id="rId106" display="Kony@123" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
+    <hyperlink ref="F118" r:id="rId106" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
     <hyperlink ref="F119" r:id="rId107" display="Kony@123" xr:uid="{31B94F7C-1214-4F06-BF23-C50F49679A20}"/>
     <hyperlink ref="F120" r:id="rId108" display="Kony@123" xr:uid="{3BE685BC-E79E-4D92-B932-EAF4EACAC356}"/>
     <hyperlink ref="F121" r:id="rId109" display="Kony@123" xr:uid="{E32DB1B7-A3E9-4CE2-9B76-432AD9C6A165}"/>
@@ -4198,9 +4201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,7 +4213,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
@@ -4326,7 +4329,7 @@
         <v>268</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -4416,7 +4419,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052FF7E-BC73-43A2-83E5-C89975016A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088EC0F7-9969-4515-B529-65C50D0A80DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="328">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -178,9 +178,6 @@
     <t>C23408_VerifyRepeatForeverCheckBox</t>
   </si>
   <si>
-    <t>1st of the month</t>
-  </si>
-  <si>
     <t>Repeat Forever</t>
   </si>
   <si>
@@ -580,12 +577,6 @@
     <t>C23500_VerifyMakeMortageLoanPayment</t>
   </si>
   <si>
-    <t>927878595</t>
-  </si>
-  <si>
-    <t>2445058</t>
-  </si>
-  <si>
     <t>C23505_VerifyAlertEdit</t>
   </si>
   <si>
@@ -598,9 +589,6 @@
     <t>Kony@1234</t>
   </si>
   <si>
-    <t>-2445</t>
-  </si>
-  <si>
     <t>consumer loan</t>
   </si>
   <si>
@@ -682,9 +670,6 @@
     <t>C23642_VerifyActivityCenterTransactionDetails</t>
   </si>
   <si>
-    <t>70024450</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -763,9 +748,6 @@
     <t>C23669_VerifyActivityCenterTransactionFilteringWithTransactionID</t>
   </si>
   <si>
-    <t>8413626</t>
-  </si>
-  <si>
     <t>C23509_VerifyMoreInfoAboutCompany</t>
   </si>
   <si>
@@ -913,18 +895,6 @@
     <t>KEL</t>
   </si>
   <si>
-    <t>20159539</t>
-  </si>
-  <si>
-    <t>2015953066</t>
-  </si>
-  <si>
-    <t>-2015953</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>C24234_VerifyChangeMyAddressOptionUnderSettings</t>
   </si>
   <si>
@@ -1016,6 +986,45 @@
   </si>
   <si>
     <t>1st day of the month</t>
+  </si>
+  <si>
+    <t>16471628</t>
+  </si>
+  <si>
+    <t>20464178</t>
+  </si>
+  <si>
+    <t>GUE</t>
+  </si>
+  <si>
+    <t>2028749100</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>-42471</t>
+  </si>
+  <si>
+    <t>20333043</t>
+  </si>
+  <si>
+    <t>926055682</t>
+  </si>
+  <si>
+    <t>user2028749</t>
+  </si>
+  <si>
+    <t>2028749601</t>
+  </si>
+  <si>
+    <t>-12813</t>
+  </si>
+  <si>
+    <t>12813100</t>
+  </si>
+  <si>
+    <t>12813055</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView topLeftCell="A71" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,10 +1494,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1545,10 +1554,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,15 +1574,15 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>17</v>
@@ -1585,15 +1594,15 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -1605,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,10 +1634,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,15 +1654,15 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
@@ -1665,10 +1674,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,10 +1694,10 @@
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,10 +1714,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,10 +1734,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,10 +1842,10 @@
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,10 +1862,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,15 +1882,15 @@
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>17</v>
@@ -1893,15 +1902,15 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>17</v>
@@ -1913,15 +1922,15 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>17</v>
@@ -1933,15 +1942,15 @@
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
@@ -1953,15 +1962,15 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>17</v>
@@ -1973,15 +1982,15 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>17</v>
@@ -1993,15 +2002,15 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>17</v>
@@ -2013,15 +2022,15 @@
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>17</v>
@@ -2033,15 +2042,15 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>17</v>
@@ -2053,15 +2062,15 @@
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>17</v>
@@ -2073,15 +2082,15 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>17</v>
@@ -2093,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2101,7 +2110,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>17</v>
@@ -2113,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2121,7 +2130,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>17</v>
@@ -2133,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2141,19 +2150,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>301</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>311</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2161,7 +2170,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>17</v>
@@ -2173,7 +2182,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2181,7 +2190,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>17</v>
@@ -2193,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2201,7 +2210,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>17</v>
@@ -2213,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2221,7 +2230,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>17</v>
@@ -2233,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
@@ -2241,7 +2250,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>17</v>
@@ -2253,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -2261,7 +2270,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>17</v>
@@ -2273,15 +2282,15 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>17</v>
@@ -2293,15 +2302,15 @@
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>17</v>
@@ -2313,15 +2322,15 @@
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>17</v>
@@ -2333,15 +2342,15 @@
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>17</v>
@@ -2353,15 +2362,15 @@
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>17</v>
@@ -2373,15 +2382,15 @@
         <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>17</v>
@@ -2393,15 +2402,15 @@
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>17</v>
@@ -2413,15 +2422,15 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>17</v>
@@ -2433,15 +2442,15 @@
         <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>17</v>
@@ -2453,15 +2462,15 @@
         <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>17</v>
@@ -2473,15 +2482,15 @@
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>17</v>
@@ -2493,15 +2502,15 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>17</v>
@@ -2513,15 +2522,15 @@
         <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
@@ -2533,15 +2542,15 @@
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
@@ -2553,15 +2562,15 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>17</v>
@@ -2573,15 +2582,15 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>17</v>
@@ -2593,15 +2602,15 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>17</v>
@@ -2613,15 +2622,15 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>17</v>
@@ -2633,15 +2642,15 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>17</v>
@@ -2653,15 +2662,15 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>17</v>
@@ -2673,15 +2682,15 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>17</v>
@@ -2693,15 +2702,15 @@
         <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>17</v>
@@ -2713,15 +2722,15 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>17</v>
@@ -2733,15 +2742,15 @@
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>17</v>
@@ -2753,15 +2762,15 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>17</v>
@@ -2773,15 +2782,15 @@
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>17</v>
@@ -2793,15 +2802,15 @@
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>17</v>
@@ -2813,15 +2822,15 @@
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>17</v>
@@ -2833,15 +2842,15 @@
         <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>17</v>
@@ -2853,15 +2862,15 @@
         <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>17</v>
@@ -2873,15 +2882,15 @@
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>17</v>
@@ -2893,15 +2902,15 @@
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>17</v>
@@ -2913,15 +2922,15 @@
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>17</v>
@@ -2933,15 +2942,15 @@
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>17</v>
@@ -2953,15 +2962,15 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>17</v>
@@ -2973,15 +2982,15 @@
         <v>12</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>17</v>
@@ -2993,15 +3002,15 @@
         <v>12</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>17</v>
@@ -3013,15 +3022,15 @@
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>17</v>
@@ -3033,15 +3042,15 @@
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>17</v>
@@ -3053,15 +3062,15 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>17</v>
@@ -3073,15 +3082,15 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>17</v>
@@ -3093,15 +3102,15 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>17</v>
@@ -3113,15 +3122,15 @@
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>17</v>
@@ -3133,15 +3142,15 @@
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>17</v>
@@ -3153,15 +3162,15 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>17</v>
@@ -3173,15 +3182,15 @@
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>17</v>
@@ -3193,15 +3202,15 @@
         <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>17</v>
@@ -3213,15 +3222,15 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>17</v>
@@ -3233,15 +3242,15 @@
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>17</v>
@@ -3253,15 +3262,15 @@
         <v>12</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>17</v>
@@ -3273,15 +3282,15 @@
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>17</v>
@@ -3293,15 +3302,15 @@
         <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>17</v>
@@ -3313,15 +3322,15 @@
         <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>17</v>
@@ -3333,15 +3342,15 @@
         <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>17</v>
@@ -3353,15 +3362,15 @@
         <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>17</v>
@@ -3373,15 +3382,15 @@
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>17</v>
@@ -3393,15 +3402,15 @@
         <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>17</v>
@@ -3413,15 +3422,15 @@
         <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>17</v>
@@ -3433,15 +3442,15 @@
         <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>17</v>
@@ -3453,15 +3462,15 @@
         <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>17</v>
@@ -3473,15 +3482,15 @@
         <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>17</v>
@@ -3493,15 +3502,15 @@
         <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>17</v>
@@ -3513,15 +3522,15 @@
         <v>12</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>17</v>
@@ -3533,15 +3542,15 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>17</v>
@@ -3553,15 +3562,15 @@
         <v>12</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>17</v>
@@ -3573,15 +3582,15 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>17</v>
@@ -3593,15 +3602,15 @@
         <v>12</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>17</v>
@@ -3613,15 +3622,15 @@
         <v>12</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>17</v>
@@ -3633,15 +3642,15 @@
         <v>12</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>17</v>
@@ -3653,15 +3662,15 @@
         <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>17</v>
@@ -3673,15 +3682,15 @@
         <v>12</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>17</v>
@@ -3693,15 +3702,15 @@
         <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>17</v>
@@ -3713,15 +3722,15 @@
         <v>12</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>17</v>
@@ -3733,15 +3742,15 @@
         <v>12</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>17</v>
@@ -3753,15 +3762,15 @@
         <v>12</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>17</v>
@@ -3773,15 +3782,15 @@
         <v>12</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>17</v>
@@ -3793,15 +3802,15 @@
         <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>17</v>
@@ -3813,15 +3822,15 @@
         <v>12</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>17</v>
@@ -3833,15 +3842,15 @@
         <v>12</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>17</v>
@@ -3853,15 +3862,15 @@
         <v>12</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>17</v>
@@ -3873,15 +3882,15 @@
         <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>17</v>
@@ -3893,15 +3902,15 @@
         <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>17</v>
@@ -3913,15 +3922,15 @@
         <v>12</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>17</v>
@@ -3933,15 +3942,15 @@
         <v>12</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>17</v>
@@ -3953,15 +3962,15 @@
         <v>12</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>17</v>
@@ -3973,15 +3982,15 @@
         <v>12</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>17</v>
@@ -3993,15 +4002,15 @@
         <v>12</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>17</v>
@@ -4013,15 +4022,15 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>17</v>
@@ -4033,15 +4042,15 @@
         <v>12</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>17</v>
@@ -4053,144 +4062,144 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F101" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F106" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F34" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F36" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F37" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F2" r:id="rId15" display="Kony@123" xr:uid="{C8290296-74F1-47C4-B98A-4A9B0B69BDD6}"/>
-    <hyperlink ref="F3" r:id="rId16" display="Kony@123" xr:uid="{6985B5AA-B658-404F-B361-7C2A8AFEE179}"/>
-    <hyperlink ref="F4" r:id="rId17" display="Kony@123" xr:uid="{848A4FF3-1F9A-4975-8DC1-D68CAB635E07}"/>
-    <hyperlink ref="F5" r:id="rId18" display="Kony@123" xr:uid="{8B2A9D04-18F2-4FA0-8693-D70C03481F9D}"/>
-    <hyperlink ref="F6" r:id="rId19" display="Kony@123" xr:uid="{54197B00-336A-4660-B1DE-7ED27D90B5BF}"/>
-    <hyperlink ref="F7" r:id="rId20" display="Kony@123" xr:uid="{32261720-EACB-4B4E-8C75-E041A7F9D488}"/>
-    <hyperlink ref="F8" r:id="rId21" display="Kony@123" xr:uid="{7C51A3FC-D85B-49AC-A00A-F8D91B8EB9DC}"/>
-    <hyperlink ref="F9" r:id="rId22" display="Kony@123" xr:uid="{12A08FB1-DED1-4EC3-BECF-606C3E2778AF}"/>
-    <hyperlink ref="F10" r:id="rId23" display="Kony@123" xr:uid="{9BF11E09-87D7-49E4-88D0-6BA6B40BBDB2}"/>
-    <hyperlink ref="F11" r:id="rId24" display="Kony@123" xr:uid="{0B13BDA1-92A3-40B9-B600-C680436BCB46}"/>
-    <hyperlink ref="F12" r:id="rId25" display="Kony@123" xr:uid="{A4B2AA20-AE85-401E-A4AC-DA2C8B85C069}"/>
-    <hyperlink ref="F13" r:id="rId26" display="Kony@123" xr:uid="{E694F999-DB4A-4E16-877A-0197AA295A6A}"/>
-    <hyperlink ref="F14" r:id="rId27" display="Kony@123" xr:uid="{9BEF8D2A-97FD-4D7C-A4E5-98F01BF31502}"/>
-    <hyperlink ref="F15" r:id="rId28" display="Kony@123" xr:uid="{64F7CE5A-4CB1-4C67-9582-D17D5ED8E4FE}"/>
-    <hyperlink ref="F18" r:id="rId29" display="Kony@123" xr:uid="{72D49926-85B3-4C08-9510-37BFEB7B489B}"/>
-    <hyperlink ref="F19" r:id="rId30" display="Kony@123" xr:uid="{87866760-2DB7-4039-B9C4-E96B865E9395}"/>
-    <hyperlink ref="F21" r:id="rId31" display="Kony@123" xr:uid="{F0653554-2308-48C5-9404-CB9C6D8A6B0C}"/>
-    <hyperlink ref="F22" r:id="rId32" display="Kony@123" xr:uid="{DF2C3F7B-EB99-4939-B8C2-8139B4A0B6E5}"/>
-    <hyperlink ref="F23" r:id="rId33" display="Kony@123" xr:uid="{3C98B11D-26F3-4FF1-8696-87BC8FE432DE}"/>
-    <hyperlink ref="F24" r:id="rId34" display="Kony@123" xr:uid="{F50DD16B-F3EF-41E8-916F-71185B9FC64C}"/>
-    <hyperlink ref="F25" r:id="rId35" display="Kony@123" xr:uid="{B820EB0C-6373-4A55-ACDA-16C9426E2360}"/>
-    <hyperlink ref="F26" r:id="rId36" display="Kony@123" xr:uid="{7FE49DA8-FD83-4B46-BF77-2F18B4F36EF9}"/>
-    <hyperlink ref="F27" r:id="rId37" display="Kony@123" xr:uid="{63AD937C-79A8-4971-814E-42CAF285E6FD}"/>
-    <hyperlink ref="F28" r:id="rId38" display="Kony@123" xr:uid="{60968FFA-A588-4D1E-AC4F-954F10C56AF3}"/>
-    <hyperlink ref="F29" r:id="rId39" display="Kony@123" xr:uid="{B15B5200-1276-4AA8-89D7-43A9197D41AF}"/>
-    <hyperlink ref="F30" r:id="rId40" display="Kony@123" xr:uid="{57BBCCD0-13DB-43BB-B028-F36F8CC317CC}"/>
-    <hyperlink ref="F31" r:id="rId41" display="Kony@123" xr:uid="{23BC9856-CB23-48C2-B1FB-E36BFDF229CE}"/>
-    <hyperlink ref="F32" r:id="rId42" display="Kony@123" xr:uid="{1014470F-0051-4145-A480-6F738A91D1B0}"/>
-    <hyperlink ref="F33" r:id="rId43" display="Kony@123" xr:uid="{9563D07C-7B00-4285-A678-F0388C4AAC6C}"/>
-    <hyperlink ref="F43" r:id="rId44" display="Kony@123" xr:uid="{112CF6B3-0086-45DB-B506-305E30DD5F33}"/>
-    <hyperlink ref="F44" r:id="rId45" display="Kony@123" xr:uid="{A6FFE977-C3AC-449E-A3F1-35E8ECC18243}"/>
-    <hyperlink ref="F45" r:id="rId46" display="Kony@123" xr:uid="{20BFF49F-3D9E-4DA3-B0B4-3EDBB6DF93F1}"/>
-    <hyperlink ref="F46" r:id="rId47" display="Kony@123" xr:uid="{CD82CA82-782B-4594-AC15-19544D9F9C8B}"/>
-    <hyperlink ref="F47" r:id="rId48" display="Kony@123" xr:uid="{38A7D0DD-DE6E-4293-8E02-C74B6526F10B}"/>
-    <hyperlink ref="F48" r:id="rId49" display="Kony@123" xr:uid="{F21DF479-80D7-4875-A66D-72DA5E449D30}"/>
-    <hyperlink ref="F49" r:id="rId50" display="Kony@123" xr:uid="{C43106AF-CE48-4D4D-9F44-4B220B53DECE}"/>
-    <hyperlink ref="F50" r:id="rId51" display="Kony@123" xr:uid="{CA6EFCAE-911B-47E9-BF2E-DAA2209E7A71}"/>
-    <hyperlink ref="F51" r:id="rId52" display="Kony@123" xr:uid="{09570598-1CCC-470F-8A5E-6801A155BFF0}"/>
-    <hyperlink ref="F52" r:id="rId53" display="Kony@123" xr:uid="{38F26C89-EBE2-46F3-98BB-1A7378135234}"/>
-    <hyperlink ref="F53" r:id="rId54" display="Kony@123" xr:uid="{1686E96D-707F-4A18-ACA6-935646170B3D}"/>
-    <hyperlink ref="F54" r:id="rId55" display="Kony@123" xr:uid="{1619FB29-A79D-4E6B-B4A2-D956D14FAC45}"/>
-    <hyperlink ref="F55" r:id="rId56" display="Kony@123" xr:uid="{CE7CEF5D-E058-4C89-94D7-99A6CDE97CB3}"/>
-    <hyperlink ref="F56" r:id="rId57" display="Kony@123" xr:uid="{2EDE3577-F6A7-4F5B-AFB7-BC92AC6F59AF}"/>
-    <hyperlink ref="F57" r:id="rId58" display="Kony@123" xr:uid="{81F5DA1F-7FFF-4B4C-9928-6F3302B1E637}"/>
-    <hyperlink ref="F58" r:id="rId59" display="Kony@123" xr:uid="{73E4B230-6257-45E3-978D-06EBE2261946}"/>
-    <hyperlink ref="F59" r:id="rId60" display="Kony@123" xr:uid="{AC08AD28-BE28-49AD-B4D5-45164A26DEA5}"/>
-    <hyperlink ref="F60" r:id="rId61" display="Kony@123" xr:uid="{4AE8FEBB-3253-4FE4-AF78-DCC4AF8BD33C}"/>
-    <hyperlink ref="F61" r:id="rId62" display="Kony@123" xr:uid="{15218EE4-B510-40F6-B18B-2A01E2F3EC7E}"/>
-    <hyperlink ref="F62" r:id="rId63" display="Kony@123" xr:uid="{A249844A-EFD7-4C54-84B3-52CAB7B2E8E5}"/>
-    <hyperlink ref="F63" r:id="rId64" display="Kony@123" xr:uid="{1A963F5C-5948-4203-8AAD-2A5B688A7E3D}"/>
-    <hyperlink ref="F64" r:id="rId65" display="Kony@123" xr:uid="{72A376C6-204F-4076-9667-E94EB401CAA0}"/>
-    <hyperlink ref="F65" r:id="rId66" display="Kony@123" xr:uid="{3B0DFB31-690D-4922-BF6E-E1EA30C36A51}"/>
-    <hyperlink ref="F66" r:id="rId67" display="Kony@123" xr:uid="{57A0819C-2069-4906-BA64-16F8BA866D9D}"/>
-    <hyperlink ref="F67" r:id="rId68" display="Kony@123" xr:uid="{49690EA3-8504-4FDE-97F0-61DC470952BA}"/>
-    <hyperlink ref="F68" r:id="rId69" display="Kony@123" xr:uid="{EEBB06B6-9044-406C-A3A1-99B83FABCADC}"/>
-    <hyperlink ref="F69" r:id="rId70" display="Kony@123" xr:uid="{81B733E6-78EE-4E7B-8E2C-DF0B7107C340}"/>
-    <hyperlink ref="F70" r:id="rId71" display="Kony@123" xr:uid="{0082AC9D-7E42-43B9-9BC7-669DF312F639}"/>
-    <hyperlink ref="F71" r:id="rId72" display="Kony@123" xr:uid="{20E7F5E7-FD1D-4162-B621-BD95048B4766}"/>
-    <hyperlink ref="F72" r:id="rId73" display="Kony@123" xr:uid="{5C90467E-B95F-4FAF-9C90-0E68CC2FE2D3}"/>
-    <hyperlink ref="F73" r:id="rId74" display="Kony@123" xr:uid="{ABBCD72D-A485-4FD5-AE43-55DE7E771213}"/>
-    <hyperlink ref="F74" r:id="rId75" display="Kony@123" xr:uid="{154490DA-872A-4FF9-B2BE-E30515995EB3}"/>
-    <hyperlink ref="F75" r:id="rId76" display="Kony@123" xr:uid="{76BC609C-5D7E-4DE9-AFA9-B69B19DAF792}"/>
-    <hyperlink ref="F76" r:id="rId77" display="Kony@123" xr:uid="{45BB160F-B547-48E0-944F-E82BBD2014AA}"/>
-    <hyperlink ref="F77" r:id="rId78" display="Kony@123" xr:uid="{967ECF78-A7CE-47D3-8E74-BCBD8059EA58}"/>
-    <hyperlink ref="F78" r:id="rId79" display="Kony@123" xr:uid="{03E8D44D-7B7B-473C-972D-22B492AC0C27}"/>
-    <hyperlink ref="F79" r:id="rId80" display="Kony@123" xr:uid="{86026426-B2A1-4AD8-8DF6-D69A61A6E8AB}"/>
-    <hyperlink ref="F80" r:id="rId81" display="Kony@123" xr:uid="{923043A5-868E-48CC-88AA-37C72D4C492B}"/>
-    <hyperlink ref="F81" r:id="rId82" display="Kony@123" xr:uid="{5CD603BC-F856-4F58-AE54-2BA8049AC162}"/>
-    <hyperlink ref="F84" r:id="rId83" display="Kony@123" xr:uid="{514ECE2E-23FA-4E59-A8C9-D45D351CF8C4}"/>
-    <hyperlink ref="F85" r:id="rId84" display="Kony@123" xr:uid="{3E9898D1-01E9-4B42-A73F-FA5D49270409}"/>
-    <hyperlink ref="F86" r:id="rId85" display="Kony@123" xr:uid="{6C8A373E-4558-4549-B5CD-3092F837F805}"/>
-    <hyperlink ref="F89" r:id="rId86" display="Kony@123" xr:uid="{5368FA05-DE10-42A6-A357-B026967FDFC0}"/>
-    <hyperlink ref="F90" r:id="rId87" display="Kony@123" xr:uid="{E1573305-91A5-4A67-B827-21F0E01814D4}"/>
-    <hyperlink ref="F91" r:id="rId88" display="Kony@123" xr:uid="{EC5310D2-FE47-42C2-977E-73FDF3CEAC7F}"/>
-    <hyperlink ref="F92" r:id="rId89" display="Kony@123" xr:uid="{5C656A0E-C03F-46A5-9750-6448B7285932}"/>
-    <hyperlink ref="F96" r:id="rId90" display="Kony@123" xr:uid="{A98E7BB1-EEC6-456A-8058-3451A27FAC90}"/>
-    <hyperlink ref="F97" r:id="rId91" display="Kony@123" xr:uid="{E3228F97-3584-4DD5-ABD2-07E68F45C80C}"/>
-    <hyperlink ref="F98" r:id="rId92" display="Kony@123" xr:uid="{6DDF2FDE-838E-4322-8C71-F3918E530CF4}"/>
-    <hyperlink ref="F99" r:id="rId93" display="Kony@123" xr:uid="{D44CA776-25FA-44A0-95CB-A5EEF1FBF3C4}"/>
-    <hyperlink ref="F100" r:id="rId94" display="Kony@123" xr:uid="{B2523F64-9756-4607-B11E-1EB609E3938F}"/>
-    <hyperlink ref="F107" r:id="rId95" display="Kony@123" xr:uid="{1B50E80F-8635-4A37-A1B8-3EFE3126D967}"/>
-    <hyperlink ref="F108" r:id="rId96" display="Kony@123" xr:uid="{C59DFF30-5C77-41E6-AC81-0C18878AC7EA}"/>
-    <hyperlink ref="F109" r:id="rId97" display="Kony@123" xr:uid="{7A5D2A42-6072-4896-9F1E-31050D9437A9}"/>
-    <hyperlink ref="F110" r:id="rId98" display="Kony@123" xr:uid="{FA658073-1F5D-4D06-92E0-380D3101CCF6}"/>
-    <hyperlink ref="F111" r:id="rId99" display="Kony@123" xr:uid="{48C8A18E-E47D-4041-9989-7071F15DA0EC}"/>
-    <hyperlink ref="F112" r:id="rId100" display="Kony@123" xr:uid="{3A0583A7-FF13-45FD-9088-EFF63FFCBCD7}"/>
-    <hyperlink ref="F113" r:id="rId101" display="Kony@123" xr:uid="{21BDCC0D-E577-4717-9003-92D0D27274D4}"/>
-    <hyperlink ref="F114" r:id="rId102" display="Kony@123" xr:uid="{E7E2F38C-536F-473A-B8DD-5C8528E5FE37}"/>
-    <hyperlink ref="F115" r:id="rId103" display="Kony@123" xr:uid="{C2E080EC-EE6D-4EBC-B2BE-24781ADB0442}"/>
-    <hyperlink ref="F116" r:id="rId104" display="Kony@123" xr:uid="{3187464A-9470-4D02-9F1E-52C4C055ECF2}"/>
-    <hyperlink ref="F117" r:id="rId105" display="Kony@123" xr:uid="{159DA2BB-A519-4242-B0EA-1C609977B49C}"/>
-    <hyperlink ref="F118" r:id="rId106" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
-    <hyperlink ref="F119" r:id="rId107" display="Kony@123" xr:uid="{31B94F7C-1214-4F06-BF23-C50F49679A20}"/>
-    <hyperlink ref="F120" r:id="rId108" display="Kony@123" xr:uid="{3BE685BC-E79E-4D92-B932-EAF4EACAC356}"/>
-    <hyperlink ref="F121" r:id="rId109" display="Kony@123" xr:uid="{E32DB1B7-A3E9-4CE2-9B76-432AD9C6A165}"/>
-    <hyperlink ref="F122" r:id="rId110" display="Kony@123" xr:uid="{F4F85C7F-8CF5-4546-A8BE-4ABB56B6C27E}"/>
-    <hyperlink ref="F123" r:id="rId111" display="Kony@123" xr:uid="{17F58A17-F652-4FE7-A79C-4C582CE9E1EE}"/>
-    <hyperlink ref="F128" r:id="rId112" display="Kony@123" xr:uid="{170A913B-DD8E-42D1-BE29-4560950D3879}"/>
-    <hyperlink ref="F129" r:id="rId113" display="Kony@123" xr:uid="{F4B90F07-77BB-46A1-9696-53FA14BE033C}"/>
-    <hyperlink ref="F130" r:id="rId114" display="Kony@123" xr:uid="{782935E3-2C87-43AE-B37F-D81167DC6C56}"/>
-    <hyperlink ref="F131" r:id="rId115" display="Kony@123" xr:uid="{46EFFD81-5FAA-4270-91E5-E92AB19C13B8}"/>
-    <hyperlink ref="F132" r:id="rId116" display="Kony@123" xr:uid="{821C6BBE-7174-4880-86C5-57EB4864C07D}"/>
-    <hyperlink ref="F102" r:id="rId117" xr:uid="{4FC8F3C8-F05F-4087-87EE-11228151F75C}"/>
-    <hyperlink ref="F103" r:id="rId118" xr:uid="{EE6CA904-C919-419A-AD19-349869B95643}"/>
-    <hyperlink ref="F104" r:id="rId119" xr:uid="{A6980C23-F3B5-405B-88CA-DDED3E3953A6}"/>
-    <hyperlink ref="F105" r:id="rId120" xr:uid="{F16412BF-08B4-4A7C-9458-742ADBC51683}"/>
-    <hyperlink ref="F95" r:id="rId121" xr:uid="{2A36A62C-A1FC-4C05-8FCB-186013543287}"/>
-    <hyperlink ref="F93" r:id="rId122" xr:uid="{645750B4-482A-4D9B-B669-CED399B225D5}"/>
-    <hyperlink ref="F87" r:id="rId123" xr:uid="{A2400790-F78C-46C0-88D3-BDA7AD005E2D}"/>
-    <hyperlink ref="F88" r:id="rId124" xr:uid="{96BC7771-486E-4B34-99C1-D1BC03774B79}"/>
-    <hyperlink ref="F83" r:id="rId125" xr:uid="{992B7C17-9EFF-4783-BC97-23668AD262D0}"/>
-    <hyperlink ref="F124:F127" r:id="rId126" display="Kony@123" xr:uid="{609C902F-A8C4-4418-9AF6-A380CE4B9CB4}"/>
-    <hyperlink ref="F124" r:id="rId127" display="Kony@123" xr:uid="{5DBC08E0-01B2-417C-A59F-7C35CAF06534}"/>
-    <hyperlink ref="F125" r:id="rId128" display="Kony@123" xr:uid="{02499E77-EEE7-498B-AEC7-3709A2710756}"/>
-    <hyperlink ref="F126" r:id="rId129" display="Kony@123" xr:uid="{7D0F5AFC-3C66-49BE-A373-A74A3D84BA98}"/>
-    <hyperlink ref="F127" r:id="rId130" display="Kony@123" xr:uid="{2A8D54D2-DD8F-486C-9FF6-0A0567080352}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F2" r:id="rId12" display="Kony@123" xr:uid="{C8290296-74F1-47C4-B98A-4A9B0B69BDD6}"/>
+    <hyperlink ref="F3" r:id="rId13" display="Kony@123" xr:uid="{6985B5AA-B658-404F-B361-7C2A8AFEE179}"/>
+    <hyperlink ref="F4" r:id="rId14" display="Kony@123" xr:uid="{848A4FF3-1F9A-4975-8DC1-D68CAB635E07}"/>
+    <hyperlink ref="F5" r:id="rId15" display="Kony@123" xr:uid="{8B2A9D04-18F2-4FA0-8693-D70C03481F9D}"/>
+    <hyperlink ref="F6" r:id="rId16" display="Kony@123" xr:uid="{54197B00-336A-4660-B1DE-7ED27D90B5BF}"/>
+    <hyperlink ref="F7" r:id="rId17" display="Kony@123" xr:uid="{32261720-EACB-4B4E-8C75-E041A7F9D488}"/>
+    <hyperlink ref="F8" r:id="rId18" display="Kony@123" xr:uid="{7C51A3FC-D85B-49AC-A00A-F8D91B8EB9DC}"/>
+    <hyperlink ref="F9" r:id="rId19" display="Kony@123" xr:uid="{12A08FB1-DED1-4EC3-BECF-606C3E2778AF}"/>
+    <hyperlink ref="F10" r:id="rId20" display="Kony@123" xr:uid="{9BF11E09-87D7-49E4-88D0-6BA6B40BBDB2}"/>
+    <hyperlink ref="F11" r:id="rId21" display="Kony@123" xr:uid="{0B13BDA1-92A3-40B9-B600-C680436BCB46}"/>
+    <hyperlink ref="F12" r:id="rId22" display="Kony@123" xr:uid="{A4B2AA20-AE85-401E-A4AC-DA2C8B85C069}"/>
+    <hyperlink ref="F13" r:id="rId23" display="Kony@123" xr:uid="{E694F999-DB4A-4E16-877A-0197AA295A6A}"/>
+    <hyperlink ref="F14" r:id="rId24" display="Kony@123" xr:uid="{9BEF8D2A-97FD-4D7C-A4E5-98F01BF31502}"/>
+    <hyperlink ref="F15" r:id="rId25" display="Kony@123" xr:uid="{64F7CE5A-4CB1-4C67-9582-D17D5ED8E4FE}"/>
+    <hyperlink ref="F18" r:id="rId26" display="Kony@123" xr:uid="{72D49926-85B3-4C08-9510-37BFEB7B489B}"/>
+    <hyperlink ref="F19" r:id="rId27" display="Kony@123" xr:uid="{87866760-2DB7-4039-B9C4-E96B865E9395}"/>
+    <hyperlink ref="F21" r:id="rId28" display="Kony@123" xr:uid="{F0653554-2308-48C5-9404-CB9C6D8A6B0C}"/>
+    <hyperlink ref="F22" r:id="rId29" display="Kony@123" xr:uid="{DF2C3F7B-EB99-4939-B8C2-8139B4A0B6E5}"/>
+    <hyperlink ref="F23" r:id="rId30" display="Kony@123" xr:uid="{3C98B11D-26F3-4FF1-8696-87BC8FE432DE}"/>
+    <hyperlink ref="F24" r:id="rId31" display="Kony@123" xr:uid="{F50DD16B-F3EF-41E8-916F-71185B9FC64C}"/>
+    <hyperlink ref="F25" r:id="rId32" display="Kony@123" xr:uid="{B820EB0C-6373-4A55-ACDA-16C9426E2360}"/>
+    <hyperlink ref="F26" r:id="rId33" display="Kony@123" xr:uid="{7FE49DA8-FD83-4B46-BF77-2F18B4F36EF9}"/>
+    <hyperlink ref="F27" r:id="rId34" display="Kony@123" xr:uid="{63AD937C-79A8-4971-814E-42CAF285E6FD}"/>
+    <hyperlink ref="F28" r:id="rId35" display="Kony@123" xr:uid="{60968FFA-A588-4D1E-AC4F-954F10C56AF3}"/>
+    <hyperlink ref="F29" r:id="rId36" display="Kony@123" xr:uid="{B15B5200-1276-4AA8-89D7-43A9197D41AF}"/>
+    <hyperlink ref="F30" r:id="rId37" display="Kony@123" xr:uid="{57BBCCD0-13DB-43BB-B028-F36F8CC317CC}"/>
+    <hyperlink ref="F31" r:id="rId38" display="Kony@123" xr:uid="{23BC9856-CB23-48C2-B1FB-E36BFDF229CE}"/>
+    <hyperlink ref="F32" r:id="rId39" display="Kony@123" xr:uid="{1014470F-0051-4145-A480-6F738A91D1B0}"/>
+    <hyperlink ref="F33" r:id="rId40" display="Kony@123" xr:uid="{9563D07C-7B00-4285-A678-F0388C4AAC6C}"/>
+    <hyperlink ref="F43" r:id="rId41" display="Kony@123" xr:uid="{112CF6B3-0086-45DB-B506-305E30DD5F33}"/>
+    <hyperlink ref="F44" r:id="rId42" display="Kony@123" xr:uid="{A6FFE977-C3AC-449E-A3F1-35E8ECC18243}"/>
+    <hyperlink ref="F45" r:id="rId43" display="Kony@123" xr:uid="{20BFF49F-3D9E-4DA3-B0B4-3EDBB6DF93F1}"/>
+    <hyperlink ref="F46" r:id="rId44" display="Kony@123" xr:uid="{CD82CA82-782B-4594-AC15-19544D9F9C8B}"/>
+    <hyperlink ref="F47" r:id="rId45" display="Kony@123" xr:uid="{38A7D0DD-DE6E-4293-8E02-C74B6526F10B}"/>
+    <hyperlink ref="F48" r:id="rId46" display="Kony@123" xr:uid="{F21DF479-80D7-4875-A66D-72DA5E449D30}"/>
+    <hyperlink ref="F49" r:id="rId47" display="Kony@123" xr:uid="{C43106AF-CE48-4D4D-9F44-4B220B53DECE}"/>
+    <hyperlink ref="F50" r:id="rId48" display="Kony@123" xr:uid="{CA6EFCAE-911B-47E9-BF2E-DAA2209E7A71}"/>
+    <hyperlink ref="F51" r:id="rId49" display="Kony@123" xr:uid="{09570598-1CCC-470F-8A5E-6801A155BFF0}"/>
+    <hyperlink ref="F52" r:id="rId50" display="Kony@123" xr:uid="{38F26C89-EBE2-46F3-98BB-1A7378135234}"/>
+    <hyperlink ref="F53" r:id="rId51" display="Kony@123" xr:uid="{1686E96D-707F-4A18-ACA6-935646170B3D}"/>
+    <hyperlink ref="F54" r:id="rId52" display="Kony@123" xr:uid="{1619FB29-A79D-4E6B-B4A2-D956D14FAC45}"/>
+    <hyperlink ref="F55" r:id="rId53" display="Kony@123" xr:uid="{CE7CEF5D-E058-4C89-94D7-99A6CDE97CB3}"/>
+    <hyperlink ref="F56" r:id="rId54" display="Kony@123" xr:uid="{2EDE3577-F6A7-4F5B-AFB7-BC92AC6F59AF}"/>
+    <hyperlink ref="F57" r:id="rId55" display="Kony@123" xr:uid="{81F5DA1F-7FFF-4B4C-9928-6F3302B1E637}"/>
+    <hyperlink ref="F58" r:id="rId56" display="Kony@123" xr:uid="{73E4B230-6257-45E3-978D-06EBE2261946}"/>
+    <hyperlink ref="F59" r:id="rId57" display="Kony@123" xr:uid="{AC08AD28-BE28-49AD-B4D5-45164A26DEA5}"/>
+    <hyperlink ref="F60" r:id="rId58" display="Kony@123" xr:uid="{4AE8FEBB-3253-4FE4-AF78-DCC4AF8BD33C}"/>
+    <hyperlink ref="F61" r:id="rId59" display="Kony@123" xr:uid="{15218EE4-B510-40F6-B18B-2A01E2F3EC7E}"/>
+    <hyperlink ref="F62" r:id="rId60" display="Kony@123" xr:uid="{A249844A-EFD7-4C54-84B3-52CAB7B2E8E5}"/>
+    <hyperlink ref="F63" r:id="rId61" display="Kony@123" xr:uid="{1A963F5C-5948-4203-8AAD-2A5B688A7E3D}"/>
+    <hyperlink ref="F64" r:id="rId62" display="Kony@123" xr:uid="{72A376C6-204F-4076-9667-E94EB401CAA0}"/>
+    <hyperlink ref="F65" r:id="rId63" display="Kony@123" xr:uid="{3B0DFB31-690D-4922-BF6E-E1EA30C36A51}"/>
+    <hyperlink ref="F66" r:id="rId64" display="Kony@123" xr:uid="{57A0819C-2069-4906-BA64-16F8BA866D9D}"/>
+    <hyperlink ref="F67" r:id="rId65" display="Kony@123" xr:uid="{49690EA3-8504-4FDE-97F0-61DC470952BA}"/>
+    <hyperlink ref="F68" r:id="rId66" display="Kony@123" xr:uid="{EEBB06B6-9044-406C-A3A1-99B83FABCADC}"/>
+    <hyperlink ref="F69" r:id="rId67" display="Kony@123" xr:uid="{81B733E6-78EE-4E7B-8E2C-DF0B7107C340}"/>
+    <hyperlink ref="F70" r:id="rId68" display="Kony@123" xr:uid="{0082AC9D-7E42-43B9-9BC7-669DF312F639}"/>
+    <hyperlink ref="F71" r:id="rId69" display="Kony@123" xr:uid="{20E7F5E7-FD1D-4162-B621-BD95048B4766}"/>
+    <hyperlink ref="F72" r:id="rId70" display="Kony@123" xr:uid="{5C90467E-B95F-4FAF-9C90-0E68CC2FE2D3}"/>
+    <hyperlink ref="F73" r:id="rId71" display="Kony@123" xr:uid="{ABBCD72D-A485-4FD5-AE43-55DE7E771213}"/>
+    <hyperlink ref="F74" r:id="rId72" display="Kony@123" xr:uid="{154490DA-872A-4FF9-B2BE-E30515995EB3}"/>
+    <hyperlink ref="F75" r:id="rId73" display="Kony@123" xr:uid="{76BC609C-5D7E-4DE9-AFA9-B69B19DAF792}"/>
+    <hyperlink ref="F76" r:id="rId74" display="Kony@123" xr:uid="{45BB160F-B547-48E0-944F-E82BBD2014AA}"/>
+    <hyperlink ref="F77" r:id="rId75" display="Kony@123" xr:uid="{967ECF78-A7CE-47D3-8E74-BCBD8059EA58}"/>
+    <hyperlink ref="F78" r:id="rId76" display="Kony@123" xr:uid="{03E8D44D-7B7B-473C-972D-22B492AC0C27}"/>
+    <hyperlink ref="F79" r:id="rId77" display="Kony@123" xr:uid="{86026426-B2A1-4AD8-8DF6-D69A61A6E8AB}"/>
+    <hyperlink ref="F80" r:id="rId78" display="Kony@123" xr:uid="{923043A5-868E-48CC-88AA-37C72D4C492B}"/>
+    <hyperlink ref="F81" r:id="rId79" display="Kony@123" xr:uid="{5CD603BC-F856-4F58-AE54-2BA8049AC162}"/>
+    <hyperlink ref="F84" r:id="rId80" display="Kony@123" xr:uid="{514ECE2E-23FA-4E59-A8C9-D45D351CF8C4}"/>
+    <hyperlink ref="F85" r:id="rId81" display="Kony@123" xr:uid="{3E9898D1-01E9-4B42-A73F-FA5D49270409}"/>
+    <hyperlink ref="F86" r:id="rId82" display="Kony@123" xr:uid="{6C8A373E-4558-4549-B5CD-3092F837F805}"/>
+    <hyperlink ref="F89" r:id="rId83" display="Kony@123" xr:uid="{5368FA05-DE10-42A6-A357-B026967FDFC0}"/>
+    <hyperlink ref="F90" r:id="rId84" display="Kony@123" xr:uid="{E1573305-91A5-4A67-B827-21F0E01814D4}"/>
+    <hyperlink ref="F91" r:id="rId85" display="Kony@123" xr:uid="{EC5310D2-FE47-42C2-977E-73FDF3CEAC7F}"/>
+    <hyperlink ref="F92" r:id="rId86" display="Kony@123" xr:uid="{5C656A0E-C03F-46A5-9750-6448B7285932}"/>
+    <hyperlink ref="F96" r:id="rId87" display="Kony@123" xr:uid="{A98E7BB1-EEC6-456A-8058-3451A27FAC90}"/>
+    <hyperlink ref="F97" r:id="rId88" display="Kony@123" xr:uid="{E3228F97-3584-4DD5-ABD2-07E68F45C80C}"/>
+    <hyperlink ref="F98" r:id="rId89" display="Kony@123" xr:uid="{6DDF2FDE-838E-4322-8C71-F3918E530CF4}"/>
+    <hyperlink ref="F99" r:id="rId90" display="Kony@123" xr:uid="{D44CA776-25FA-44A0-95CB-A5EEF1FBF3C4}"/>
+    <hyperlink ref="F100" r:id="rId91" display="Kony@123" xr:uid="{B2523F64-9756-4607-B11E-1EB609E3938F}"/>
+    <hyperlink ref="F107" r:id="rId92" display="Kony@123" xr:uid="{1B50E80F-8635-4A37-A1B8-3EFE3126D967}"/>
+    <hyperlink ref="F108" r:id="rId93" display="Kony@123" xr:uid="{C59DFF30-5C77-41E6-AC81-0C18878AC7EA}"/>
+    <hyperlink ref="F109" r:id="rId94" display="Kony@123" xr:uid="{7A5D2A42-6072-4896-9F1E-31050D9437A9}"/>
+    <hyperlink ref="F110" r:id="rId95" display="Kony@123" xr:uid="{FA658073-1F5D-4D06-92E0-380D3101CCF6}"/>
+    <hyperlink ref="F111" r:id="rId96" display="Kony@123" xr:uid="{48C8A18E-E47D-4041-9989-7071F15DA0EC}"/>
+    <hyperlink ref="F112" r:id="rId97" display="Kony@123" xr:uid="{3A0583A7-FF13-45FD-9088-EFF63FFCBCD7}"/>
+    <hyperlink ref="F113" r:id="rId98" display="Kony@123" xr:uid="{21BDCC0D-E577-4717-9003-92D0D27274D4}"/>
+    <hyperlink ref="F114" r:id="rId99" display="Kony@123" xr:uid="{E7E2F38C-536F-473A-B8DD-5C8528E5FE37}"/>
+    <hyperlink ref="F115" r:id="rId100" display="Kony@123" xr:uid="{C2E080EC-EE6D-4EBC-B2BE-24781ADB0442}"/>
+    <hyperlink ref="F116" r:id="rId101" display="Kony@123" xr:uid="{3187464A-9470-4D02-9F1E-52C4C055ECF2}"/>
+    <hyperlink ref="F117" r:id="rId102" display="Kony@123" xr:uid="{159DA2BB-A519-4242-B0EA-1C609977B49C}"/>
+    <hyperlink ref="F118" r:id="rId103" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
+    <hyperlink ref="F119" r:id="rId104" display="Kony@123" xr:uid="{31B94F7C-1214-4F06-BF23-C50F49679A20}"/>
+    <hyperlink ref="F120" r:id="rId105" display="Kony@123" xr:uid="{3BE685BC-E79E-4D92-B932-EAF4EACAC356}"/>
+    <hyperlink ref="F121" r:id="rId106" display="Kony@123" xr:uid="{E32DB1B7-A3E9-4CE2-9B76-432AD9C6A165}"/>
+    <hyperlink ref="F122" r:id="rId107" display="Kony@123" xr:uid="{F4F85C7F-8CF5-4546-A8BE-4ABB56B6C27E}"/>
+    <hyperlink ref="F123" r:id="rId108" display="Kony@123" xr:uid="{17F58A17-F652-4FE7-A79C-4C582CE9E1EE}"/>
+    <hyperlink ref="F128" r:id="rId109" display="Kony@123" xr:uid="{170A913B-DD8E-42D1-BE29-4560950D3879}"/>
+    <hyperlink ref="F129" r:id="rId110" display="Kony@123" xr:uid="{F4B90F07-77BB-46A1-9696-53FA14BE033C}"/>
+    <hyperlink ref="F130" r:id="rId111" display="Kony@123" xr:uid="{782935E3-2C87-43AE-B37F-D81167DC6C56}"/>
+    <hyperlink ref="F131" r:id="rId112" display="Kony@123" xr:uid="{46EFFD81-5FAA-4270-91E5-E92AB19C13B8}"/>
+    <hyperlink ref="F132" r:id="rId113" display="Kony@123" xr:uid="{821C6BBE-7174-4880-86C5-57EB4864C07D}"/>
+    <hyperlink ref="F124:F127" r:id="rId114" display="Kony@123" xr:uid="{609C902F-A8C4-4418-9AF6-A380CE4B9CB4}"/>
+    <hyperlink ref="F124" r:id="rId115" display="Kony@123" xr:uid="{5DBC08E0-01B2-417C-A59F-7C35CAF06534}"/>
+    <hyperlink ref="F125" r:id="rId116" display="Kony@123" xr:uid="{02499E77-EEE7-498B-AEC7-3709A2710756}"/>
+    <hyperlink ref="F126" r:id="rId117" display="Kony@123" xr:uid="{7D0F5AFC-3C66-49BE-A373-A74A3D84BA98}"/>
+    <hyperlink ref="F127" r:id="rId118" display="Kony@123" xr:uid="{2A8D54D2-DD8F-486C-9FF6-0A0567080352}"/>
+    <hyperlink ref="F93" r:id="rId119" xr:uid="{E79FD8E2-0811-4DD3-B83F-C8B1A04675C0}"/>
+    <hyperlink ref="F101" r:id="rId120" display="Kony@123" xr:uid="{E75E4D25-F5E1-4A39-8AF4-F5C3C34DF9D1}"/>
+    <hyperlink ref="F105" r:id="rId121" display="Kony@123" xr:uid="{5B762541-6788-4ECE-AE0A-1083A12FCA23}"/>
+    <hyperlink ref="F87" r:id="rId122" display="Kony@123" xr:uid="{62C1012E-874C-485C-A458-1A50D85C315E}"/>
+    <hyperlink ref="F106" r:id="rId123" display="Kony@123" xr:uid="{12217BC4-A8EF-4F82-872A-849862FE2F7B}"/>
+    <hyperlink ref="F94" r:id="rId124" display="Kony@123" xr:uid="{9673AC35-19D2-49B2-861E-4616721D221B}"/>
+    <hyperlink ref="F102" r:id="rId125" xr:uid="{0D14B215-7B6A-48D2-A6A1-3286340DEFDF}"/>
+    <hyperlink ref="F83" r:id="rId126" xr:uid="{B05A5C93-B446-44C8-9210-79F00F77CA67}"/>
+    <hyperlink ref="F88" r:id="rId127" xr:uid="{DBADFF1E-7913-4900-BF8C-A2457EF00E6E}"/>
+    <hyperlink ref="F95" r:id="rId128" xr:uid="{E8CB30C7-EED5-475A-AA4C-3BBA59D579F2}"/>
+    <hyperlink ref="F103" r:id="rId129" xr:uid="{0225E1B7-1DBD-4713-AFA3-9F849D4E1AC1}"/>
+    <hyperlink ref="F104" r:id="rId130" xr:uid="{98DE6044-3C3A-4B66-AF3A-A0BF803D4E97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId131"/>
@@ -4199,11 +4208,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,25 +4255,25 @@
         <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4313,20 +4322,20 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
@@ -4336,12 +4345,12 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
@@ -4351,7 +4360,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4369,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4383,7 +4392,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -4416,15 +4425,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -4433,18 +4442,18 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -4454,15 +4463,15 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -4471,12 +4480,12 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -4484,411 +4493,419 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>108</v>
-      </c>
-      <c r="J17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
-      </c>
-      <c r="J34" t="s">
-        <v>312</v>
-      </c>
-      <c r="L34" t="s">
-        <v>313</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>314</v>
+        <v>251</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
-      </c>
-      <c r="K35" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="J36" t="s">
-        <v>312</v>
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" t="s">
         <v>302</v>
       </c>
-      <c r="J37" t="s">
-        <v>318</v>
-      </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L38" t="s">
-        <v>316</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>314</v>
+      <c r="N38" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>305</v>
-      </c>
-      <c r="J39" t="s">
-        <v>318</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="N39" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
         <v>308</v>
       </c>
-      <c r="J40" t="s">
-        <v>318</v>
-      </c>
       <c r="K40" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="J41" t="s">
-        <v>318</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>319</v>
-      </c>
       <c r="L41" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4902,13 +4919,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4921,180 +4938,180 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,7 +5129,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" display="Kony@123" xr:uid="{FAFC8C47-05E1-4C5E-8F41-BE8F346CAB9A}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{FAFC8C47-05E1-4C5E-8F41-BE8F346CAB9A}"/>
     <hyperlink ref="H6" r:id="rId3" display="Kony@123" xr:uid="{9EE8056A-AEBC-48DC-B153-AFBF5EFC0A39}"/>
     <hyperlink ref="H7" r:id="rId4" display="Kony@123" xr:uid="{EBA55935-094D-45EA-8CD4-0720D5439F75}"/>
     <hyperlink ref="H8" r:id="rId5" display="Kony@123" xr:uid="{3EF8C29D-D7F8-4190-AAAE-C947DD1C2DF4}"/>
@@ -5144,58 +5161,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5209,7 +5226,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,112 +5248,118 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -5369,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5393,154 +5416,154 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2"/>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="L8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5571,118 +5594,118 @@
         <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5715,286 +5738,286 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>128</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>129</v>
       </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2" t="s">
@@ -6004,129 +6027,129 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6165,7 +6188,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -6176,10 +6199,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088EC0F7-9969-4515-B529-65C50D0A80DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <sheet name="Alerts" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="330">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1025,12 +1019,18 @@
   </si>
   <si>
     <t>12813055</t>
+  </si>
+  <si>
+    <t>C25165_VerifyAggregateExternalAccountfromLinkAccount</t>
+  </si>
+  <si>
+    <t>C25166_VerifyAggregateExternalAccountfromLinkAccountWidgetPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1170,7 +1170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1222,7 +1222,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1416,18 +1416,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,138 +4068,148 @@
         <v>312</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="F35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="F36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="F37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="F38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="F39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="F41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="F42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F2" r:id="rId12" display="Kony@123" xr:uid="{C8290296-74F1-47C4-B98A-4A9B0B69BDD6}"/>
-    <hyperlink ref="F3" r:id="rId13" display="Kony@123" xr:uid="{6985B5AA-B658-404F-B361-7C2A8AFEE179}"/>
-    <hyperlink ref="F4" r:id="rId14" display="Kony@123" xr:uid="{848A4FF3-1F9A-4975-8DC1-D68CAB635E07}"/>
-    <hyperlink ref="F5" r:id="rId15" display="Kony@123" xr:uid="{8B2A9D04-18F2-4FA0-8693-D70C03481F9D}"/>
-    <hyperlink ref="F6" r:id="rId16" display="Kony@123" xr:uid="{54197B00-336A-4660-B1DE-7ED27D90B5BF}"/>
-    <hyperlink ref="F7" r:id="rId17" display="Kony@123" xr:uid="{32261720-EACB-4B4E-8C75-E041A7F9D488}"/>
-    <hyperlink ref="F8" r:id="rId18" display="Kony@123" xr:uid="{7C51A3FC-D85B-49AC-A00A-F8D91B8EB9DC}"/>
-    <hyperlink ref="F9" r:id="rId19" display="Kony@123" xr:uid="{12A08FB1-DED1-4EC3-BECF-606C3E2778AF}"/>
-    <hyperlink ref="F10" r:id="rId20" display="Kony@123" xr:uid="{9BF11E09-87D7-49E4-88D0-6BA6B40BBDB2}"/>
-    <hyperlink ref="F11" r:id="rId21" display="Kony@123" xr:uid="{0B13BDA1-92A3-40B9-B600-C680436BCB46}"/>
-    <hyperlink ref="F12" r:id="rId22" display="Kony@123" xr:uid="{A4B2AA20-AE85-401E-A4AC-DA2C8B85C069}"/>
-    <hyperlink ref="F13" r:id="rId23" display="Kony@123" xr:uid="{E694F999-DB4A-4E16-877A-0197AA295A6A}"/>
-    <hyperlink ref="F14" r:id="rId24" display="Kony@123" xr:uid="{9BEF8D2A-97FD-4D7C-A4E5-98F01BF31502}"/>
-    <hyperlink ref="F15" r:id="rId25" display="Kony@123" xr:uid="{64F7CE5A-4CB1-4C67-9582-D17D5ED8E4FE}"/>
-    <hyperlink ref="F18" r:id="rId26" display="Kony@123" xr:uid="{72D49926-85B3-4C08-9510-37BFEB7B489B}"/>
-    <hyperlink ref="F19" r:id="rId27" display="Kony@123" xr:uid="{87866760-2DB7-4039-B9C4-E96B865E9395}"/>
-    <hyperlink ref="F21" r:id="rId28" display="Kony@123" xr:uid="{F0653554-2308-48C5-9404-CB9C6D8A6B0C}"/>
-    <hyperlink ref="F22" r:id="rId29" display="Kony@123" xr:uid="{DF2C3F7B-EB99-4939-B8C2-8139B4A0B6E5}"/>
-    <hyperlink ref="F23" r:id="rId30" display="Kony@123" xr:uid="{3C98B11D-26F3-4FF1-8696-87BC8FE432DE}"/>
-    <hyperlink ref="F24" r:id="rId31" display="Kony@123" xr:uid="{F50DD16B-F3EF-41E8-916F-71185B9FC64C}"/>
-    <hyperlink ref="F25" r:id="rId32" display="Kony@123" xr:uid="{B820EB0C-6373-4A55-ACDA-16C9426E2360}"/>
-    <hyperlink ref="F26" r:id="rId33" display="Kony@123" xr:uid="{7FE49DA8-FD83-4B46-BF77-2F18B4F36EF9}"/>
-    <hyperlink ref="F27" r:id="rId34" display="Kony@123" xr:uid="{63AD937C-79A8-4971-814E-42CAF285E6FD}"/>
-    <hyperlink ref="F28" r:id="rId35" display="Kony@123" xr:uid="{60968FFA-A588-4D1E-AC4F-954F10C56AF3}"/>
-    <hyperlink ref="F29" r:id="rId36" display="Kony@123" xr:uid="{B15B5200-1276-4AA8-89D7-43A9197D41AF}"/>
-    <hyperlink ref="F30" r:id="rId37" display="Kony@123" xr:uid="{57BBCCD0-13DB-43BB-B028-F36F8CC317CC}"/>
-    <hyperlink ref="F31" r:id="rId38" display="Kony@123" xr:uid="{23BC9856-CB23-48C2-B1FB-E36BFDF229CE}"/>
-    <hyperlink ref="F32" r:id="rId39" display="Kony@123" xr:uid="{1014470F-0051-4145-A480-6F738A91D1B0}"/>
-    <hyperlink ref="F33" r:id="rId40" display="Kony@123" xr:uid="{9563D07C-7B00-4285-A678-F0388C4AAC6C}"/>
-    <hyperlink ref="F43" r:id="rId41" display="Kony@123" xr:uid="{112CF6B3-0086-45DB-B506-305E30DD5F33}"/>
-    <hyperlink ref="F44" r:id="rId42" display="Kony@123" xr:uid="{A6FFE977-C3AC-449E-A3F1-35E8ECC18243}"/>
-    <hyperlink ref="F45" r:id="rId43" display="Kony@123" xr:uid="{20BFF49F-3D9E-4DA3-B0B4-3EDBB6DF93F1}"/>
-    <hyperlink ref="F46" r:id="rId44" display="Kony@123" xr:uid="{CD82CA82-782B-4594-AC15-19544D9F9C8B}"/>
-    <hyperlink ref="F47" r:id="rId45" display="Kony@123" xr:uid="{38A7D0DD-DE6E-4293-8E02-C74B6526F10B}"/>
-    <hyperlink ref="F48" r:id="rId46" display="Kony@123" xr:uid="{F21DF479-80D7-4875-A66D-72DA5E449D30}"/>
-    <hyperlink ref="F49" r:id="rId47" display="Kony@123" xr:uid="{C43106AF-CE48-4D4D-9F44-4B220B53DECE}"/>
-    <hyperlink ref="F50" r:id="rId48" display="Kony@123" xr:uid="{CA6EFCAE-911B-47E9-BF2E-DAA2209E7A71}"/>
-    <hyperlink ref="F51" r:id="rId49" display="Kony@123" xr:uid="{09570598-1CCC-470F-8A5E-6801A155BFF0}"/>
-    <hyperlink ref="F52" r:id="rId50" display="Kony@123" xr:uid="{38F26C89-EBE2-46F3-98BB-1A7378135234}"/>
-    <hyperlink ref="F53" r:id="rId51" display="Kony@123" xr:uid="{1686E96D-707F-4A18-ACA6-935646170B3D}"/>
-    <hyperlink ref="F54" r:id="rId52" display="Kony@123" xr:uid="{1619FB29-A79D-4E6B-B4A2-D956D14FAC45}"/>
-    <hyperlink ref="F55" r:id="rId53" display="Kony@123" xr:uid="{CE7CEF5D-E058-4C89-94D7-99A6CDE97CB3}"/>
-    <hyperlink ref="F56" r:id="rId54" display="Kony@123" xr:uid="{2EDE3577-F6A7-4F5B-AFB7-BC92AC6F59AF}"/>
-    <hyperlink ref="F57" r:id="rId55" display="Kony@123" xr:uid="{81F5DA1F-7FFF-4B4C-9928-6F3302B1E637}"/>
-    <hyperlink ref="F58" r:id="rId56" display="Kony@123" xr:uid="{73E4B230-6257-45E3-978D-06EBE2261946}"/>
-    <hyperlink ref="F59" r:id="rId57" display="Kony@123" xr:uid="{AC08AD28-BE28-49AD-B4D5-45164A26DEA5}"/>
-    <hyperlink ref="F60" r:id="rId58" display="Kony@123" xr:uid="{4AE8FEBB-3253-4FE4-AF78-DCC4AF8BD33C}"/>
-    <hyperlink ref="F61" r:id="rId59" display="Kony@123" xr:uid="{15218EE4-B510-40F6-B18B-2A01E2F3EC7E}"/>
-    <hyperlink ref="F62" r:id="rId60" display="Kony@123" xr:uid="{A249844A-EFD7-4C54-84B3-52CAB7B2E8E5}"/>
-    <hyperlink ref="F63" r:id="rId61" display="Kony@123" xr:uid="{1A963F5C-5948-4203-8AAD-2A5B688A7E3D}"/>
-    <hyperlink ref="F64" r:id="rId62" display="Kony@123" xr:uid="{72A376C6-204F-4076-9667-E94EB401CAA0}"/>
-    <hyperlink ref="F65" r:id="rId63" display="Kony@123" xr:uid="{3B0DFB31-690D-4922-BF6E-E1EA30C36A51}"/>
-    <hyperlink ref="F66" r:id="rId64" display="Kony@123" xr:uid="{57A0819C-2069-4906-BA64-16F8BA866D9D}"/>
-    <hyperlink ref="F67" r:id="rId65" display="Kony@123" xr:uid="{49690EA3-8504-4FDE-97F0-61DC470952BA}"/>
-    <hyperlink ref="F68" r:id="rId66" display="Kony@123" xr:uid="{EEBB06B6-9044-406C-A3A1-99B83FABCADC}"/>
-    <hyperlink ref="F69" r:id="rId67" display="Kony@123" xr:uid="{81B733E6-78EE-4E7B-8E2C-DF0B7107C340}"/>
-    <hyperlink ref="F70" r:id="rId68" display="Kony@123" xr:uid="{0082AC9D-7E42-43B9-9BC7-669DF312F639}"/>
-    <hyperlink ref="F71" r:id="rId69" display="Kony@123" xr:uid="{20E7F5E7-FD1D-4162-B621-BD95048B4766}"/>
-    <hyperlink ref="F72" r:id="rId70" display="Kony@123" xr:uid="{5C90467E-B95F-4FAF-9C90-0E68CC2FE2D3}"/>
-    <hyperlink ref="F73" r:id="rId71" display="Kony@123" xr:uid="{ABBCD72D-A485-4FD5-AE43-55DE7E771213}"/>
-    <hyperlink ref="F74" r:id="rId72" display="Kony@123" xr:uid="{154490DA-872A-4FF9-B2BE-E30515995EB3}"/>
-    <hyperlink ref="F75" r:id="rId73" display="Kony@123" xr:uid="{76BC609C-5D7E-4DE9-AFA9-B69B19DAF792}"/>
-    <hyperlink ref="F76" r:id="rId74" display="Kony@123" xr:uid="{45BB160F-B547-48E0-944F-E82BBD2014AA}"/>
-    <hyperlink ref="F77" r:id="rId75" display="Kony@123" xr:uid="{967ECF78-A7CE-47D3-8E74-BCBD8059EA58}"/>
-    <hyperlink ref="F78" r:id="rId76" display="Kony@123" xr:uid="{03E8D44D-7B7B-473C-972D-22B492AC0C27}"/>
-    <hyperlink ref="F79" r:id="rId77" display="Kony@123" xr:uid="{86026426-B2A1-4AD8-8DF6-D69A61A6E8AB}"/>
-    <hyperlink ref="F80" r:id="rId78" display="Kony@123" xr:uid="{923043A5-868E-48CC-88AA-37C72D4C492B}"/>
-    <hyperlink ref="F81" r:id="rId79" display="Kony@123" xr:uid="{5CD603BC-F856-4F58-AE54-2BA8049AC162}"/>
-    <hyperlink ref="F84" r:id="rId80" display="Kony@123" xr:uid="{514ECE2E-23FA-4E59-A8C9-D45D351CF8C4}"/>
-    <hyperlink ref="F85" r:id="rId81" display="Kony@123" xr:uid="{3E9898D1-01E9-4B42-A73F-FA5D49270409}"/>
-    <hyperlink ref="F86" r:id="rId82" display="Kony@123" xr:uid="{6C8A373E-4558-4549-B5CD-3092F837F805}"/>
-    <hyperlink ref="F89" r:id="rId83" display="Kony@123" xr:uid="{5368FA05-DE10-42A6-A357-B026967FDFC0}"/>
-    <hyperlink ref="F90" r:id="rId84" display="Kony@123" xr:uid="{E1573305-91A5-4A67-B827-21F0E01814D4}"/>
-    <hyperlink ref="F91" r:id="rId85" display="Kony@123" xr:uid="{EC5310D2-FE47-42C2-977E-73FDF3CEAC7F}"/>
-    <hyperlink ref="F92" r:id="rId86" display="Kony@123" xr:uid="{5C656A0E-C03F-46A5-9750-6448B7285932}"/>
-    <hyperlink ref="F96" r:id="rId87" display="Kony@123" xr:uid="{A98E7BB1-EEC6-456A-8058-3451A27FAC90}"/>
-    <hyperlink ref="F97" r:id="rId88" display="Kony@123" xr:uid="{E3228F97-3584-4DD5-ABD2-07E68F45C80C}"/>
-    <hyperlink ref="F98" r:id="rId89" display="Kony@123" xr:uid="{6DDF2FDE-838E-4322-8C71-F3918E530CF4}"/>
-    <hyperlink ref="F99" r:id="rId90" display="Kony@123" xr:uid="{D44CA776-25FA-44A0-95CB-A5EEF1FBF3C4}"/>
-    <hyperlink ref="F100" r:id="rId91" display="Kony@123" xr:uid="{B2523F64-9756-4607-B11E-1EB609E3938F}"/>
-    <hyperlink ref="F107" r:id="rId92" display="Kony@123" xr:uid="{1B50E80F-8635-4A37-A1B8-3EFE3126D967}"/>
-    <hyperlink ref="F108" r:id="rId93" display="Kony@123" xr:uid="{C59DFF30-5C77-41E6-AC81-0C18878AC7EA}"/>
-    <hyperlink ref="F109" r:id="rId94" display="Kony@123" xr:uid="{7A5D2A42-6072-4896-9F1E-31050D9437A9}"/>
-    <hyperlink ref="F110" r:id="rId95" display="Kony@123" xr:uid="{FA658073-1F5D-4D06-92E0-380D3101CCF6}"/>
-    <hyperlink ref="F111" r:id="rId96" display="Kony@123" xr:uid="{48C8A18E-E47D-4041-9989-7071F15DA0EC}"/>
-    <hyperlink ref="F112" r:id="rId97" display="Kony@123" xr:uid="{3A0583A7-FF13-45FD-9088-EFF63FFCBCD7}"/>
-    <hyperlink ref="F113" r:id="rId98" display="Kony@123" xr:uid="{21BDCC0D-E577-4717-9003-92D0D27274D4}"/>
-    <hyperlink ref="F114" r:id="rId99" display="Kony@123" xr:uid="{E7E2F38C-536F-473A-B8DD-5C8528E5FE37}"/>
-    <hyperlink ref="F115" r:id="rId100" display="Kony@123" xr:uid="{C2E080EC-EE6D-4EBC-B2BE-24781ADB0442}"/>
-    <hyperlink ref="F116" r:id="rId101" display="Kony@123" xr:uid="{3187464A-9470-4D02-9F1E-52C4C055ECF2}"/>
-    <hyperlink ref="F117" r:id="rId102" display="Kony@123" xr:uid="{159DA2BB-A519-4242-B0EA-1C609977B49C}"/>
-    <hyperlink ref="F118" r:id="rId103" xr:uid="{52311FF1-9CF6-428D-B8C0-3A7E10D7A9D8}"/>
-    <hyperlink ref="F119" r:id="rId104" display="Kony@123" xr:uid="{31B94F7C-1214-4F06-BF23-C50F49679A20}"/>
-    <hyperlink ref="F120" r:id="rId105" display="Kony@123" xr:uid="{3BE685BC-E79E-4D92-B932-EAF4EACAC356}"/>
-    <hyperlink ref="F121" r:id="rId106" display="Kony@123" xr:uid="{E32DB1B7-A3E9-4CE2-9B76-432AD9C6A165}"/>
-    <hyperlink ref="F122" r:id="rId107" display="Kony@123" xr:uid="{F4F85C7F-8CF5-4546-A8BE-4ABB56B6C27E}"/>
-    <hyperlink ref="F123" r:id="rId108" display="Kony@123" xr:uid="{17F58A17-F652-4FE7-A79C-4C582CE9E1EE}"/>
-    <hyperlink ref="F128" r:id="rId109" display="Kony@123" xr:uid="{170A913B-DD8E-42D1-BE29-4560950D3879}"/>
-    <hyperlink ref="F129" r:id="rId110" display="Kony@123" xr:uid="{F4B90F07-77BB-46A1-9696-53FA14BE033C}"/>
-    <hyperlink ref="F130" r:id="rId111" display="Kony@123" xr:uid="{782935E3-2C87-43AE-B37F-D81167DC6C56}"/>
-    <hyperlink ref="F131" r:id="rId112" display="Kony@123" xr:uid="{46EFFD81-5FAA-4270-91E5-E92AB19C13B8}"/>
-    <hyperlink ref="F132" r:id="rId113" display="Kony@123" xr:uid="{821C6BBE-7174-4880-86C5-57EB4864C07D}"/>
-    <hyperlink ref="F124:F127" r:id="rId114" display="Kony@123" xr:uid="{609C902F-A8C4-4418-9AF6-A380CE4B9CB4}"/>
-    <hyperlink ref="F124" r:id="rId115" display="Kony@123" xr:uid="{5DBC08E0-01B2-417C-A59F-7C35CAF06534}"/>
-    <hyperlink ref="F125" r:id="rId116" display="Kony@123" xr:uid="{02499E77-EEE7-498B-AEC7-3709A2710756}"/>
-    <hyperlink ref="F126" r:id="rId117" display="Kony@123" xr:uid="{7D0F5AFC-3C66-49BE-A373-A74A3D84BA98}"/>
-    <hyperlink ref="F127" r:id="rId118" display="Kony@123" xr:uid="{2A8D54D2-DD8F-486C-9FF6-0A0567080352}"/>
-    <hyperlink ref="F93" r:id="rId119" xr:uid="{E79FD8E2-0811-4DD3-B83F-C8B1A04675C0}"/>
-    <hyperlink ref="F101" r:id="rId120" display="Kony@123" xr:uid="{E75E4D25-F5E1-4A39-8AF4-F5C3C34DF9D1}"/>
-    <hyperlink ref="F105" r:id="rId121" display="Kony@123" xr:uid="{5B762541-6788-4ECE-AE0A-1083A12FCA23}"/>
-    <hyperlink ref="F87" r:id="rId122" display="Kony@123" xr:uid="{62C1012E-874C-485C-A458-1A50D85C315E}"/>
-    <hyperlink ref="F106" r:id="rId123" display="Kony@123" xr:uid="{12217BC4-A8EF-4F82-872A-849862FE2F7B}"/>
-    <hyperlink ref="F94" r:id="rId124" display="Kony@123" xr:uid="{9673AC35-19D2-49B2-861E-4616721D221B}"/>
-    <hyperlink ref="F102" r:id="rId125" xr:uid="{0D14B215-7B6A-48D2-A6A1-3286340DEFDF}"/>
-    <hyperlink ref="F83" r:id="rId126" xr:uid="{B05A5C93-B446-44C8-9210-79F00F77CA67}"/>
-    <hyperlink ref="F88" r:id="rId127" xr:uid="{DBADFF1E-7913-4900-BF8C-A2457EF00E6E}"/>
-    <hyperlink ref="F95" r:id="rId128" xr:uid="{E8CB30C7-EED5-475A-AA4C-3BBA59D579F2}"/>
-    <hyperlink ref="F103" r:id="rId129" xr:uid="{0225E1B7-1DBD-4713-AFA3-9F849D4E1AC1}"/>
-    <hyperlink ref="F104" r:id="rId130" xr:uid="{98DE6044-3C3A-4B66-AF3A-A0BF803D4E97}"/>
+    <hyperlink ref="F20" r:id="rId1"/>
+    <hyperlink ref="F82" r:id="rId2"/>
+    <hyperlink ref="F34" r:id="rId3"/>
+    <hyperlink ref="F35" r:id="rId4"/>
+    <hyperlink ref="F36" r:id="rId5"/>
+    <hyperlink ref="F37" r:id="rId6"/>
+    <hyperlink ref="F38" r:id="rId7"/>
+    <hyperlink ref="F39" r:id="rId8"/>
+    <hyperlink ref="F40" r:id="rId9"/>
+    <hyperlink ref="F41" r:id="rId10"/>
+    <hyperlink ref="F42" r:id="rId11"/>
+    <hyperlink ref="F2" r:id="rId12" display="Kony@123"/>
+    <hyperlink ref="F3" r:id="rId13" display="Kony@123"/>
+    <hyperlink ref="F4" r:id="rId14" display="Kony@123"/>
+    <hyperlink ref="F5" r:id="rId15" display="Kony@123"/>
+    <hyperlink ref="F6" r:id="rId16" display="Kony@123"/>
+    <hyperlink ref="F7" r:id="rId17" display="Kony@123"/>
+    <hyperlink ref="F8" r:id="rId18" display="Kony@123"/>
+    <hyperlink ref="F9" r:id="rId19" display="Kony@123"/>
+    <hyperlink ref="F10" r:id="rId20" display="Kony@123"/>
+    <hyperlink ref="F11" r:id="rId21" display="Kony@123"/>
+    <hyperlink ref="F12" r:id="rId22" display="Kony@123"/>
+    <hyperlink ref="F13" r:id="rId23" display="Kony@123"/>
+    <hyperlink ref="F14" r:id="rId24" display="Kony@123"/>
+    <hyperlink ref="F15" r:id="rId25" display="Kony@123"/>
+    <hyperlink ref="F18" r:id="rId26" display="Kony@123"/>
+    <hyperlink ref="F19" r:id="rId27" display="Kony@123"/>
+    <hyperlink ref="F21" r:id="rId28" display="Kony@123"/>
+    <hyperlink ref="F22" r:id="rId29" display="Kony@123"/>
+    <hyperlink ref="F23" r:id="rId30" display="Kony@123"/>
+    <hyperlink ref="F24" r:id="rId31" display="Kony@123"/>
+    <hyperlink ref="F25" r:id="rId32" display="Kony@123"/>
+    <hyperlink ref="F26" r:id="rId33" display="Kony@123"/>
+    <hyperlink ref="F27" r:id="rId34" display="Kony@123"/>
+    <hyperlink ref="F28" r:id="rId35" display="Kony@123"/>
+    <hyperlink ref="F29" r:id="rId36" display="Kony@123"/>
+    <hyperlink ref="F30" r:id="rId37" display="Kony@123"/>
+    <hyperlink ref="F31" r:id="rId38" display="Kony@123"/>
+    <hyperlink ref="F32" r:id="rId39" display="Kony@123"/>
+    <hyperlink ref="F33" r:id="rId40" display="Kony@123"/>
+    <hyperlink ref="F43" r:id="rId41" display="Kony@123"/>
+    <hyperlink ref="F44" r:id="rId42" display="Kony@123"/>
+    <hyperlink ref="F45" r:id="rId43" display="Kony@123"/>
+    <hyperlink ref="F46" r:id="rId44" display="Kony@123"/>
+    <hyperlink ref="F47" r:id="rId45" display="Kony@123"/>
+    <hyperlink ref="F48" r:id="rId46" display="Kony@123"/>
+    <hyperlink ref="F49" r:id="rId47" display="Kony@123"/>
+    <hyperlink ref="F50" r:id="rId48" display="Kony@123"/>
+    <hyperlink ref="F51" r:id="rId49" display="Kony@123"/>
+    <hyperlink ref="F52" r:id="rId50" display="Kony@123"/>
+    <hyperlink ref="F53" r:id="rId51" display="Kony@123"/>
+    <hyperlink ref="F54" r:id="rId52" display="Kony@123"/>
+    <hyperlink ref="F55" r:id="rId53" display="Kony@123"/>
+    <hyperlink ref="F56" r:id="rId54" display="Kony@123"/>
+    <hyperlink ref="F57" r:id="rId55" display="Kony@123"/>
+    <hyperlink ref="F58" r:id="rId56" display="Kony@123"/>
+    <hyperlink ref="F59" r:id="rId57" display="Kony@123"/>
+    <hyperlink ref="F60" r:id="rId58" display="Kony@123"/>
+    <hyperlink ref="F61" r:id="rId59" display="Kony@123"/>
+    <hyperlink ref="F62" r:id="rId60" display="Kony@123"/>
+    <hyperlink ref="F63" r:id="rId61" display="Kony@123"/>
+    <hyperlink ref="F64" r:id="rId62" display="Kony@123"/>
+    <hyperlink ref="F65" r:id="rId63" display="Kony@123"/>
+    <hyperlink ref="F66" r:id="rId64" display="Kony@123"/>
+    <hyperlink ref="F67" r:id="rId65" display="Kony@123"/>
+    <hyperlink ref="F68" r:id="rId66" display="Kony@123"/>
+    <hyperlink ref="F69" r:id="rId67" display="Kony@123"/>
+    <hyperlink ref="F70" r:id="rId68" display="Kony@123"/>
+    <hyperlink ref="F71" r:id="rId69" display="Kony@123"/>
+    <hyperlink ref="F72" r:id="rId70" display="Kony@123"/>
+    <hyperlink ref="F73" r:id="rId71" display="Kony@123"/>
+    <hyperlink ref="F74" r:id="rId72" display="Kony@123"/>
+    <hyperlink ref="F75" r:id="rId73" display="Kony@123"/>
+    <hyperlink ref="F76" r:id="rId74" display="Kony@123"/>
+    <hyperlink ref="F77" r:id="rId75" display="Kony@123"/>
+    <hyperlink ref="F78" r:id="rId76" display="Kony@123"/>
+    <hyperlink ref="F79" r:id="rId77" display="Kony@123"/>
+    <hyperlink ref="F80" r:id="rId78" display="Kony@123"/>
+    <hyperlink ref="F81" r:id="rId79" display="Kony@123"/>
+    <hyperlink ref="F84" r:id="rId80" display="Kony@123"/>
+    <hyperlink ref="F85" r:id="rId81" display="Kony@123"/>
+    <hyperlink ref="F86" r:id="rId82" display="Kony@123"/>
+    <hyperlink ref="F89" r:id="rId83" display="Kony@123"/>
+    <hyperlink ref="F90" r:id="rId84" display="Kony@123"/>
+    <hyperlink ref="F91" r:id="rId85" display="Kony@123"/>
+    <hyperlink ref="F92" r:id="rId86" display="Kony@123"/>
+    <hyperlink ref="F96" r:id="rId87" display="Kony@123"/>
+    <hyperlink ref="F97" r:id="rId88" display="Kony@123"/>
+    <hyperlink ref="F98" r:id="rId89" display="Kony@123"/>
+    <hyperlink ref="F99" r:id="rId90" display="Kony@123"/>
+    <hyperlink ref="F100" r:id="rId91" display="Kony@123"/>
+    <hyperlink ref="F107" r:id="rId92" display="Kony@123"/>
+    <hyperlink ref="F108" r:id="rId93" display="Kony@123"/>
+    <hyperlink ref="F109" r:id="rId94" display="Kony@123"/>
+    <hyperlink ref="F110" r:id="rId95" display="Kony@123"/>
+    <hyperlink ref="F111" r:id="rId96" display="Kony@123"/>
+    <hyperlink ref="F112" r:id="rId97" display="Kony@123"/>
+    <hyperlink ref="F113" r:id="rId98" display="Kony@123"/>
+    <hyperlink ref="F114" r:id="rId99" display="Kony@123"/>
+    <hyperlink ref="F115" r:id="rId100" display="Kony@123"/>
+    <hyperlink ref="F116" r:id="rId101" display="Kony@123"/>
+    <hyperlink ref="F117" r:id="rId102" display="Kony@123"/>
+    <hyperlink ref="F118" r:id="rId103"/>
+    <hyperlink ref="F119" r:id="rId104" display="Kony@123"/>
+    <hyperlink ref="F120" r:id="rId105" display="Kony@123"/>
+    <hyperlink ref="F121" r:id="rId106" display="Kony@123"/>
+    <hyperlink ref="F122" r:id="rId107" display="Kony@123"/>
+    <hyperlink ref="F123" r:id="rId108" display="Kony@123"/>
+    <hyperlink ref="F128" r:id="rId109" display="Kony@123"/>
+    <hyperlink ref="F129" r:id="rId110" display="Kony@123"/>
+    <hyperlink ref="F130" r:id="rId111" display="Kony@123"/>
+    <hyperlink ref="F131" r:id="rId112" display="Kony@123"/>
+    <hyperlink ref="F132" r:id="rId113" display="Kony@123"/>
+    <hyperlink ref="F124:F127" r:id="rId114" display="Kony@123"/>
+    <hyperlink ref="F124" r:id="rId115" display="Kony@123"/>
+    <hyperlink ref="F125" r:id="rId116" display="Kony@123"/>
+    <hyperlink ref="F126" r:id="rId117" display="Kony@123"/>
+    <hyperlink ref="F127" r:id="rId118" display="Kony@123"/>
+    <hyperlink ref="F93" r:id="rId119"/>
+    <hyperlink ref="F101" r:id="rId120" display="Kony@123"/>
+    <hyperlink ref="F105" r:id="rId121" display="Kony@123"/>
+    <hyperlink ref="F87" r:id="rId122" display="Kony@123"/>
+    <hyperlink ref="F106" r:id="rId123" display="Kony@123"/>
+    <hyperlink ref="F94" r:id="rId124" display="Kony@123"/>
+    <hyperlink ref="F102" r:id="rId125"/>
+    <hyperlink ref="F83" r:id="rId126"/>
+    <hyperlink ref="F88" r:id="rId127"/>
+    <hyperlink ref="F95" r:id="rId128"/>
+    <hyperlink ref="F103" r:id="rId129"/>
+    <hyperlink ref="F104" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId131"/>
@@ -4207,7 +4217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4915,7 +4925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,11 +5138,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{FAFC8C47-05E1-4C5E-8F41-BE8F346CAB9A}"/>
-    <hyperlink ref="H6" r:id="rId3" display="Kony@123" xr:uid="{9EE8056A-AEBC-48DC-B153-AFBF5EFC0A39}"/>
-    <hyperlink ref="H7" r:id="rId4" display="Kony@123" xr:uid="{EBA55935-094D-45EA-8CD4-0720D5439F75}"/>
-    <hyperlink ref="H8" r:id="rId5" display="Kony@123" xr:uid="{3EF8C29D-D7F8-4190-AAAE-C947DD1C2DF4}"/>
+    <hyperlink ref="H115" r:id="rId1" display="Kony@789"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3" display="Kony@123"/>
+    <hyperlink ref="H7" r:id="rId4" display="Kony@123"/>
+    <hyperlink ref="H8" r:id="rId5" display="Kony@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -5140,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,11 +5399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,7 +5582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,7 +5725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6154,16 +6164,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6207,8 +6217,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="StopPayment" sheetId="7" r:id="rId7"/>
     <sheet name="Alerts" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
+    <sheet name="cPFM" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="355">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1025,6 +1027,81 @@
   </si>
   <si>
     <t>C25166_VerifyAggregateExternalAccountfromLinkAccountWidgetPage</t>
+  </si>
+  <si>
+    <t>user20082</t>
+  </si>
+  <si>
+    <t>C25167_VerifySearchFinancialInstitution</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>C25179_VerifyAccountTransactionKebabOptions</t>
+  </si>
+  <si>
+    <t>Parameter1</t>
+  </si>
+  <si>
+    <t>Toggle Details,Print,Change Category,Split Transaction,Ask a Question</t>
+  </si>
+  <si>
+    <t>00824</t>
+  </si>
+  <si>
+    <t>C25185_VerifyFinancialToolsOptions</t>
+  </si>
+  <si>
+    <t>C25164_VerifyLinkAccountUnderFT</t>
+  </si>
+  <si>
+    <t>C25180_VerifyEditTransactionCategory</t>
+  </si>
+  <si>
+    <t>C25181_VerifyTransactionCategorization</t>
+  </si>
+  <si>
+    <t>C25184_VerifyTransactionFilterByCategory</t>
+  </si>
+  <si>
+    <t>Auto &amp; Transport</t>
+  </si>
+  <si>
+    <t>C25186_VerifyNetWorthWidgetInformation</t>
+  </si>
+  <si>
+    <t>Credit Card account</t>
+  </si>
+  <si>
+    <t>C25195_VerifyDebtsAccount</t>
+  </si>
+  <si>
+    <t>C25187_VerifyNetWorthWidgetFilterAccounts</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>C25188_VerifyNetWorthWidgetTimeRangeChange</t>
+  </si>
+  <si>
+    <t>C25196_VerifyDebtAccountAmountUpdation</t>
+  </si>
+  <si>
+    <t>C25197_VerifyDebtAccountInterestrateUpdate</t>
+  </si>
+  <si>
+    <t>C25199_VerifyTrendsWidget</t>
+  </si>
+  <si>
+    <t>C25200_VerifyTrendsTimeRangeChange</t>
+  </si>
+  <si>
+    <t>C25198_VerifyExcludingDebtAccount</t>
+  </si>
+  <si>
+    <t>C25207_VerifyTrendTransactionDetails</t>
   </si>
 </sst>
 </file>
@@ -1424,15 +1501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4072,10 +4149,380 @@
       <c r="A133" t="s">
         <v>328</v>
       </c>
+      <c r="B133" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>330</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>329</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>330</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>330</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>330</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>337</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>330</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>338</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>330</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>339</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>330</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>330</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>330</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>330</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>345</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>330</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>346</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>330</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>348</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>330</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>330</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>350</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>330</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>351</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>330</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>352</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>330</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>353</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>330</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>354</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>330</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4210,9 +4657,174 @@
     <hyperlink ref="F95" r:id="rId128"/>
     <hyperlink ref="F103" r:id="rId129"/>
     <hyperlink ref="F104" r:id="rId130"/>
+    <hyperlink ref="F133" r:id="rId131" display="Kony@123"/>
+    <hyperlink ref="F134" r:id="rId132" display="Kony@123"/>
+    <hyperlink ref="F135" r:id="rId133" display="Kony@123"/>
+    <hyperlink ref="F136" r:id="rId134" display="Kony@123"/>
+    <hyperlink ref="F137" r:id="rId135" display="Kony@123"/>
+    <hyperlink ref="F138" r:id="rId136" display="Kony@123"/>
+    <hyperlink ref="F139" r:id="rId137" display="Kony@123"/>
+    <hyperlink ref="F140" r:id="rId138" display="Kony@123"/>
+    <hyperlink ref="F141" r:id="rId139" display="Kony@123"/>
+    <hyperlink ref="F142" r:id="rId140" display="Kony@123"/>
+    <hyperlink ref="F143" r:id="rId141" display="Kony@123"/>
+    <hyperlink ref="F144" r:id="rId142" display="Kony@123"/>
+    <hyperlink ref="F145" r:id="rId143" display="Kony@123"/>
+    <hyperlink ref="F146" r:id="rId144" display="Kony@123"/>
+    <hyperlink ref="F147" r:id="rId145" display="Kony@123"/>
+    <hyperlink ref="F148" r:id="rId146" display="Kony@123"/>
+    <hyperlink ref="F149" r:id="rId147" display="Kony@123"/>
+    <hyperlink ref="F150" r:id="rId148" display="Kony@123"/>
+    <hyperlink ref="F151" r:id="rId149" display="Kony@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId131"/>
+  <pageSetup orientation="portrait" r:id="rId150"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4222,7 +4834,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +5848,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6789,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="357">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1102,6 +1102,12 @@
   </si>
   <si>
     <t>C25207_VerifyTrendTransactionDetails</t>
+  </si>
+  <si>
+    <t>C25209_VerifyTrendTransactionCategorizationChange</t>
+  </si>
+  <si>
+    <t>Bonus</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="A122" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,6 +4528,26 @@
         <v>330</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>355</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>330</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4676,18 +4702,19 @@
     <hyperlink ref="F149" r:id="rId147" display="Kony@123"/>
     <hyperlink ref="F150" r:id="rId148" display="Kony@123"/>
     <hyperlink ref="F151" r:id="rId149" display="Kony@123"/>
+    <hyperlink ref="F152" r:id="rId150" display="Kony@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId150"/>
+  <pageSetup orientation="portrait" r:id="rId151"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,6 +4834,14 @@
       </c>
       <c r="B13" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Alerts" sheetId="8" r:id="rId8"/>
     <sheet name="Login" sheetId="9" r:id="rId9"/>
     <sheet name="cPFM" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="Transactions" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="377">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1108,6 +1108,66 @@
   </si>
   <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>C25160_VerifyDebtAccountDebitTransaction</t>
+  </si>
+  <si>
+    <t>C25169_VerifyAddressChangeRequestInActivityCenter</t>
+  </si>
+  <si>
+    <t>SecondAccountNumber</t>
+  </si>
+  <si>
+    <t>21941190</t>
+  </si>
+  <si>
+    <t>20082100</t>
+  </si>
+  <si>
+    <t>WorkPhone</t>
+  </si>
+  <si>
+    <t>CellPhone</t>
+  </si>
+  <si>
+    <t>56712354</t>
+  </si>
+  <si>
+    <t>67012354</t>
+  </si>
+  <si>
+    <t>C25072_VerifyQuickTransferFromAccountDashboard</t>
+  </si>
+  <si>
+    <t>C23477_VerifySecurityAlertSetupByEmail</t>
+  </si>
+  <si>
+    <t>Security Alert</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>C23478_VerifySecurityAlertSetupByPhoneNumber</t>
+  </si>
+  <si>
+    <t>C23404_VerifyFundTransferAboveBalanceAvailable</t>
+  </si>
+  <si>
+    <t>112102</t>
+  </si>
+  <si>
+    <t>C23409_VerifyLoanAccountNotInFromAccountDropdown</t>
+  </si>
+  <si>
+    <t>C23412_VerifyFrequencyDropdownFunctionality</t>
+  </si>
+  <si>
+    <t>Frequency dropodwn</t>
+  </si>
+  <si>
+    <t>1st day of the month,Last day of the month,1st &amp; 15th day of the month,15th &amp; last day of the month,Weekly,Every other week,Monthly,Quarterly,Semi-annually,Yearly</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView topLeftCell="A135" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,6 +4608,166 @@
         <v>330</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>330</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>358</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>330</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>330</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>330</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>370</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>330</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>371</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>330</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>373</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>330</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4703,9 +4923,17 @@
     <hyperlink ref="F150" r:id="rId148" display="Kony@123"/>
     <hyperlink ref="F151" r:id="rId149" display="Kony@123"/>
     <hyperlink ref="F152" r:id="rId150" display="Kony@123"/>
+    <hyperlink ref="F153" r:id="rId151" display="Kony@123"/>
+    <hyperlink ref="F154" r:id="rId152" display="Kony@123"/>
+    <hyperlink ref="F155" r:id="rId153" display="Kony@123"/>
+    <hyperlink ref="F156" r:id="rId154" display="Kony@123"/>
+    <hyperlink ref="F157" r:id="rId155" display="Kony@123"/>
+    <hyperlink ref="F158" r:id="rId156" display="Kony@123"/>
+    <hyperlink ref="F159" r:id="rId157" display="Kony@123"/>
+    <hyperlink ref="F160" r:id="rId158" display="Kony@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId151"/>
+  <pageSetup orientation="portrait" r:id="rId159"/>
 </worksheet>
 </file>
 
@@ -4713,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4958,7 @@
       <c r="B1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4846,30 +5074,86 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,6 +5847,45 @@
       </c>
       <c r="N42" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>373</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>374</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E45" t="s">
+        <v>375</v>
+      </c>
+      <c r="G45" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6373,10 +6696,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6807,6 +7130,17 @@
       </c>
       <c r="H16" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
+++ b/Q2_Automation/src/main/java/com/Resources/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\git\TDECU_v6_Project_updates\TDECUProjects\Q2_Automation\src\main\java\com\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC75E98-D0C3-4BAE-9DE7-A5F1D5B7ABF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="781" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -24,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="378">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1168,12 +1166,15 @@
   </si>
   <si>
     <t>1st day of the month,Last day of the month,1st &amp; 15th day of the month,15th &amp; last day of the month,Weekly,Every other week,Monthly,Quarterly,Semi-annually,Yearly</t>
+  </si>
+  <si>
+    <t>Reminder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1559,18 +1560,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView topLeftCell="A48" zoomScale="80" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,8 +1988,8 @@
       <c r="E21" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>312</v>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>312</v>
@@ -4773,164 +4774,164 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1"/>
-    <hyperlink ref="F82" r:id="rId2"/>
-    <hyperlink ref="F34" r:id="rId3"/>
-    <hyperlink ref="F35" r:id="rId4"/>
-    <hyperlink ref="F36" r:id="rId5"/>
-    <hyperlink ref="F37" r:id="rId6"/>
-    <hyperlink ref="F38" r:id="rId7"/>
-    <hyperlink ref="F39" r:id="rId8"/>
-    <hyperlink ref="F40" r:id="rId9"/>
-    <hyperlink ref="F41" r:id="rId10"/>
-    <hyperlink ref="F42" r:id="rId11"/>
-    <hyperlink ref="F2" r:id="rId12" display="Kony@123"/>
-    <hyperlink ref="F3" r:id="rId13" display="Kony@123"/>
-    <hyperlink ref="F4" r:id="rId14" display="Kony@123"/>
-    <hyperlink ref="F5" r:id="rId15" display="Kony@123"/>
-    <hyperlink ref="F6" r:id="rId16" display="Kony@123"/>
-    <hyperlink ref="F7" r:id="rId17" display="Kony@123"/>
-    <hyperlink ref="F8" r:id="rId18" display="Kony@123"/>
-    <hyperlink ref="F9" r:id="rId19" display="Kony@123"/>
-    <hyperlink ref="F10" r:id="rId20" display="Kony@123"/>
-    <hyperlink ref="F11" r:id="rId21" display="Kony@123"/>
-    <hyperlink ref="F12" r:id="rId22" display="Kony@123"/>
-    <hyperlink ref="F13" r:id="rId23" display="Kony@123"/>
-    <hyperlink ref="F14" r:id="rId24" display="Kony@123"/>
-    <hyperlink ref="F15" r:id="rId25" display="Kony@123"/>
-    <hyperlink ref="F18" r:id="rId26" display="Kony@123"/>
-    <hyperlink ref="F19" r:id="rId27" display="Kony@123"/>
-    <hyperlink ref="F21" r:id="rId28" display="Kony@123"/>
-    <hyperlink ref="F22" r:id="rId29" display="Kony@123"/>
-    <hyperlink ref="F23" r:id="rId30" display="Kony@123"/>
-    <hyperlink ref="F24" r:id="rId31" display="Kony@123"/>
-    <hyperlink ref="F25" r:id="rId32" display="Kony@123"/>
-    <hyperlink ref="F26" r:id="rId33" display="Kony@123"/>
-    <hyperlink ref="F27" r:id="rId34" display="Kony@123"/>
-    <hyperlink ref="F28" r:id="rId35" display="Kony@123"/>
-    <hyperlink ref="F29" r:id="rId36" display="Kony@123"/>
-    <hyperlink ref="F30" r:id="rId37" display="Kony@123"/>
-    <hyperlink ref="F31" r:id="rId38" display="Kony@123"/>
-    <hyperlink ref="F32" r:id="rId39" display="Kony@123"/>
-    <hyperlink ref="F33" r:id="rId40" display="Kony@123"/>
-    <hyperlink ref="F43" r:id="rId41" display="Kony@123"/>
-    <hyperlink ref="F44" r:id="rId42" display="Kony@123"/>
-    <hyperlink ref="F45" r:id="rId43" display="Kony@123"/>
-    <hyperlink ref="F46" r:id="rId44" display="Kony@123"/>
-    <hyperlink ref="F47" r:id="rId45" display="Kony@123"/>
-    <hyperlink ref="F48" r:id="rId46" display="Kony@123"/>
-    <hyperlink ref="F49" r:id="rId47" display="Kony@123"/>
-    <hyperlink ref="F50" r:id="rId48" display="Kony@123"/>
-    <hyperlink ref="F51" r:id="rId49" display="Kony@123"/>
-    <hyperlink ref="F52" r:id="rId50" display="Kony@123"/>
-    <hyperlink ref="F53" r:id="rId51" display="Kony@123"/>
-    <hyperlink ref="F54" r:id="rId52" display="Kony@123"/>
-    <hyperlink ref="F55" r:id="rId53" display="Kony@123"/>
-    <hyperlink ref="F56" r:id="rId54" display="Kony@123"/>
-    <hyperlink ref="F57" r:id="rId55" display="Kony@123"/>
-    <hyperlink ref="F58" r:id="rId56" display="Kony@123"/>
-    <hyperlink ref="F59" r:id="rId57" display="Kony@123"/>
-    <hyperlink ref="F60" r:id="rId58" display="Kony@123"/>
-    <hyperlink ref="F61" r:id="rId59" display="Kony@123"/>
-    <hyperlink ref="F62" r:id="rId60" display="Kony@123"/>
-    <hyperlink ref="F63" r:id="rId61" display="Kony@123"/>
-    <hyperlink ref="F64" r:id="rId62" display="Kony@123"/>
-    <hyperlink ref="F65" r:id="rId63" display="Kony@123"/>
-    <hyperlink ref="F66" r:id="rId64" display="Kony@123"/>
-    <hyperlink ref="F67" r:id="rId65" display="Kony@123"/>
-    <hyperlink ref="F68" r:id="rId66" display="Kony@123"/>
-    <hyperlink ref="F69" r:id="rId67" display="Kony@123"/>
-    <hyperlink ref="F70" r:id="rId68" display="Kony@123"/>
-    <hyperlink ref="F71" r:id="rId69" display="Kony@123"/>
-    <hyperlink ref="F72" r:id="rId70" display="Kony@123"/>
-    <hyperlink ref="F73" r:id="rId71" display="Kony@123"/>
-    <hyperlink ref="F74" r:id="rId72" display="Kony@123"/>
-    <hyperlink ref="F75" r:id="rId73" display="Kony@123"/>
-    <hyperlink ref="F76" r:id="rId74" display="Kony@123"/>
-    <hyperlink ref="F77" r:id="rId75" display="Kony@123"/>
-    <hyperlink ref="F78" r:id="rId76" display="Kony@123"/>
-    <hyperlink ref="F79" r:id="rId77" display="Kony@123"/>
-    <hyperlink ref="F80" r:id="rId78" display="Kony@123"/>
-    <hyperlink ref="F81" r:id="rId79" display="Kony@123"/>
-    <hyperlink ref="F84" r:id="rId80" display="Kony@123"/>
-    <hyperlink ref="F85" r:id="rId81" display="Kony@123"/>
-    <hyperlink ref="F86" r:id="rId82" display="Kony@123"/>
-    <hyperlink ref="F89" r:id="rId83" display="Kony@123"/>
-    <hyperlink ref="F90" r:id="rId84" display="Kony@123"/>
-    <hyperlink ref="F91" r:id="rId85" display="Kony@123"/>
-    <hyperlink ref="F92" r:id="rId86" display="Kony@123"/>
-    <hyperlink ref="F96" r:id="rId87" display="Kony@123"/>
-    <hyperlink ref="F97" r:id="rId88" display="Kony@123"/>
-    <hyperlink ref="F98" r:id="rId89" display="Kony@123"/>
-    <hyperlink ref="F99" r:id="rId90" display="Kony@123"/>
-    <hyperlink ref="F100" r:id="rId91" display="Kony@123"/>
-    <hyperlink ref="F107" r:id="rId92" display="Kony@123"/>
-    <hyperlink ref="F108" r:id="rId93" display="Kony@123"/>
-    <hyperlink ref="F109" r:id="rId94" display="Kony@123"/>
-    <hyperlink ref="F110" r:id="rId95" display="Kony@123"/>
-    <hyperlink ref="F111" r:id="rId96" display="Kony@123"/>
-    <hyperlink ref="F112" r:id="rId97" display="Kony@123"/>
-    <hyperlink ref="F113" r:id="rId98" display="Kony@123"/>
-    <hyperlink ref="F114" r:id="rId99" display="Kony@123"/>
-    <hyperlink ref="F115" r:id="rId100" display="Kony@123"/>
-    <hyperlink ref="F116" r:id="rId101" display="Kony@123"/>
-    <hyperlink ref="F117" r:id="rId102" display="Kony@123"/>
-    <hyperlink ref="F118" r:id="rId103"/>
-    <hyperlink ref="F119" r:id="rId104" display="Kony@123"/>
-    <hyperlink ref="F120" r:id="rId105" display="Kony@123"/>
-    <hyperlink ref="F121" r:id="rId106" display="Kony@123"/>
-    <hyperlink ref="F122" r:id="rId107" display="Kony@123"/>
-    <hyperlink ref="F123" r:id="rId108" display="Kony@123"/>
-    <hyperlink ref="F128" r:id="rId109" display="Kony@123"/>
-    <hyperlink ref="F129" r:id="rId110" display="Kony@123"/>
-    <hyperlink ref="F130" r:id="rId111" display="Kony@123"/>
-    <hyperlink ref="F131" r:id="rId112" display="Kony@123"/>
-    <hyperlink ref="F132" r:id="rId113" display="Kony@123"/>
-    <hyperlink ref="F124:F127" r:id="rId114" display="Kony@123"/>
-    <hyperlink ref="F124" r:id="rId115" display="Kony@123"/>
-    <hyperlink ref="F125" r:id="rId116" display="Kony@123"/>
-    <hyperlink ref="F126" r:id="rId117" display="Kony@123"/>
-    <hyperlink ref="F127" r:id="rId118" display="Kony@123"/>
-    <hyperlink ref="F93" r:id="rId119"/>
-    <hyperlink ref="F101" r:id="rId120" display="Kony@123"/>
-    <hyperlink ref="F105" r:id="rId121" display="Kony@123"/>
-    <hyperlink ref="F87" r:id="rId122" display="Kony@123"/>
-    <hyperlink ref="F106" r:id="rId123" display="Kony@123"/>
-    <hyperlink ref="F94" r:id="rId124" display="Kony@123"/>
-    <hyperlink ref="F102" r:id="rId125"/>
-    <hyperlink ref="F83" r:id="rId126"/>
-    <hyperlink ref="F88" r:id="rId127"/>
-    <hyperlink ref="F95" r:id="rId128"/>
-    <hyperlink ref="F103" r:id="rId129"/>
-    <hyperlink ref="F104" r:id="rId130"/>
-    <hyperlink ref="F133" r:id="rId131" display="Kony@123"/>
-    <hyperlink ref="F134" r:id="rId132" display="Kony@123"/>
-    <hyperlink ref="F135" r:id="rId133" display="Kony@123"/>
-    <hyperlink ref="F136" r:id="rId134" display="Kony@123"/>
-    <hyperlink ref="F137" r:id="rId135" display="Kony@123"/>
-    <hyperlink ref="F138" r:id="rId136" display="Kony@123"/>
-    <hyperlink ref="F139" r:id="rId137" display="Kony@123"/>
-    <hyperlink ref="F140" r:id="rId138" display="Kony@123"/>
-    <hyperlink ref="F141" r:id="rId139" display="Kony@123"/>
-    <hyperlink ref="F142" r:id="rId140" display="Kony@123"/>
-    <hyperlink ref="F143" r:id="rId141" display="Kony@123"/>
-    <hyperlink ref="F144" r:id="rId142" display="Kony@123"/>
-    <hyperlink ref="F145" r:id="rId143" display="Kony@123"/>
-    <hyperlink ref="F146" r:id="rId144" display="Kony@123"/>
-    <hyperlink ref="F147" r:id="rId145" display="Kony@123"/>
-    <hyperlink ref="F148" r:id="rId146" display="Kony@123"/>
-    <hyperlink ref="F149" r:id="rId147" display="Kony@123"/>
-    <hyperlink ref="F150" r:id="rId148" display="Kony@123"/>
-    <hyperlink ref="F151" r:id="rId149" display="Kony@123"/>
-    <hyperlink ref="F152" r:id="rId150" display="Kony@123"/>
-    <hyperlink ref="F153" r:id="rId151" display="Kony@123"/>
-    <hyperlink ref="F154" r:id="rId152" display="Kony@123"/>
-    <hyperlink ref="F155" r:id="rId153" display="Kony@123"/>
-    <hyperlink ref="F156" r:id="rId154" display="Kony@123"/>
-    <hyperlink ref="F157" r:id="rId155" display="Kony@123"/>
-    <hyperlink ref="F158" r:id="rId156" display="Kony@123"/>
-    <hyperlink ref="F159" r:id="rId157" display="Kony@123"/>
-    <hyperlink ref="F160" r:id="rId158" display="Kony@123"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F82" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F38" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F41" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F2" r:id="rId12" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F3" r:id="rId13" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F4" r:id="rId14" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F5" r:id="rId15" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F6" r:id="rId16" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F7" r:id="rId17" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F8" r:id="rId18" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F9" r:id="rId19" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F10" r:id="rId20" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F11" r:id="rId21" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F13" r:id="rId23" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F14" r:id="rId24" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F15" r:id="rId25" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F18" r:id="rId26" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F19" r:id="rId27" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F21" r:id="rId28" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F22" r:id="rId29" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F23" r:id="rId30" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F24" r:id="rId31" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F25" r:id="rId32" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F26" r:id="rId33" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F27" r:id="rId34" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F28" r:id="rId35" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F29" r:id="rId36" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F30" r:id="rId37" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F31" r:id="rId38" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F32" r:id="rId39" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F33" r:id="rId40" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F43" r:id="rId41" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F44" r:id="rId42" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F45" r:id="rId43" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F46" r:id="rId44" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F47" r:id="rId45" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F48" r:id="rId46" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F49" r:id="rId47" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F50" r:id="rId48" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F51" r:id="rId49" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F52" r:id="rId50" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F53" r:id="rId51" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F54" r:id="rId52" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F55" r:id="rId53" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F56" r:id="rId54" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F57" r:id="rId55" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F58" r:id="rId56" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F59" r:id="rId57" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F60" r:id="rId58" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F61" r:id="rId59" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F62" r:id="rId60" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F63" r:id="rId61" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F64" r:id="rId62" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F65" r:id="rId63" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F66" r:id="rId64" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F67" r:id="rId65" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F68" r:id="rId66" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F69" r:id="rId67" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F70" r:id="rId68" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F71" r:id="rId69" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F72" r:id="rId70" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F73" r:id="rId71" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F74" r:id="rId72" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F75" r:id="rId73" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F76" r:id="rId74" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F77" r:id="rId75" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F78" r:id="rId76" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F79" r:id="rId77" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F80" r:id="rId78" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F81" r:id="rId79" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F84" r:id="rId80" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F85" r:id="rId81" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F86" r:id="rId82" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F89" r:id="rId83" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F90" r:id="rId84" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F91" r:id="rId85" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F92" r:id="rId86" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F96" r:id="rId87" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F97" r:id="rId88" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F98" r:id="rId89" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F99" r:id="rId90" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F100" r:id="rId91" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F107" r:id="rId92" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F108" r:id="rId93" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F109" r:id="rId94" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F110" r:id="rId95" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F111" r:id="rId96" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F112" r:id="rId97" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F113" r:id="rId98" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F114" r:id="rId99" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F115" r:id="rId100" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F116" r:id="rId101" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F117" r:id="rId102" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F118" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F119" r:id="rId104" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F120" r:id="rId105" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F121" r:id="rId106" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F122" r:id="rId107" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F123" r:id="rId108" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F128" r:id="rId109" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F129" r:id="rId110" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F130" r:id="rId111" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F131" r:id="rId112" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F132" r:id="rId113" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F124:F127" r:id="rId114" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F124" r:id="rId115" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F125" r:id="rId116" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F126" r:id="rId117" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F127" r:id="rId118" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F93" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F101" r:id="rId120" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F105" r:id="rId121" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F87" r:id="rId122" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F106" r:id="rId123" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F94" r:id="rId124" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F102" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F83" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F88" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F95" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F103" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F104" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F133" r:id="rId131" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F134" r:id="rId132" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F135" r:id="rId133" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F136" r:id="rId134" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F137" r:id="rId135" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F138" r:id="rId136" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F139" r:id="rId137" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F140" r:id="rId138" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="F141" r:id="rId139" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F142" r:id="rId140" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F143" r:id="rId141" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F144" r:id="rId142" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F145" r:id="rId143" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F146" r:id="rId144" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F147" r:id="rId145" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F148" r:id="rId146" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F149" r:id="rId147" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F150" r:id="rId148" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F151" r:id="rId149" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F152" r:id="rId150" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="F153" r:id="rId151" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F154" r:id="rId152" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F155" r:id="rId153" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F156" r:id="rId154" display="Kony@123" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="F157" r:id="rId155" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F158" r:id="rId156" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F159" r:id="rId157" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F160" r:id="rId158" display="Kony@123" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId159"/>
@@ -4938,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5079,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5148,12 +5149,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5895,7 +5896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6108,11 +6109,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H115" r:id="rId1" display="Kony@789"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H6" r:id="rId3" display="Kony@123"/>
-    <hyperlink ref="H7" r:id="rId4" display="Kony@123"/>
-    <hyperlink ref="H8" r:id="rId5" display="Kony@123"/>
+    <hyperlink ref="H115" r:id="rId1" display="Kony@789" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" display="Kony@123" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" display="Kony@123" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" display="Kony@123" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -6120,7 +6121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6202,7 +6203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6369,7 +6370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6552,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6695,11 +6696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6791,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -7145,16 +7146,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7198,8 +7199,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
